--- a/data_clean/Aker 21.12.2020.xlsx
+++ b/data_clean/Aker 21.12.2020.xlsx
@@ -1476,7 +1476,7 @@
         <v>1.194821537805095</v>
       </c>
       <c r="K2">
-        <v>52.46948586882852</v>
+        <v>0.02469485868828465</v>
       </c>
       <c r="L2">
         <v>0.004624491653735302</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1547,7 +1547,7 @@
         <v>1.194821537805095</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.06112557870367779</v>
@@ -1577,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1618,7 +1618,7 @@
         <v>1.194821537805095</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.05089963996709661</v>
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
       <c r="V4">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
       <c r="W4">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1689,7 +1689,7 @@
         <v>1.194821537805095</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.05765640582898705</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.001677852348993</v>
+        <v>0.001677852348993314</v>
       </c>
       <c r="V5">
-        <v>1.001677852348993</v>
+        <v>0.001677852348993314</v>
       </c>
       <c r="W5">
-        <v>1.004784688995215</v>
+        <v>0.004784688995215225</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1760,7 +1760,7 @@
         <v>1.194821537805095</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.05930833513079332</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.001005025125628</v>
+        <v>0.001005025125628167</v>
       </c>
       <c r="V6">
-        <v>1.001005025125628</v>
+        <v>0.001005025125628167</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1831,7 +1831,7 @@
         <v>1.232557142857143</v>
       </c>
       <c r="K7">
-        <v>55.20831333704464</v>
+        <v>0.05208313337044645</v>
       </c>
       <c r="L7">
         <v>0.04837012607156938</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9995537706381079</v>
+        <v>-0.0004462293618920921</v>
       </c>
       <c r="V7">
-        <v>0.9995537706381079</v>
+        <v>-0.0004462293618920921</v>
       </c>
       <c r="W7">
-        <v>0.9933333333333333</v>
+        <v>-0.00666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1902,7 +1902,7 @@
         <v>1.984436842105263</v>
       </c>
       <c r="K8">
-        <v>66.49284093093468</v>
+        <v>0.1649284093093467</v>
       </c>
       <c r="L8">
         <v>0.04220407051094184</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000364431486881</v>
+        <v>0.0003644314868807008</v>
       </c>
       <c r="V8">
-        <v>1.000364431486881</v>
+        <v>0.0003644314868807008</v>
       </c>
       <c r="W8">
-        <v>1.004793863854267</v>
+        <v>0.004793863854266611</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1973,7 +1973,7 @@
         <v>1.507265374211001</v>
       </c>
       <c r="K9">
-        <v>60.115909138071</v>
+        <v>0.10115909138071</v>
       </c>
       <c r="L9">
         <v>0.03626606143281248</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000034153005464</v>
+        <v>3.415300546438793E-05</v>
       </c>
       <c r="V9">
-        <v>1.000034153005464</v>
+        <v>3.415300546438793E-05</v>
       </c>
       <c r="W9">
-        <v>0.9980916030534351</v>
+        <v>-0.001908396946564861</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2044,7 +2044,7 @@
         <v>2.013490359577935</v>
       </c>
       <c r="K10">
-        <v>66.81588853199256</v>
+        <v>0.1681588853199255</v>
       </c>
       <c r="L10">
         <v>0.03400438792218293</v>
@@ -2074,13 +2074,13 @@
         <v>0.3888888888889142</v>
       </c>
       <c r="U10">
-        <v>1.000451563205567</v>
+        <v>0.0004515632055674956</v>
       </c>
       <c r="V10">
-        <v>1.000451563205567</v>
+        <v>0.0004515632055674956</v>
       </c>
       <c r="W10">
-        <v>1.003824091778203</v>
+        <v>0.003824091778202643</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2115,7 +2115,7 @@
         <v>2.413141663814987</v>
       </c>
       <c r="K11">
-        <v>70.70147979494455</v>
+        <v>0.2070147979494454</v>
       </c>
       <c r="L11">
         <v>0.03506697486534396</v>
@@ -2145,13 +2145,13 @@
         <v>0.6124999999999545</v>
       </c>
       <c r="U11">
-        <v>1.000647833474936</v>
+        <v>0.0006478334749364656</v>
       </c>
       <c r="V11">
-        <v>1.000647833474936</v>
+        <v>0.0006478334749364656</v>
       </c>
       <c r="W11">
-        <v>1.002857142857143</v>
+        <v>0.002857142857142891</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2186,7 +2186,7 @@
         <v>2.413141663814988</v>
       </c>
       <c r="K12">
-        <v>70.70147979494455</v>
+        <v>0.2070147979494454</v>
       </c>
       <c r="L12">
         <v>0.03706606995272116</v>
@@ -2216,13 +2216,13 @@
         <v>0.8352272727272521</v>
       </c>
       <c r="U12">
-        <v>1.000529702411449</v>
+        <v>0.0005297024114485627</v>
       </c>
       <c r="V12">
-        <v>1.000529702411449</v>
+        <v>0.0005297024114485627</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2257,7 +2257,7 @@
         <v>2.708359617083356</v>
       </c>
       <c r="K13">
-        <v>73.03389899422686</v>
+        <v>0.2303389899422686</v>
       </c>
       <c r="L13">
         <v>0.04007234795775618</v>
@@ -2287,13 +2287,13 @@
         <v>0.8333333333333712</v>
       </c>
       <c r="U13">
-        <v>1.000600300873691</v>
+        <v>0.0006003008736907844</v>
       </c>
       <c r="V13">
-        <v>1.000600300873691</v>
+        <v>0.0006003008736907844</v>
       </c>
       <c r="W13">
-        <v>1.001899335232669</v>
+        <v>0.001899335232668609</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2328,7 +2328,7 @@
         <v>2.066258063077147</v>
       </c>
       <c r="K14">
-        <v>67.38695897642586</v>
+        <v>0.1738695897642586</v>
       </c>
       <c r="L14">
         <v>0.04198744976422381</v>
@@ -2358,13 +2358,13 @@
         <v>0.8317307692307168</v>
       </c>
       <c r="U14">
-        <v>1.000360854062055</v>
+        <v>0.0003608540620547718</v>
       </c>
       <c r="V14">
-        <v>1.000360854062055</v>
+        <v>0.0003608540620547718</v>
       </c>
       <c r="W14">
-        <v>0.9981042654028436</v>
+        <v>-0.001895734597156418</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2399,7 +2399,7 @@
         <v>2.066258063077147</v>
       </c>
       <c r="K15">
-        <v>67.38695897642586</v>
+        <v>0.1738695897642586</v>
       </c>
       <c r="L15">
         <v>0.04295639658119822</v>
@@ -2429,13 +2429,13 @@
         <v>1.29464285714289</v>
       </c>
       <c r="U15">
-        <v>1.000309191908605</v>
+        <v>0.0003091919086049</v>
       </c>
       <c r="V15">
-        <v>1.000309191908605</v>
+        <v>0.0003091919086049</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2470,7 +2470,7 @@
         <v>2.197605071326562</v>
       </c>
       <c r="K16">
-        <v>68.72659450764696</v>
+        <v>0.1872659450764697</v>
       </c>
       <c r="L16">
         <v>0.04358775206330227</v>
@@ -2500,13 +2500,13 @@
         <v>1.49583333333328</v>
       </c>
       <c r="U16">
-        <v>1.000331449068083</v>
+        <v>0.000331449068083467</v>
       </c>
       <c r="V16">
-        <v>1.000331449068083</v>
+        <v>0.000331449068083467</v>
       </c>
       <c r="W16">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2541,7 +2541,7 @@
         <v>2.47412508869375</v>
       </c>
       <c r="K17">
-        <v>71.21577449083752</v>
+        <v>0.2121577449083751</v>
       </c>
       <c r="L17">
         <v>0.04463794294928639</v>
@@ -2571,13 +2571,13 @@
         <v>1.90625</v>
       </c>
       <c r="U17">
-        <v>1.000409067801995</v>
+        <v>0.0004090678019952332</v>
       </c>
       <c r="V17">
-        <v>1.001016712206901</v>
+        <v>0.001016712206900916</v>
       </c>
       <c r="W17">
-        <v>1.001897533206831</v>
+        <v>0.00189753320683117</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2612,7 +2612,7 @@
         <v>1.722196097095873</v>
       </c>
       <c r="K18">
-        <v>63.26495357675253</v>
+        <v>0.1326495357675253</v>
       </c>
       <c r="L18">
         <v>0.04436616494460766</v>
@@ -2642,13 +2642,13 @@
         <v>1.6875</v>
       </c>
       <c r="U18">
-        <v>1.000192657304689</v>
+        <v>0.0001926573046893143</v>
       </c>
       <c r="V18">
-        <v>1.000571319748619</v>
+        <v>0.0005713197486192367</v>
       </c>
       <c r="W18">
-        <v>0.9971590909090909</v>
+        <v>-0.002840909090909061</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2683,7 +2683,7 @@
         <v>1.828833685914508</v>
       </c>
       <c r="K19">
-        <v>64.64974222488732</v>
+        <v>0.1464974222488732</v>
       </c>
       <c r="L19">
         <v>0.04360075628162961</v>
@@ -2713,13 +2713,13 @@
         <v>1.4375</v>
       </c>
       <c r="U19">
-        <v>1.000224139863275</v>
+        <v>0.0002241398632747416</v>
       </c>
       <c r="V19">
-        <v>1.00057099352874</v>
+        <v>0.0005709935287401269</v>
       </c>
       <c r="W19">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2754,7 +2754,7 @@
         <v>2.165583966394406</v>
       </c>
       <c r="K20">
-        <v>68.41025192773522</v>
+        <v>0.1841025192773522</v>
       </c>
       <c r="L20">
         <v>0.04361440796477629</v>
@@ -2784,13 +2784,13 @@
         <v>1.3125</v>
       </c>
       <c r="U20">
-        <v>1.000350877192983</v>
+        <v>0.000350877192982546</v>
       </c>
       <c r="V20">
-        <v>1.000443852640923</v>
+        <v>0.0004438526409229482</v>
       </c>
       <c r="W20">
-        <v>1.002846299810247</v>
+        <v>0.002846299810246755</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2825,7 +2825,7 @@
         <v>2.401899952696089</v>
       </c>
       <c r="K21">
-        <v>70.60466169184443</v>
+        <v>0.2060466169184443</v>
       </c>
       <c r="L21">
         <v>0.04465274238045917</v>
@@ -2855,13 +2855,13 @@
         <v>1.28125</v>
       </c>
       <c r="U21">
-        <v>1.000410883399308</v>
+        <v>0.0004108833993083927</v>
       </c>
       <c r="V21">
-        <v>1.000570414501204</v>
+        <v>0.0005704145012044304</v>
       </c>
       <c r="W21">
-        <v>1.001892147587512</v>
+        <v>0.001892147587511772</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2896,7 +2896,7 @@
         <v>1.923437753017867</v>
       </c>
       <c r="K22">
-        <v>65.79369617267551</v>
+        <v>0.1579369617267551</v>
       </c>
       <c r="L22">
         <v>0.04525189423329437</v>
@@ -2926,13 +2926,13 @@
         <v>1.3125</v>
       </c>
       <c r="U22">
-        <v>1.000280965069698</v>
+        <v>0.0002809650696975474</v>
       </c>
       <c r="V22">
-        <v>1.000886805599544</v>
+        <v>0.000886805599543905</v>
       </c>
       <c r="W22">
-        <v>0.9981114258734656</v>
+        <v>-0.001888574126534426</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2967,7 +2967,7 @@
         <v>1.590030801204207</v>
       </c>
       <c r="K23">
-        <v>61.39042054885753</v>
+        <v>0.1139042054885754</v>
       </c>
       <c r="L23">
         <v>0.04462235530057554</v>
@@ -2997,13 +2997,13 @@
         <v>1.0625</v>
       </c>
       <c r="U23">
-        <v>1.000168861175521</v>
+        <v>0.0001688611755208402</v>
       </c>
       <c r="V23">
-        <v>1.00044300993608</v>
+        <v>0.000443009936079708</v>
       </c>
       <c r="W23">
-        <v>0.9981078524124882</v>
+        <v>-0.001892147587511772</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3038,7 +3038,7 @@
         <v>1.590030801204207</v>
       </c>
       <c r="K24">
-        <v>61.39042054885753</v>
+        <v>0.1139042054885754</v>
       </c>
       <c r="L24">
         <v>0.04314671286362745</v>
@@ -3068,13 +3068,13 @@
         <v>0.90625</v>
       </c>
       <c r="U24">
-        <v>1.000154151564826</v>
+        <v>0.0001541515648264546</v>
       </c>
       <c r="V24">
-        <v>1.000569331983806</v>
+        <v>0.0005693319838058208</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3109,7 +3109,7 @@
         <v>1.782096276060084</v>
       </c>
       <c r="K25">
-        <v>64.05588086203227</v>
+        <v>0.1405588086203227</v>
       </c>
       <c r="L25">
         <v>0.04184145595586854</v>
@@ -3139,13 +3139,13 @@
         <v>0.625</v>
       </c>
       <c r="U25">
-        <v>1.000220540600146</v>
+        <v>0.0002205406001460908</v>
       </c>
       <c r="V25">
-        <v>1.000442561800594</v>
+        <v>0.000442561800594321</v>
       </c>
       <c r="W25">
-        <v>1.001895734597156</v>
+        <v>0.001895734597156418</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3180,7 +3180,7 @@
         <v>1.367412896214559</v>
       </c>
       <c r="K26">
-        <v>57.75979755795966</v>
+        <v>0.07759797557959658</v>
       </c>
       <c r="L26">
         <v>0.03947223230265876</v>
@@ -3210,13 +3210,13 @@
         <v>0.5625</v>
       </c>
       <c r="U26">
-        <v>1.000088748019017</v>
+        <v>8.874801901725959E-05</v>
       </c>
       <c r="V26">
-        <v>1.000063195146613</v>
+        <v>6.319514661279335E-05</v>
       </c>
       <c r="W26">
-        <v>0.9971617786187322</v>
+        <v>-0.002838221381267769</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3251,7 +3251,7 @@
         <v>1.612354107727034</v>
       </c>
       <c r="K27">
-        <v>61.72035035211655</v>
+        <v>0.1172035035211656</v>
       </c>
       <c r="L27">
         <v>0.03756402718280745</v>
@@ -3281,13 +3281,13 @@
         <v>0.625</v>
       </c>
       <c r="U27">
-        <v>1.000191620199987</v>
+        <v>0.0001916201999871969</v>
       </c>
       <c r="V27">
-        <v>1.000252764612954</v>
+        <v>0.0002527646129542038</v>
       </c>
       <c r="W27">
-        <v>1.002846299810247</v>
+        <v>0.002846299810246755</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3322,7 +3322,7 @@
         <v>1.612354107727033</v>
       </c>
       <c r="K28">
-        <v>61.72035035211655</v>
+        <v>0.1172035035211656</v>
       </c>
       <c r="L28">
         <v>0.03591196446916997</v>
@@ -3352,13 +3352,13 @@
         <v>0.5</v>
       </c>
       <c r="U28">
-        <v>1.000177392119186</v>
+        <v>0.0001773921191856598</v>
       </c>
       <c r="V28">
-        <v>1.000126350369575</v>
+        <v>0.000126350369574979</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3393,7 +3393,7 @@
         <v>1.183926007199502</v>
       </c>
       <c r="K29">
-        <v>54.21090290131566</v>
+        <v>0.04210902901315661</v>
       </c>
       <c r="L29">
         <v>0.03296085366481741</v>
@@ -3423,13 +3423,13 @@
         <v>0.1875</v>
       </c>
       <c r="U29">
-        <v>1.000028915396066</v>
+        <v>2.891539606553195E-05</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.9962157048249763</v>
+        <v>-0.003784295175023655</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3464,7 +3464,7 @@
         <v>1.393701706794178</v>
       </c>
       <c r="K30">
-        <v>58.22370025631665</v>
+        <v>0.08223700256316657</v>
       </c>
       <c r="L30">
         <v>0.0303693177199221</v>
@@ -3494,13 +3494,13 @@
         <v>0.03125</v>
       </c>
       <c r="U30">
-        <v>1.000125238626402</v>
+        <v>0.0001252386264016803</v>
       </c>
       <c r="V30">
-        <v>1.000189501610764</v>
+        <v>0.0001895016107635872</v>
       </c>
       <c r="W30">
-        <v>1.002849002849003</v>
+        <v>0.002849002849002913</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3535,7 +3535,7 @@
         <v>1.467307215423889</v>
       </c>
       <c r="K31">
-        <v>59.46998437208404</v>
+        <v>0.09469984372084039</v>
       </c>
       <c r="L31">
         <v>0.02840121572770401</v>
@@ -3565,13 +3565,13 @@
         <v>0.03125</v>
       </c>
       <c r="U31">
-        <v>1.000148551080818</v>
+        <v>0.0001485510808183488</v>
       </c>
       <c r="V31">
-        <v>1.000189465706707</v>
+        <v>0.0001894657067071925</v>
       </c>
       <c r="W31">
-        <v>1.00094696969697</v>
+        <v>0.0009469696969697239</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3606,7 +3606,7 @@
         <v>1.467307215423889</v>
       </c>
       <c r="K32">
-        <v>59.46998437208404</v>
+        <v>0.09469984372084039</v>
       </c>
       <c r="L32">
         <v>0.02682836305619746</v>
@@ -3636,13 +3636,13 @@
         <v>0.0625</v>
       </c>
       <c r="U32">
-        <v>1.000538417685437</v>
+        <v>0.0005384176854372758</v>
       </c>
       <c r="V32">
-        <v>1.000063143272084</v>
+        <v>6.314327208434278E-05</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3677,7 +3677,7 @@
         <v>1.467307215423888</v>
       </c>
       <c r="K33">
-        <v>59.46998437208404</v>
+        <v>0.09469984372084039</v>
       </c>
       <c r="L33">
         <v>0.02549476764638635</v>
@@ -3707,13 +3707,13 @@
         <v>0.03125</v>
       </c>
       <c r="U33">
-        <v>1.000411509607167</v>
+        <v>0.0004115096071666269</v>
       </c>
       <c r="V33">
-        <v>1.000252557141053</v>
+        <v>0.0002525571410534333</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3748,7 +3748,7 @@
         <v>1.467307215423888</v>
       </c>
       <c r="K34">
-        <v>59.46998437208404</v>
+        <v>0.09469984372084039</v>
       </c>
       <c r="L34">
         <v>0.02429660131064704</v>
@@ -3778,13 +3778,13 @@
         <v>0.09375</v>
       </c>
       <c r="U34">
-        <v>1.000379698772307</v>
+        <v>0.0003796987723072576</v>
       </c>
       <c r="V34">
-        <v>1.000189370029037</v>
+        <v>0.0001893700290365175</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3819,7 +3819,7 @@
         <v>1.467307215423888</v>
       </c>
       <c r="K35">
-        <v>59.46998437208403</v>
+        <v>0.09469984372084039</v>
       </c>
       <c r="L35">
         <v>0.02316735846538865</v>
@@ -3849,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1.000221406882591</v>
+        <v>0.0002214068825912019</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3890,7 +3890,7 @@
         <v>1.56243169454006</v>
       </c>
       <c r="K36">
-        <v>60.97456950244703</v>
+        <v>0.1097456950244703</v>
       </c>
       <c r="L36">
         <v>0.02241539056780166</v>
@@ -3920,13 +3920,13 @@
         <v>0.03125</v>
       </c>
       <c r="U36">
-        <v>1.000252980425639</v>
+        <v>0.0002529804256394819</v>
       </c>
       <c r="V36">
-        <v>0.9999368886083939</v>
+        <v>-6.311139160608548E-05</v>
       </c>
       <c r="W36">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3961,7 +3961,7 @@
         <v>1.56243169454006</v>
       </c>
       <c r="K37">
-        <v>60.97456950244703</v>
+        <v>0.1097456950244703</v>
       </c>
       <c r="L37">
         <v>0.02185641720632643</v>
@@ -3991,13 +3991,13 @@
         <v>0.375</v>
       </c>
       <c r="U37">
-        <v>1.000474218330119</v>
+        <v>0.0004742183301191805</v>
       </c>
       <c r="V37">
-        <v>1.000063115374905</v>
+        <v>6.311537490533148E-05</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4032,7 +4032,7 @@
         <v>1.413452289755011</v>
       </c>
       <c r="K38">
-        <v>58.56557826956217</v>
+        <v>0.08565578269562169</v>
       </c>
       <c r="L38">
         <v>0.02102172909710129</v>
@@ -4062,13 +4062,13 @@
         <v>0.4375</v>
       </c>
       <c r="U38">
-        <v>1.000284396132213</v>
+        <v>0.0002843961322127608</v>
       </c>
       <c r="V38">
-        <v>1.000126222783212</v>
+        <v>0.000126222783212393</v>
       </c>
       <c r="W38">
-        <v>0.999054820415879</v>
+        <v>-0.000945179584120992</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4103,7 +4103,7 @@
         <v>1.513821750152887</v>
       </c>
       <c r="K39">
-        <v>60.21993206403035</v>
+        <v>0.1021993206403035</v>
       </c>
       <c r="L39">
         <v>0.02034416403158939</v>
@@ -4133,13 +4133,13 @@
         <v>0.40625</v>
       </c>
       <c r="U39">
-        <v>1.000379087032064</v>
+        <v>0.0003790870320643513</v>
       </c>
       <c r="V39">
-        <v>1.000189310279548</v>
+        <v>0.0001893102795482715</v>
       </c>
       <c r="W39">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4174,7 +4174,7 @@
         <v>1.936430004459733</v>
       </c>
       <c r="K40">
-        <v>65.94504216067676</v>
+        <v>0.1594504216067676</v>
       </c>
       <c r="L40">
         <v>0.02111715826015797</v>
@@ -4204,13 +4204,13 @@
         <v>0.5</v>
       </c>
       <c r="U40">
-        <v>1.000378943379543</v>
+        <v>0.0003789433795433617</v>
       </c>
       <c r="V40">
-        <v>1.000315457413249</v>
+        <v>0.0003154574132491206</v>
       </c>
       <c r="W40">
-        <v>1.003780718336484</v>
+        <v>0.003780718336483968</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4245,7 +4245,7 @@
         <v>1.936430004459733</v>
       </c>
       <c r="K41">
-        <v>65.94504216067675</v>
+        <v>0.1594504216067675</v>
       </c>
       <c r="L41">
         <v>0.02263878587071711</v>
@@ -4275,13 +4275,13 @@
         <v>0.65625</v>
       </c>
       <c r="U41">
-        <v>1.00028409987689</v>
+        <v>0.0002840998768900427</v>
       </c>
       <c r="V41">
-        <v>1.000504572690003</v>
+        <v>0.0005045726900030356</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4316,7 +4316,7 @@
         <v>1.936430004459733</v>
       </c>
       <c r="K42">
-        <v>65.94504216067673</v>
+        <v>0.1594504216067674</v>
       </c>
       <c r="L42">
         <v>0.02443177113468699</v>
@@ -4346,13 +4346,13 @@
         <v>0.71875</v>
       </c>
       <c r="U42">
-        <v>1.000284019187074</v>
+        <v>0.0002840191870738806</v>
       </c>
       <c r="V42">
-        <v>1.0003151988905</v>
+        <v>0.0003151988904999126</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4387,7 +4387,7 @@
         <v>1.723987557429027</v>
       </c>
       <c r="K43">
-        <v>63.28911278347296</v>
+        <v>0.1328911278347296</v>
       </c>
       <c r="L43">
         <v>0.02583802321094007</v>
@@ -4417,13 +4417,13 @@
         <v>0.84375</v>
       </c>
       <c r="U43">
-        <v>1.000189292362053</v>
+        <v>0.0001892923620532283</v>
       </c>
       <c r="V43">
-        <v>1.000252079657172</v>
+        <v>0.0002520796571718886</v>
       </c>
       <c r="W43">
-        <v>0.9990583804143126</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4458,7 +4458,7 @@
         <v>1.092921464373832</v>
       </c>
       <c r="K44">
-        <v>52.21989849967047</v>
+        <v>0.0221989849967047</v>
       </c>
       <c r="L44">
         <v>0.02509718033493262</v>
@@ -4488,13 +4488,13 @@
         <v>0.75</v>
       </c>
       <c r="U44">
-        <v>1.000094628268618</v>
+        <v>9.462826861805773E-05</v>
       </c>
       <c r="V44">
-        <v>1.000189012096774</v>
+        <v>0.0001890120967740216</v>
       </c>
       <c r="W44">
-        <v>0.9952874646559849</v>
+        <v>-0.004712535344015056</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4529,7 +4529,7 @@
         <v>1.401174314617589</v>
       </c>
       <c r="K45">
-        <v>58.353710769255</v>
+        <v>0.08353710769254996</v>
       </c>
       <c r="L45">
         <v>0.02439588878680098</v>
@@ -4559,13 +4559,13 @@
         <v>0.65625</v>
       </c>
       <c r="U45">
-        <v>1.000220778401564</v>
+        <v>0.0002207784015644254</v>
       </c>
       <c r="V45">
-        <v>1.000251968503937</v>
+        <v>0.0002519685039370501</v>
       </c>
       <c r="W45">
-        <v>1.003787878787879</v>
+        <v>0.003787878787878896</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4600,7 +4600,7 @@
         <v>1.205582593261251</v>
       </c>
       <c r="K46">
-        <v>54.66050543492161</v>
+        <v>0.04660505434921614</v>
       </c>
       <c r="L46">
         <v>0.02298351351824776</v>
@@ -4630,13 +4630,13 @@
         <v>0.65625</v>
       </c>
       <c r="U46">
-        <v>1.000126131239555</v>
+        <v>0.0001261312395548497</v>
       </c>
       <c r="V46">
-        <v>1.000062976257951</v>
+        <v>6.297625795093076E-05</v>
       </c>
       <c r="W46">
-        <v>0.9981132075471698</v>
+        <v>-0.001886792452830188</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4671,7 +4671,7 @@
         <v>1.205582593261252</v>
       </c>
       <c r="K47">
-        <v>54.66050543492161</v>
+        <v>0.04660505434921614</v>
       </c>
       <c r="L47">
         <v>0.02114744582939363</v>
@@ -4701,13 +4701,13 @@
         <v>0.625</v>
       </c>
       <c r="U47">
-        <v>1.000063057666236</v>
+        <v>6.305766623571074E-05</v>
       </c>
       <c r="V47">
-        <v>1.000062972292191</v>
+        <v>6.297229219143219E-05</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4742,7 +4742,7 @@
         <v>1.205582593261251</v>
       </c>
       <c r="K48">
-        <v>54.66050543492161</v>
+        <v>0.04660505434921614</v>
       </c>
       <c r="L48">
         <v>0.01909524294726166</v>
@@ -4772,13 +4772,13 @@
         <v>0.34375</v>
       </c>
       <c r="U48">
-        <v>1.000157634225543</v>
+        <v>0.0001576342255431573</v>
       </c>
       <c r="V48">
-        <v>1.000062968326932</v>
+        <v>6.296832693153398E-05</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4813,7 +4813,7 @@
         <v>1.368394995961623</v>
       </c>
       <c r="K49">
-        <v>57.77731325623002</v>
+        <v>0.07777313256230012</v>
       </c>
       <c r="L49">
         <v>0.01766337964497348</v>
@@ -4843,13 +4843,13 @@
         <v>0.125</v>
       </c>
       <c r="U49">
-        <v>1.000189131257093</v>
+        <v>0.000189131257092523</v>
       </c>
       <c r="V49">
-        <v>1.000188893086513</v>
+        <v>0.0001888930865130423</v>
       </c>
       <c r="W49">
-        <v>1.001890359168242</v>
+        <v>0.001890359168241984</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4884,7 +4884,7 @@
         <v>1.454085734224977</v>
       </c>
       <c r="K50">
-        <v>59.25162735539843</v>
+        <v>0.09251627355398429</v>
       </c>
       <c r="L50">
         <v>0.0169785289981</v>
@@ -4914,13 +4914,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U50">
-        <v>1.000126063662149</v>
+        <v>0.0001260636621491784</v>
       </c>
       <c r="V50">
-        <v>1.000251809883538</v>
+        <v>0.0002518098835380123</v>
       </c>
       <c r="W50">
-        <v>1.000943396226415</v>
+        <v>0.0009433962264151496</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4955,7 +4955,7 @@
         <v>1.231856844819952</v>
       </c>
       <c r="K51">
-        <v>55.19425888264478</v>
+        <v>0.05194258882644787</v>
       </c>
       <c r="L51">
         <v>0.0160381966688659</v>
@@ -4985,13 +4985,13 @@
         <v>-0.25</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>1.000062936622821</v>
+        <v>6.293662282086387E-05</v>
       </c>
       <c r="W51">
-        <v>0.998114985862394</v>
+        <v>-0.001885014137606</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5026,7 +5026,7 @@
         <v>1.312294036808089</v>
       </c>
       <c r="K52">
-        <v>56.75290494714035</v>
+        <v>0.06752904947140348</v>
       </c>
       <c r="L52">
         <v>0.01528927716145478</v>
@@ -5056,13 +5056,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U52">
-        <v>1.000094535829079</v>
+        <v>9.453582907936742E-05</v>
       </c>
       <c r="V52">
-        <v>1.000125865324103</v>
+        <v>0.0001258653241034136</v>
       </c>
       <c r="W52">
-        <v>1.000944287063267</v>
+        <v>0.0009442870632672129</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5097,7 +5097,7 @@
         <v>1.48163549362522</v>
       </c>
       <c r="K53">
-        <v>59.70399349264702</v>
+        <v>0.09703993492647023</v>
       </c>
       <c r="L53">
         <v>0.01533709006916122</v>
@@ -5127,13 +5127,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U53">
-        <v>1.000220562750102</v>
+        <v>0.0002205627501024043</v>
       </c>
       <c r="V53">
-        <v>1.000314623710043</v>
+        <v>0.0003146237100426497</v>
       </c>
       <c r="W53">
-        <v>1.00188679245283</v>
+        <v>0.001886792452830299</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5168,7 +5168,7 @@
         <v>1.360388073516806</v>
       </c>
       <c r="K54">
-        <v>57.63408520743486</v>
+        <v>0.0763408520743486</v>
       </c>
       <c r="L54">
         <v>0.01546371068832773</v>
@@ -5198,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>1.000189012096774</v>
+        <v>0.0001890120967740216</v>
       </c>
       <c r="V54">
-        <v>1.000188714851859</v>
+        <v>0.0001887148518588955</v>
       </c>
       <c r="W54">
-        <v>0.9990583804143126</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5239,7 +5239,7 @@
         <v>1.360388073516806</v>
       </c>
       <c r="K55">
-        <v>57.63408520743486</v>
+        <v>0.0763408520743486</v>
       </c>
       <c r="L55">
         <v>0.01557346148078856</v>
@@ -5269,13 +5269,13 @@
         <v>0.09375</v>
       </c>
       <c r="U55">
-        <v>1.000125984251969</v>
+        <v>0.000125984251968525</v>
       </c>
       <c r="V55">
-        <v>0.999937106918239</v>
+        <v>-6.289308176099517E-05</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5310,7 +5310,7 @@
         <v>1.451062313195396</v>
       </c>
       <c r="K56">
-        <v>59.20136364479767</v>
+        <v>0.09201363644797678</v>
       </c>
       <c r="L56">
         <v>0.01595331917769953</v>
@@ -5340,13 +5340,13 @@
         <v>0.34375</v>
       </c>
       <c r="U56">
-        <v>1.000251936763872</v>
+        <v>0.0002519367638722514</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1.000942507068803</v>
+        <v>0.0009425070688029447</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5381,7 +5381,7 @@
         <v>1.21846559454332</v>
       </c>
       <c r="K57">
-        <v>54.92379947384966</v>
+        <v>0.04923799473849666</v>
       </c>
       <c r="L57">
         <v>0.01572586469188313</v>
@@ -5411,13 +5411,13 @@
         <v>0.40625</v>
       </c>
       <c r="U57">
-        <v>1.000094452490397</v>
+        <v>9.445249039718995E-05</v>
       </c>
       <c r="V57">
-        <v>0.9998742059249008</v>
+        <v>-0.0001257940750991615</v>
       </c>
       <c r="W57">
-        <v>0.9981167608286252</v>
+        <v>-0.001883239171374784</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5452,7 +5452,7 @@
         <v>1.302830907109929</v>
       </c>
       <c r="K58">
-        <v>56.57518765652629</v>
+        <v>0.06575187656526293</v>
       </c>
       <c r="L58">
         <v>0.01543194674530983</v>
@@ -5482,13 +5482,13 @@
         <v>0.4375</v>
       </c>
       <c r="U58">
-        <v>1.000125924759956</v>
+        <v>0.0001259247599560975</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>1.000943396226415</v>
+        <v>0.0009433962264151496</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5523,7 +5523,7 @@
         <v>1.196568897581559</v>
       </c>
       <c r="K59">
-        <v>54.47445326659189</v>
+        <v>0.04474453266591893</v>
       </c>
       <c r="L59">
         <v>0.01471621410581388</v>
@@ -5553,13 +5553,13 @@
         <v>0.53125</v>
       </c>
       <c r="U59">
-        <v>1.000220340583588</v>
+        <v>0.0002203405835878858</v>
       </c>
       <c r="V59">
-        <v>1.000251619802478</v>
+        <v>0.0002516198024784533</v>
       </c>
       <c r="W59">
-        <v>0.9990574929311969</v>
+        <v>-0.0009425070688030557</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5594,7 +5594,7 @@
         <v>1.021215646427524</v>
       </c>
       <c r="K60">
-        <v>50.52482392131248</v>
+        <v>0.005248239213124783</v>
       </c>
       <c r="L60">
         <v>0.0130492139267329</v>
@@ -5624,13 +5624,13 @@
         <v>0.34375</v>
       </c>
       <c r="U60">
-        <v>1.000062940584089</v>
+        <v>6.294058408862213E-05</v>
       </c>
       <c r="V60">
-        <v>0.9998742217470601</v>
+        <v>-0.0001257782529399121</v>
       </c>
       <c r="W60">
-        <v>0.9981132075471698</v>
+        <v>-0.001886792452830188</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5665,7 +5665,7 @@
         <v>1.09834550080068</v>
       </c>
       <c r="K61">
-        <v>52.34340581098665</v>
+        <v>0.02343405810986654</v>
       </c>
       <c r="L61">
         <v>0.01120898980198291</v>
@@ -5695,13 +5695,13 @@
         <v>0.1875</v>
       </c>
       <c r="U61">
-        <v>1.000062936622821</v>
+        <v>6.293662282086387E-05</v>
       </c>
       <c r="V61">
-        <v>1.00006289703755</v>
+        <v>6.289703754958076E-05</v>
       </c>
       <c r="W61">
-        <v>1.000945179584121</v>
+        <v>0.000945179584120881</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5736,7 +5736,7 @@
         <v>1.015867878163698</v>
       </c>
       <c r="K62">
-        <v>50.39357435910316</v>
+        <v>0.003935743591031549</v>
       </c>
       <c r="L62">
         <v>0.008996577472265808</v>
@@ -5766,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>1.000031466331026</v>
+        <v>3.146633102568686E-05</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0.9990557129367328</v>
+        <v>-0.0009442870632672129</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5807,7 +5807,7 @@
         <v>1.094912723415854</v>
       </c>
       <c r="K63">
-        <v>52.26531450105221</v>
+        <v>0.02265314501052207</v>
       </c>
       <c r="L63">
         <v>0.007010925266743563</v>
@@ -5837,13 +5837,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U63">
-        <v>1.000062930681854</v>
+        <v>6.293068185403428E-05</v>
       </c>
       <c r="V63">
-        <v>1.000062893081761</v>
+        <v>6.289308176099517E-05</v>
       </c>
       <c r="W63">
-        <v>1.000945179584121</v>
+        <v>0.000945179584120881</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5878,7 +5878,7 @@
         <v>1.344528024212136</v>
       </c>
       <c r="K64">
-        <v>57.34749213176738</v>
+        <v>0.07347492131767386</v>
       </c>
       <c r="L64">
         <v>0.006294998010439335</v>
@@ -5908,13 +5908,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U64">
-        <v>1.000157316804581</v>
+        <v>0.0001573168045809759</v>
       </c>
       <c r="V64">
-        <v>1.00012577825294</v>
+        <v>0.0001257782529402451</v>
       </c>
       <c r="W64">
-        <v>1.002832861189802</v>
+        <v>0.002832861189801639</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5949,7 +5949,7 @@
         <v>1.23625175937807</v>
       </c>
       <c r="K65">
-        <v>55.28231578549488</v>
+        <v>0.05282315785494884</v>
       </c>
       <c r="L65">
         <v>0.006026995914173367</v>
@@ -5979,13 +5979,13 @@
         <v>-0.25</v>
       </c>
       <c r="U65">
-        <v>1.000125833647918</v>
+        <v>0.0001258336479175171</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.9990583804143126</v>
+        <v>-0.0009416195856873921</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6020,7 +6020,7 @@
         <v>1.13964461511345</v>
       </c>
       <c r="K66">
-        <v>53.2632665753711</v>
+        <v>0.03263266575371093</v>
       </c>
       <c r="L66">
         <v>0.00568167093023852</v>
@@ -6050,13 +6050,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U66">
-        <v>1.000062908907901</v>
+        <v>6.290890790139336E-05</v>
       </c>
       <c r="V66">
-        <v>1.00006288121738</v>
+        <v>6.288121738040608E-05</v>
       </c>
       <c r="W66">
-        <v>0.9990574929311969</v>
+        <v>-0.0009425070688030557</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6091,7 +6091,7 @@
         <v>1.386418939275436</v>
       </c>
       <c r="K67">
-        <v>58.09620919688058</v>
+        <v>0.08096209196880577</v>
       </c>
       <c r="L67">
         <v>0.006321955320213998</v>
@@ -6121,13 +6121,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U67">
-        <v>1.000157262376549</v>
+        <v>0.0001572623765491166</v>
       </c>
       <c r="V67">
-        <v>1.000188631790744</v>
+        <v>0.0001886317907444646</v>
       </c>
       <c r="W67">
-        <v>1.002830188679245</v>
+        <v>0.002830188679245227</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6162,7 +6162,7 @@
         <v>1.275938626236268</v>
       </c>
       <c r="K68">
-        <v>56.0620840794066</v>
+        <v>0.06062084079406604</v>
       </c>
       <c r="L68">
         <v>0.007151614034342872</v>
@@ -6192,13 +6192,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U68">
-        <v>1.000157237648983</v>
+        <v>0.0001572376489826777</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>0.9990592662276576</v>
+        <v>-0.0009407337723423836</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6233,7 +6233,7 @@
         <v>1.443701865849536</v>
       </c>
       <c r="K69">
-        <v>59.07847786283221</v>
+        <v>0.09078477862832213</v>
       </c>
       <c r="L69">
         <v>0.008704271565239584</v>
@@ -6263,13 +6263,13 @@
         <v>0.21875</v>
       </c>
       <c r="U69">
-        <v>1.000188655515029</v>
+        <v>0.0001886555150294456</v>
       </c>
       <c r="V69">
-        <v>1.000188596215503</v>
+        <v>0.0001885962155026011</v>
       </c>
       <c r="W69">
-        <v>1.001883239171375</v>
+        <v>0.001883239171374784</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6304,7 +6304,7 @@
         <v>1.531998307751255</v>
       </c>
       <c r="K70">
-        <v>60.50550282997106</v>
+        <v>0.1050550282997107</v>
       </c>
       <c r="L70">
         <v>0.01090758032646786</v>
@@ -6334,13 +6334,13 @@
         <v>0.53125</v>
       </c>
       <c r="U70">
-        <v>1.00009430996542</v>
+        <v>9.430996541981429E-05</v>
       </c>
       <c r="V70">
-        <v>1.000251414204903</v>
+        <v>0.0002514142049026002</v>
       </c>
       <c r="W70">
-        <v>1.00093984962406</v>
+        <v>0.0009398496240602405</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6375,7 +6375,7 @@
         <v>1.531998307751255</v>
       </c>
       <c r="K71">
-        <v>60.50550282997106</v>
+        <v>0.1050550282997106</v>
       </c>
       <c r="L71">
         <v>0.01332442502326563</v>
@@ -6405,13 +6405,13 @@
         <v>0.78125</v>
       </c>
       <c r="U71">
-        <v>1.000094301071889</v>
+        <v>9.430107188879155E-05</v>
       </c>
       <c r="V71">
-        <v>1.000188513258766</v>
+        <v>0.0001885132587660099</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6446,7 +6446,7 @@
         <v>1.531998307751255</v>
       </c>
       <c r="K72">
-        <v>60.50550282997106</v>
+        <v>0.1050550282997106</v>
       </c>
       <c r="L72">
         <v>0.01566753370533857</v>
@@ -6476,13 +6476,13 @@
         <v>0.875</v>
       </c>
       <c r="U72">
-        <v>1.000094292180035</v>
+        <v>9.429218003531581E-05</v>
       </c>
       <c r="V72">
-        <v>1.000314129547025</v>
+        <v>0.0003141295470250327</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6517,7 +6517,7 @@
         <v>1.634982931634293</v>
       </c>
       <c r="K73">
-        <v>62.04909003415172</v>
+        <v>0.1204909003415172</v>
       </c>
       <c r="L73">
         <v>0.01810252002942015</v>
@@ -6547,13 +6547,13 @@
         <v>1</v>
       </c>
       <c r="U73">
-        <v>1.00015713881643</v>
+        <v>0.0001571388164303134</v>
       </c>
       <c r="V73">
-        <v>1.000314030900641</v>
+        <v>0.0003140309006406383</v>
       </c>
       <c r="W73">
-        <v>1.00093896713615</v>
+        <v>0.0009389671361501595</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6588,7 +6588,7 @@
         <v>1.634982931634293</v>
       </c>
       <c r="K74">
-        <v>62.04909003415172</v>
+        <v>0.1204909003415172</v>
       </c>
       <c r="L74">
         <v>0.02037132498114215</v>
@@ -6618,13 +6618,13 @@
         <v>1.21875</v>
       </c>
       <c r="U74">
-        <v>1.000314228255405</v>
+        <v>0.0003142282554049469</v>
       </c>
       <c r="V74">
-        <v>1.000376718779431</v>
+        <v>0.0003767187794312399</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6659,7 +6659,7 @@
         <v>1.634982931634293</v>
       </c>
       <c r="K75">
-        <v>62.04909003415172</v>
+        <v>0.1204909003415172</v>
       </c>
       <c r="L75">
         <v>0.02231998180521874</v>
@@ -6689,13 +6689,13 @@
         <v>1.21875</v>
       </c>
       <c r="U75">
-        <v>1.000188477728215</v>
+        <v>0.000188477728214842</v>
       </c>
       <c r="V75">
-        <v>1.000502102554447</v>
+        <v>0.000502102554446715</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6730,7 +6730,7 @@
         <v>1.634982931634293</v>
       </c>
       <c r="K76">
-        <v>62.04909003415172</v>
+        <v>0.1204909003415172</v>
       </c>
       <c r="L76">
         <v>0.0238686000437505</v>
@@ -6760,13 +6760,13 @@
         <v>1.21875</v>
       </c>
       <c r="U76">
-        <v>1.000251256281407</v>
+        <v>0.0002512562814069863</v>
       </c>
       <c r="V76">
-        <v>1.000439119252243</v>
+        <v>0.0004391192522426035</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6801,7 +6801,7 @@
         <v>1.085824552072773</v>
       </c>
       <c r="K77">
-        <v>52.0573291264475</v>
+        <v>0.02057329126447494</v>
       </c>
       <c r="L77">
         <v>0.02361596943587464</v>
@@ -6831,13 +6831,13 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>1.000125596583773</v>
+        <v>0.00012559658377298</v>
       </c>
       <c r="V77">
-        <v>1.000250815149235</v>
+        <v>0.0002508151492350841</v>
       </c>
       <c r="W77">
-        <v>0.9962476547842402</v>
+        <v>-0.003752345215759845</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6872,7 +6872,7 @@
         <v>0.9227089434972376</v>
       </c>
       <c r="K78">
-        <v>47.99004792784245</v>
+        <v>-0.02009952072157545</v>
       </c>
       <c r="L78">
         <v>0.02151673293693479</v>
@@ -6902,13 +6902,13 @@
         <v>0.625</v>
       </c>
       <c r="U78">
-        <v>1.000062790405626</v>
+        <v>6.279040562606752E-05</v>
       </c>
       <c r="V78">
-        <v>1.000062688064193</v>
+        <v>6.26880641925176E-05</v>
       </c>
       <c r="W78">
-        <v>0.9981167608286252</v>
+        <v>-0.001883239171374784</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6943,7 +6943,7 @@
         <v>1.080838210585609</v>
       </c>
       <c r="K79">
-        <v>51.94244343876351</v>
+        <v>0.01942443438763508</v>
       </c>
       <c r="L79">
         <v>0.01904143417208373</v>
@@ -6973,13 +6973,13 @@
         <v>0.34375</v>
       </c>
       <c r="U79">
-        <v>1.000062786463239</v>
+        <v>6.278646323853998E-05</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>1.00188679245283</v>
+        <v>0.001886792452830299</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7014,7 +7014,7 @@
         <v>0.926603358066928</v>
       </c>
       <c r="K80">
-        <v>48.09518026567972</v>
+        <v>-0.01904819734320279</v>
       </c>
       <c r="L80">
         <v>0.01574112614072743</v>
@@ -7044,13 +7044,13 @@
         <v>0.09375</v>
       </c>
       <c r="U80">
-        <v>0.999968608739327</v>
+        <v>-3.139126067297493E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999373158653545</v>
+        <v>-6.268413464549649E-05</v>
       </c>
       <c r="W80">
-        <v>0.9981167608286252</v>
+        <v>-0.001883239171374784</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7085,7 +7085,7 @@
         <v>0.9266033580669281</v>
       </c>
       <c r="K81">
-        <v>48.09518026567973</v>
+        <v>-0.01904819734320268</v>
       </c>
       <c r="L81">
         <v>0.01209459341818022</v>
@@ -7115,13 +7115,13 @@
         <v>-0.25</v>
       </c>
       <c r="U81">
-        <v>1.000031392246115</v>
+        <v>3.139224611525826E-05</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7156,7 +7156,7 @@
         <v>0.926603358066928</v>
       </c>
       <c r="K82">
-        <v>48.09518026567972</v>
+        <v>-0.01904819734320279</v>
       </c>
       <c r="L82">
         <v>0.008426929543867499</v>
@@ -7186,13 +7186,13 @@
         <v>-0.625</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>0.9998119358074222</v>
+        <v>-0.0001880641925777748</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7227,7 +7227,7 @@
         <v>0.8554166786953606</v>
       </c>
       <c r="K83">
-        <v>46.10375063011983</v>
+        <v>-0.03896249369880173</v>
       </c>
       <c r="L83">
         <v>0.004606720914570215</v>
@@ -7257,13 +7257,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U83">
-        <v>0.999905826217981</v>
+        <v>-9.417378201903581E-05</v>
       </c>
       <c r="V83">
-        <v>0.9998119004326289</v>
+        <v>-0.0001880995673710917</v>
       </c>
       <c r="W83">
-        <v>0.9990566037735849</v>
+        <v>-0.0009433962264151496</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7298,7 +7298,7 @@
         <v>0.7363251452609045</v>
       </c>
       <c r="K84">
-        <v>42.40710026406158</v>
+        <v>-0.07592899735938424</v>
       </c>
       <c r="L84">
         <v>0.0002350812384388563</v>
@@ -7328,13 +7328,13 @@
         <v>-1.34375</v>
       </c>
       <c r="U84">
-        <v>0.9998744231312593</v>
+        <v>-0.0001255768687407066</v>
       </c>
       <c r="V84">
-        <v>0.9995610184372256</v>
+        <v>-0.0004389815627744431</v>
       </c>
       <c r="W84">
-        <v>0.9981114258734656</v>
+        <v>-0.001888574126534426</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7369,7 +7369,7 @@
         <v>0.8095990899948129</v>
       </c>
       <c r="K85">
-        <v>44.73914108771648</v>
+        <v>-0.05260858912283517</v>
       </c>
       <c r="L85">
         <v>-0.003850281216644966</v>
@@ -7399,13 +7399,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U85">
-        <v>0.9999058055197965</v>
+        <v>-9.419448020353549E-05</v>
       </c>
       <c r="V85">
-        <v>0.9995608256477824</v>
+        <v>-0.0004391743522176306</v>
       </c>
       <c r="W85">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7440,7 +7440,7 @@
         <v>0.8095990899948131</v>
       </c>
       <c r="K86">
-        <v>44.73914108771649</v>
+        <v>-0.05260858912283511</v>
       </c>
       <c r="L86">
         <v>-0.007488278476308037</v>
@@ -7470,13 +7470,13 @@
         <v>-1.3125</v>
       </c>
       <c r="U86">
-        <v>0.9998743955284809</v>
+        <v>-0.0001256044715191029</v>
       </c>
       <c r="V86">
-        <v>0.9995606326889279</v>
+        <v>-0.0004393673110720808</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7511,7 +7511,7 @@
         <v>0.6111289380519423</v>
       </c>
       <c r="K87">
-        <v>37.93172126812359</v>
+        <v>-0.1206827873187641</v>
       </c>
       <c r="L87">
         <v>-0.0119680929615518</v>
@@ -7541,13 +7541,13 @@
         <v>-1.46875</v>
       </c>
       <c r="U87">
-        <v>0.9998115696250235</v>
+        <v>-0.0001884303749765115</v>
       </c>
       <c r="V87">
-        <v>0.999309262166405</v>
+        <v>-0.0006907378335949677</v>
       </c>
       <c r="W87">
-        <v>0.996219281663516</v>
+        <v>-0.003780718336483968</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7582,7 +7582,7 @@
         <v>0.5740929602093363</v>
       </c>
       <c r="K88">
-        <v>36.47135046795385</v>
+        <v>-0.1352864953204616</v>
       </c>
       <c r="L88">
         <v>-0.01697281062159584</v>
@@ -7612,13 +7612,13 @@
         <v>-1.53125</v>
       </c>
       <c r="U88">
-        <v>0.9997487121497676</v>
+        <v>-0.0002512878502324289</v>
       </c>
       <c r="V88">
-        <v>0.9991831092120145</v>
+        <v>-0.0008168907879855247</v>
       </c>
       <c r="W88">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7653,7 +7653,7 @@
         <v>0.5396664663683229</v>
       </c>
       <c r="K89">
-        <v>35.05086836379942</v>
+        <v>-0.1494913163620057</v>
       </c>
       <c r="L89">
         <v>-0.02225929804330673</v>
@@ -7683,13 +7683,13 @@
         <v>-1.59375</v>
       </c>
       <c r="U89">
-        <v>0.9997486489883122</v>
+        <v>-0.0002513510116878281</v>
       </c>
       <c r="V89">
-        <v>0.9991195522294197</v>
+        <v>-0.0008804477705802727</v>
       </c>
       <c r="W89">
-        <v>0.9990503323836657</v>
+        <v>-0.0009496676163343043</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7724,7 +7724,7 @@
         <v>0.5396664663683229</v>
       </c>
       <c r="K90">
-        <v>35.05086836379942</v>
+        <v>-0.1494913163620057</v>
       </c>
       <c r="L90">
         <v>-0.02730054965781812</v>
@@ -7754,13 +7754,13 @@
         <v>-1.65625</v>
       </c>
       <c r="U90">
-        <v>0.999811439346323</v>
+        <v>-0.0001885606536770057</v>
       </c>
       <c r="V90">
-        <v>0.9991187763580285</v>
+        <v>-0.000881223641971518</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7795,7 +7795,7 @@
         <v>0.5396664663683229</v>
       </c>
       <c r="K91">
-        <v>35.05086836379942</v>
+        <v>-0.1494913163620057</v>
       </c>
       <c r="L91">
         <v>-0.03177464041642317</v>
@@ -7825,13 +7825,13 @@
         <v>-1.65625</v>
       </c>
       <c r="U91">
-        <v>0.9997799710819136</v>
+        <v>-0.0002200289180863679</v>
       </c>
       <c r="V91">
-        <v>0.999117999117999</v>
+        <v>-0.0008820008820009662</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7866,7 +7866,7 @@
         <v>0.6795510172236038</v>
       </c>
       <c r="K92">
-        <v>40.46027838719311</v>
+        <v>-0.09539721612806884</v>
       </c>
       <c r="L92">
         <v>-0.03481979023000441</v>
@@ -7896,13 +7896,13 @@
         <v>-1.46875</v>
       </c>
       <c r="U92">
-        <v>0.9998742415191624</v>
+        <v>-0.0001257584808376233</v>
       </c>
       <c r="V92">
-        <v>0.9994955545746895</v>
+        <v>-0.0005044454253104735</v>
       </c>
       <c r="W92">
-        <v>1.001901140684411</v>
+        <v>0.001901140684410718</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7937,7 +7937,7 @@
         <v>0.6329509835169331</v>
       </c>
       <c r="K93">
-        <v>38.76117470187185</v>
+        <v>-0.1123882529812815</v>
       </c>
       <c r="L93">
         <v>-0.03702263076515076</v>
@@ -7967,13 +7967,13 @@
         <v>-1.5</v>
       </c>
       <c r="U93">
-        <v>0.9998113385529669</v>
+        <v>-0.0001886614470331116</v>
       </c>
       <c r="V93">
-        <v>0.9995583874834395</v>
+        <v>-0.0004416125165604967</v>
       </c>
       <c r="W93">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8008,7 +8008,7 @@
         <v>0.5202828022037679</v>
       </c>
       <c r="K94">
-        <v>34.22276443893054</v>
+        <v>-0.1577723556106946</v>
       </c>
       <c r="L94">
         <v>-0.0394714743377737</v>
@@ -8038,13 +8038,13 @@
         <v>-1.6875</v>
       </c>
       <c r="U94">
-        <v>0.9996226059062174</v>
+        <v>-0.0003773940937825682</v>
       </c>
       <c r="V94">
-        <v>0.9992426155011361</v>
+        <v>-0.0007573844988638667</v>
       </c>
       <c r="W94">
-        <v>0.9971509971509972</v>
+        <v>-0.002849002849002802</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8079,7 +8079,7 @@
         <v>0.5202828022037679</v>
       </c>
       <c r="K95">
-        <v>34.22276443893054</v>
+        <v>-0.1577723556106946</v>
       </c>
       <c r="L95">
         <v>-0.04177177487662027</v>
@@ -8109,13 +8109,13 @@
         <v>-1.5625</v>
       </c>
       <c r="U95">
-        <v>0.9996539248072991</v>
+        <v>-0.000346075192700912</v>
       </c>
       <c r="V95">
-        <v>0.9993683678625568</v>
+        <v>-0.0006316321374432166</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8150,7 +8150,7 @@
         <v>0.5202828022037679</v>
       </c>
       <c r="K96">
-        <v>34.22276443893054</v>
+        <v>-0.1577723556106946</v>
       </c>
       <c r="L96">
         <v>-0.04368533378563923</v>
@@ -8180,13 +8180,13 @@
         <v>-1.4375</v>
       </c>
       <c r="U96">
-        <v>0.9996852772707243</v>
+        <v>-0.0003147227292756849</v>
       </c>
       <c r="V96">
-        <v>0.9993679686512452</v>
+        <v>-0.0006320313487547802</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8221,7 +8221,7 @@
         <v>0.4866070336154351</v>
       </c>
       <c r="K97">
-        <v>32.73272778967045</v>
+        <v>-0.1726727221032955</v>
       </c>
       <c r="L97">
         <v>-0.04542914456631578</v>
@@ -8251,13 +8251,13 @@
         <v>-1.28125</v>
       </c>
       <c r="U97">
-        <v>0.9995592494648029</v>
+        <v>-0.0004407505351970986</v>
       </c>
       <c r="V97">
-        <v>0.9993043258284847</v>
+        <v>-0.0006956741715152814</v>
       </c>
       <c r="W97">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8292,7 +8292,7 @@
         <v>0.5547395517599032</v>
       </c>
       <c r="K98">
-        <v>35.68054540916259</v>
+        <v>-0.1431945459083741</v>
       </c>
       <c r="L98">
         <v>-0.04645138654218408</v>
@@ -8322,13 +8322,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U98">
-        <v>0.9996220472440946</v>
+        <v>-0.000377952755905353</v>
       </c>
       <c r="V98">
-        <v>0.9994304157964684</v>
+        <v>-0.0005695842035315923</v>
       </c>
       <c r="W98">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8363,7 +8363,7 @@
         <v>0.5547395517599032</v>
       </c>
       <c r="K99">
-        <v>35.68054540916259</v>
+        <v>-0.1431945459083741</v>
       </c>
       <c r="L99">
         <v>-0.04680318993338459</v>
@@ -8393,13 +8393,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U99">
-        <v>0.9995588883987648</v>
+        <v>-0.0004411116012351668</v>
       </c>
       <c r="V99">
-        <v>0.9995567375886525</v>
+        <v>-0.0004432624113475114</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8434,7 +8434,7 @@
         <v>0.5547395517599032</v>
       </c>
       <c r="K100">
-        <v>35.68054540916259</v>
+        <v>-0.1431945459083741</v>
       </c>
       <c r="L100">
         <v>-0.04655670713510162</v>
@@ -8464,13 +8464,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U100">
-        <v>0.9995271718572689</v>
+        <v>-0.0004728281427310854</v>
       </c>
       <c r="V100">
-        <v>0.9994931897370922</v>
+        <v>-0.0005068102629077753</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8505,7 +8505,7 @@
         <v>0.4786641095567163</v>
       </c>
       <c r="K101">
-        <v>32.37138890861519</v>
+        <v>-0.1762861109138481</v>
       </c>
       <c r="L101">
         <v>-0.04648357042981558</v>
@@ -8535,13 +8535,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U101">
-        <v>0.9994638746097323</v>
+        <v>-0.0005361253902677054</v>
       </c>
       <c r="V101">
-        <v>0.9993661659377576</v>
+        <v>-0.0006338340622423777</v>
       </c>
       <c r="W101">
-        <v>0.9980952380952381</v>
+        <v>-0.001904761904761854</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8576,7 +8576,7 @@
         <v>0.6230190822486923</v>
       </c>
       <c r="K102">
-        <v>38.38642989862446</v>
+        <v>-0.1161357010137554</v>
       </c>
       <c r="L102">
         <v>-0.04566287091501759</v>
@@ -8606,13 +8606,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U102">
-        <v>0.9995266944339265</v>
+        <v>-0.0004733055660735008</v>
       </c>
       <c r="V102">
-        <v>0.9997463055749348</v>
+        <v>-0.0002536944250651763</v>
       </c>
       <c r="W102">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8647,7 +8647,7 @@
         <v>0.5790267698538621</v>
       </c>
       <c r="K103">
-        <v>36.66985138620866</v>
+        <v>-0.1333014861379134</v>
       </c>
       <c r="L103">
         <v>-0.04462022395151494</v>
@@ -8677,13 +8677,13 @@
         <v>-0.625</v>
       </c>
       <c r="U103">
-        <v>0.9994633330176467</v>
+        <v>-0.0005366669823533288</v>
       </c>
       <c r="V103">
-        <v>0.9997462411977416</v>
+        <v>-0.0002537588022584192</v>
       </c>
       <c r="W103">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8718,7 +8718,7 @@
         <v>0.4734542056487316</v>
       </c>
       <c r="K104">
-        <v>32.13226470382766</v>
+        <v>-0.1786773529617234</v>
       </c>
       <c r="L104">
         <v>-0.04438267106057253</v>
@@ -8748,13 +8748,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U104">
-        <v>0.9993682880606445</v>
+        <v>-0.0006317119393555171</v>
       </c>
       <c r="V104">
-        <v>0.999619265181801</v>
+        <v>-0.0003807348181990022</v>
       </c>
       <c r="W104">
-        <v>0.9971401334604385</v>
+        <v>-0.002859866539561495</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8789,7 +8789,7 @@
         <v>0.5374288039105796</v>
       </c>
       <c r="K105">
-        <v>34.95633765567447</v>
+        <v>-0.1504366234432553</v>
       </c>
       <c r="L105">
         <v>-0.04414316199071613</v>
@@ -8819,13 +8819,13 @@
         <v>-0.625</v>
       </c>
       <c r="U105">
-        <v>0.9993994943109986</v>
+        <v>-0.0006005056890013849</v>
       </c>
       <c r="V105">
-        <v>0.9996826001396558</v>
+        <v>-0.0003173998603441808</v>
       </c>
       <c r="W105">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8860,7 +8860,7 @@
         <v>0.5374288039105796</v>
       </c>
       <c r="K106">
-        <v>34.95633765567447</v>
+        <v>-0.1504366234432553</v>
       </c>
       <c r="L106">
         <v>-0.04375805277411525</v>
@@ -8890,13 +8890,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U106">
-        <v>0.9993991334872396</v>
+        <v>-0.0006008665127603674</v>
       </c>
       <c r="V106">
-        <v>0.9996824993649988</v>
+        <v>-0.0003175006350012444</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8931,7 +8931,7 @@
         <v>0.6083147853641507</v>
       </c>
       <c r="K107">
-        <v>37.82311714720807</v>
+        <v>-0.1217688285279193</v>
       </c>
       <c r="L107">
         <v>-0.04280527877589149</v>
@@ -8961,13 +8961,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U107">
-        <v>0.99955699006392</v>
+        <v>-0.000443009936080041</v>
       </c>
       <c r="V107">
-        <v>0.9996188782315951</v>
+        <v>-0.0003811217684048795</v>
       </c>
       <c r="W107">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9002,7 +9002,7 @@
         <v>0.6083147853641506</v>
       </c>
       <c r="K108">
-        <v>37.82311714720807</v>
+        <v>-0.1217688285279193</v>
       </c>
       <c r="L108">
         <v>-0.04141354872464336</v>
@@ -9032,13 +9032,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U108">
-        <v>0.9996201089021146</v>
+        <v>-0.0003798910978853876</v>
       </c>
       <c r="V108">
-        <v>0.9996822774353433</v>
+        <v>-0.000317722564656675</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9073,7 +9073,7 @@
         <v>0.6083147853641506</v>
       </c>
       <c r="K109">
-        <v>37.82311714720807</v>
+        <v>-0.1217688285279193</v>
       </c>
       <c r="L109">
         <v>-0.0396938009245897</v>
@@ -9103,13 +9103,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U109">
-        <v>0.9995566252850265</v>
+        <v>-0.0004433747149734657</v>
       </c>
       <c r="V109">
-        <v>0.9998728705822528</v>
+        <v>-0.0001271294177471738</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9144,7 +9144,7 @@
         <v>0.773670624882614</v>
       </c>
       <c r="K110">
-        <v>43.61974619350859</v>
+        <v>-0.06380253806491409</v>
       </c>
       <c r="L110">
         <v>-0.03704853143325314</v>
@@ -9174,13 +9174,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U110">
-        <v>0.9996831632976365</v>
+        <v>-0.0003168367023634877</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W110">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9215,7 +9215,7 @@
         <v>0.773670624882614</v>
       </c>
       <c r="K111">
-        <v>43.61974619350859</v>
+        <v>-0.06380253806491409</v>
       </c>
       <c r="L111">
         <v>-0.03387527190280092</v>
@@ -9245,13 +9245,13 @@
         <v>-0.375</v>
       </c>
       <c r="U111">
-        <v>0.9996830628803246</v>
+        <v>-0.0003169371196753978</v>
       </c>
       <c r="V111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9286,7 +9286,7 @@
         <v>0.773670624882614</v>
       </c>
       <c r="K112">
-        <v>43.61974619350859</v>
+        <v>-0.06380253806491409</v>
       </c>
       <c r="L112">
         <v>-0.03046029216430481</v>
@@ -9316,13 +9316,13 @@
         <v>-0.125</v>
       </c>
       <c r="U112">
-        <v>0.9996829623993404</v>
+        <v>-0.0003170376006595976</v>
       </c>
       <c r="V112">
-        <v>1.000063572790846</v>
+        <v>6.357279084556744E-05</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9357,7 +9357,7 @@
         <v>0.8701020810823301</v>
       </c>
       <c r="K113">
-        <v>46.52698319969542</v>
+        <v>-0.03473016800304585</v>
       </c>
       <c r="L113">
         <v>-0.02665880022869746</v>
@@ -9387,13 +9387,13 @@
         <v>0.0625</v>
       </c>
       <c r="U113">
-        <v>0.9997462894836991</v>
+        <v>-0.0002537105163008535</v>
       </c>
       <c r="V113">
-        <v>1.000063568749603</v>
+        <v>6.356874960267156E-05</v>
       </c>
       <c r="W113">
-        <v>1.000952380952381</v>
+        <v>0.0009523809523810378</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9428,7 +9428,7 @@
         <v>0.7899198481954407</v>
       </c>
       <c r="K114">
-        <v>44.13157656147683</v>
+        <v>-0.05868423438523174</v>
       </c>
       <c r="L114">
         <v>-0.02311402152566049</v>
@@ -9458,13 +9458,13 @@
         <v>0.25</v>
       </c>
       <c r="U114">
-        <v>0.9997779469610455</v>
+        <v>-0.0002220530389545061</v>
       </c>
       <c r="V114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W114">
-        <v>0.9990485252140818</v>
+        <v>-0.0009514747859181716</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9499,7 +9499,7 @@
         <v>0.6615712937672812</v>
       </c>
       <c r="K115">
-        <v>39.81600405886288</v>
+        <v>-0.1018399594113712</v>
       </c>
       <c r="L115">
         <v>-0.02055923014534462</v>
@@ -9529,13 +9529,13 @@
         <v>0.3125</v>
       </c>
       <c r="U115">
-        <v>0.9996827109179174</v>
+        <v>-0.0003172890820826169</v>
       </c>
       <c r="V115">
-        <v>0.9998728705822528</v>
+        <v>-0.0001271294177471738</v>
       </c>
       <c r="W115">
-        <v>0.9980952380952381</v>
+        <v>-0.001904761904761854</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9570,7 +9570,7 @@
         <v>0.832606040915322</v>
       </c>
       <c r="K116">
-        <v>45.43289841495146</v>
+        <v>-0.04567101585048539</v>
       </c>
       <c r="L116">
         <v>-0.0179995228220145</v>
@@ -9600,13 +9600,13 @@
         <v>0.4375</v>
       </c>
       <c r="U116">
-        <v>0.9997460881708827</v>
+        <v>-0.0002539118291172704</v>
       </c>
       <c r="V116">
-        <v>1.000127145581691</v>
+        <v>0.0001271455816909128</v>
       </c>
       <c r="W116">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9641,7 +9641,7 @@
         <v>0.612177396309847</v>
       </c>
       <c r="K117">
-        <v>37.97208655270042</v>
+        <v>-0.1202791344729958</v>
       </c>
       <c r="L117">
         <v>-0.01692052915541202</v>
@@ -9671,13 +9671,13 @@
         <v>0.375</v>
       </c>
       <c r="U117">
-        <v>0.9997460236832916</v>
+        <v>-0.0002539763167084264</v>
       </c>
       <c r="V117">
-        <v>0.9997457411645054</v>
+        <v>-0.0002542588354945696</v>
       </c>
       <c r="W117">
-        <v>0.9961904761904762</v>
+        <v>-0.003809523809523818</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9712,7 +9712,7 @@
         <v>0.5723049932263694</v>
       </c>
       <c r="K118">
-        <v>36.39910804150026</v>
+        <v>-0.1360089195849974</v>
       </c>
       <c r="L118">
         <v>-0.01709304240467072</v>
@@ -9742,13 +9742,13 @@
         <v>0.21875</v>
       </c>
       <c r="U118">
-        <v>0.9997459591629354</v>
+        <v>-0.0002540408370645952</v>
       </c>
       <c r="V118">
-        <v>0.9997456765005086</v>
+        <v>-0.0002543234994913934</v>
       </c>
       <c r="W118">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9783,7 +9783,7 @@
         <v>0.640865104833208</v>
       </c>
       <c r="K119">
-        <v>39.05653809966001</v>
+        <v>-0.1094346190033999</v>
       </c>
       <c r="L119">
         <v>-0.01760455341078648</v>
@@ -9813,13 +9813,13 @@
         <v>0.0625</v>
       </c>
       <c r="U119">
-        <v>0.999809420957342</v>
+        <v>-0.0001905790426579568</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9854,7 +9854,7 @@
         <v>0.5268081763164215</v>
       </c>
       <c r="K120">
-        <v>34.50388755366762</v>
+        <v>-0.1549611244633238</v>
       </c>
       <c r="L120">
         <v>-0.0192654113529644</v>
@@ -9884,13 +9884,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U120">
-        <v>0.9997140769450711</v>
+        <v>-0.000285923054928916</v>
       </c>
       <c r="V120">
-        <v>0.9997456118036123</v>
+        <v>-0.0002543881963876782</v>
       </c>
       <c r="W120">
-        <v>0.997131931166348</v>
+        <v>-0.002868068833651982</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9925,7 +9925,7 @@
         <v>0.4683182271440318</v>
       </c>
       <c r="K121">
-        <v>31.89487254782223</v>
+        <v>-0.1810512745217777</v>
       </c>
       <c r="L121">
         <v>-0.02214129031963573</v>
@@ -9955,13 +9955,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U121">
-        <v>0.9996504385407396</v>
+        <v>-0.0003495614592603502</v>
       </c>
       <c r="V121">
-        <v>0.9996183206106869</v>
+        <v>-0.0003816793893131054</v>
       </c>
       <c r="W121">
-        <v>0.9980824544582934</v>
+        <v>-0.001917545541706644</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9996,7 +9996,7 @@
         <v>0.4683182271440318</v>
       </c>
       <c r="K122">
-        <v>31.89487254782223</v>
+        <v>-0.1810512745217777</v>
       </c>
       <c r="L122">
         <v>-0.02549098036542083</v>
@@ -10026,13 +10026,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U122">
-        <v>0.9995867374511239</v>
+        <v>-0.000413262548876081</v>
       </c>
       <c r="V122">
-        <v>0.9995545373552248</v>
+        <v>-0.0004454626447751853</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10067,7 +10067,7 @@
         <v>0.3953612421433083</v>
       </c>
       <c r="K123">
-        <v>28.33397045886296</v>
+        <v>-0.2166602954113703</v>
       </c>
       <c r="L123">
         <v>-0.02986404187979754</v>
@@ -10097,13 +10097,13 @@
         <v>-1.40625</v>
       </c>
       <c r="U123">
-        <v>0.9995229614552856</v>
+        <v>-0.0004770385447143699</v>
       </c>
       <c r="V123">
-        <v>0.9993633411854587</v>
+        <v>-0.0006366588145413354</v>
       </c>
       <c r="W123">
-        <v>0.9971181556195965</v>
+        <v>-0.002881844380403509</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10138,7 +10138,7 @@
         <v>0.3953612421433083</v>
       </c>
       <c r="K124">
-        <v>28.33397045886296</v>
+        <v>-0.2166602954113703</v>
       </c>
       <c r="L124">
         <v>-0.03447240386412486</v>
@@ -10168,13 +10168,13 @@
         <v>-1.84375</v>
       </c>
       <c r="U124">
-        <v>0.9996181870247223</v>
+        <v>-0.0003818129752777288</v>
       </c>
       <c r="V124">
-        <v>0.9993629355927883</v>
+        <v>-0.0006370644072116738</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10209,7 +10209,7 @@
         <v>0.3545596881490329</v>
       </c>
       <c r="K125">
-        <v>26.17527239670986</v>
+        <v>-0.2382472760329014</v>
       </c>
       <c r="L125">
         <v>-0.03950131216194812</v>
@@ -10239,13 +10239,13 @@
         <v>-2.09375</v>
       </c>
       <c r="U125">
-        <v>0.9995543813858738</v>
+        <v>-0.0004456186141261753</v>
       </c>
       <c r="V125">
-        <v>0.9991075412762159</v>
+        <v>-0.0008924587237840731</v>
       </c>
       <c r="W125">
-        <v>0.9980732177263969</v>
+        <v>-0.0019267822736031</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10280,7 +10280,7 @@
         <v>0.4631919960901652</v>
       </c>
       <c r="K126">
-        <v>31.65626912448079</v>
+        <v>-0.1834373087551922</v>
       </c>
       <c r="L126">
         <v>-0.04362963612443048</v>
@@ -10310,13 +10310,13 @@
         <v>-2.15625</v>
       </c>
       <c r="U126">
-        <v>0.9996178709040536</v>
+        <v>-0.0003821290959463708</v>
       </c>
       <c r="V126">
-        <v>0.9992343520704396</v>
+        <v>-0.0007656479295603535</v>
       </c>
       <c r="W126">
-        <v>1.001930501930502</v>
+        <v>0.001930501930502038</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10351,7 +10351,7 @@
         <v>0.4631919960901652</v>
       </c>
       <c r="K127">
-        <v>31.65626912448079</v>
+        <v>-0.1834373087551922</v>
       </c>
       <c r="L127">
         <v>-0.04679276689659777</v>
@@ -10381,13 +10381,13 @@
         <v>-2.28125</v>
       </c>
       <c r="U127">
-        <v>0.9996495810901215</v>
+        <v>-0.0003504189098785249</v>
       </c>
       <c r="V127">
-        <v>0.999233765404508</v>
+        <v>-0.0007662345954919658</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10422,7 +10422,7 @@
         <v>0.6437443084576981</v>
       </c>
       <c r="K128">
-        <v>39.16328744959819</v>
+        <v>-0.1083671255040181</v>
       </c>
       <c r="L128">
         <v>-0.04795816255377491</v>
@@ -10452,13 +10452,13 @@
         <v>-2.125</v>
       </c>
       <c r="U128">
-        <v>0.9997131931166349</v>
+        <v>-0.0002868068833651316</v>
       </c>
       <c r="V128">
-        <v>0.9993609815323662</v>
+        <v>-0.0006390184676338118</v>
       </c>
       <c r="W128">
-        <v>1.002890173410405</v>
+        <v>0.00289017341040454</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10493,7 +10493,7 @@
         <v>0.5713520714871788</v>
       </c>
       <c r="K129">
-        <v>36.36053828130526</v>
+        <v>-0.1363946171869474</v>
       </c>
       <c r="L129">
         <v>-0.04835975649386131</v>
@@ -10523,13 +10523,13 @@
         <v>-1.875</v>
       </c>
       <c r="U129">
-        <v>0.9996493576870357</v>
+        <v>-0.0003506423129643332</v>
       </c>
       <c r="V129">
-        <v>0.9992966302193235</v>
+        <v>-0.0007033697806765327</v>
       </c>
       <c r="W129">
-        <v>0.9980787704130644</v>
+        <v>-0.001921229586935636</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10564,7 +10564,7 @@
         <v>0.6305388896886304</v>
       </c>
       <c r="K130">
-        <v>38.67058269361725</v>
+        <v>-0.1132941730638275</v>
       </c>
       <c r="L130">
         <v>-0.04774965522400638</v>
@@ -10594,13 +10594,13 @@
         <v>-1.625</v>
       </c>
       <c r="U130">
-        <v>0.9996811224489797</v>
+        <v>-0.0003188775510203357</v>
       </c>
       <c r="V130">
-        <v>0.9994880982851293</v>
+        <v>-0.0005119017148706995</v>
       </c>
       <c r="W130">
-        <v>1.000962463907604</v>
+        <v>0.0009624639076035724</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10635,7 +10635,7 @@
         <v>0.8174446313774246</v>
       </c>
       <c r="K131">
-        <v>44.97769105394374</v>
+        <v>-0.05022308946056264</v>
       </c>
       <c r="L131">
         <v>-0.04534706954493903</v>
@@ -10665,13 +10665,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U131">
-        <v>0.9998405103668261</v>
+        <v>-0.0001594896331739148</v>
       </c>
       <c r="V131">
-        <v>0.9995518565941101</v>
+        <v>-0.0004481434058899447</v>
       </c>
       <c r="W131">
-        <v>1.002884615384615</v>
+        <v>0.002884615384615374</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10706,7 +10706,7 @@
         <v>0.8830255933734928</v>
       </c>
       <c r="K132">
-        <v>46.89397725027879</v>
+        <v>-0.0310602274972121</v>
       </c>
       <c r="L132">
         <v>-0.04149636633872312</v>
@@ -10736,13 +10736,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U132">
-        <v>0.9998085819109908</v>
+        <v>-0.0001914180890092432</v>
       </c>
       <c r="V132">
-        <v>0.9998719016204446</v>
+        <v>-0.000128098379555408</v>
       </c>
       <c r="W132">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10777,7 +10777,7 @@
         <v>0.8260043709918087</v>
       </c>
       <c r="K133">
-        <v>45.23561849652955</v>
+        <v>-0.04764381503470455</v>
       </c>
       <c r="L133">
         <v>-0.03720915150566063</v>
@@ -10807,13 +10807,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U133">
-        <v>0.9998085452630907</v>
+        <v>-0.0001914547369092912</v>
       </c>
       <c r="V133">
-        <v>0.9998718852091473</v>
+        <v>-0.0001281147908527291</v>
       </c>
       <c r="W133">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10848,7 +10848,7 @@
         <v>0.8260043709918086</v>
       </c>
       <c r="K134">
-        <v>45.23561849652955</v>
+        <v>-0.04764381503470455</v>
       </c>
       <c r="L134">
         <v>-0.03279426551348586</v>
@@ -10878,13 +10878,13 @@
         <v>0.3125</v>
       </c>
       <c r="U134">
-        <v>0.9999042543005775</v>
+        <v>-9.574569942250033E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998078031904672</v>
+        <v>-0.000192196809532752</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10919,7 +10919,7 @@
         <v>0.7708492933851638</v>
       </c>
       <c r="K135">
-        <v>43.52992071457446</v>
+        <v>-0.0647007928542554</v>
       </c>
       <c r="L135">
         <v>-0.02881203776885077</v>
@@ -10949,13 +10949,13 @@
         <v>0.6875</v>
       </c>
       <c r="U135">
-        <v>0.9998404085541016</v>
+        <v>-0.0001595914458983883</v>
       </c>
       <c r="V135">
-        <v>0.9999359220812506</v>
+        <v>-6.40779187494056E-05</v>
       </c>
       <c r="W135">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10990,7 +10990,7 @@
         <v>0.7708492933851638</v>
       </c>
       <c r="K136">
-        <v>43.52992071457446</v>
+        <v>-0.0647007928542554</v>
       </c>
       <c r="L136">
         <v>-0.02524072536617181</v>
@@ -11020,13 +11020,13 @@
         <v>0.78125</v>
       </c>
       <c r="U136">
-        <v>0.9998403830806065</v>
+        <v>-0.0001596169193934793</v>
       </c>
       <c r="V136">
-        <v>1.000064082024992</v>
+        <v>6.408202499219584E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11061,7 +11061,7 @@
         <v>0.6308295631676648</v>
       </c>
       <c r="K137">
-        <v>38.68151383902828</v>
+        <v>-0.1131848616097171</v>
       </c>
       <c r="L137">
         <v>-0.02310068156222557</v>
@@ -11091,13 +11091,13 @@
         <v>0.84375</v>
       </c>
       <c r="U137">
-        <v>0.9997126436781609</v>
+        <v>-0.0002873563218390718</v>
       </c>
       <c r="V137">
-        <v>0.9998718441625015</v>
+        <v>-0.0001281558374984781</v>
       </c>
       <c r="W137">
-        <v>0.9971209213051824</v>
+        <v>-0.002879078694817627</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11132,7 +11132,7 @@
         <v>0.7582986555634689</v>
       </c>
       <c r="K138">
-        <v>43.1268404354471</v>
+        <v>-0.068731595645529</v>
       </c>
       <c r="L138">
         <v>-0.02118284655072993</v>
@@ -11162,13 +11162,13 @@
         <v>0.90625</v>
       </c>
       <c r="U138">
-        <v>0.9997764363961547</v>
+        <v>-0.0002235636038453448</v>
       </c>
       <c r="V138">
-        <v>1.000192258395283</v>
+        <v>0.0001922583952833623</v>
       </c>
       <c r="W138">
-        <v>1.001924927815207</v>
+        <v>0.001924927815206923</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11203,7 +11203,7 @@
         <v>0.6312490588209282</v>
       </c>
       <c r="K139">
-        <v>38.69728263795578</v>
+        <v>-0.1130271736204422</v>
       </c>
       <c r="L139">
         <v>-0.02049190427010644</v>
@@ -11233,13 +11233,13 @@
         <v>0.59375</v>
       </c>
       <c r="U139">
-        <v>0.9996805520061335</v>
+        <v>-0.0003194479938665173</v>
       </c>
       <c r="V139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W139">
-        <v>0.9971181556195965</v>
+        <v>-0.002881844380403509</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11274,7 +11274,7 @@
         <v>0.6900369856456838</v>
       </c>
       <c r="K140">
-        <v>40.82969730878718</v>
+        <v>-0.09170302691212817</v>
       </c>
       <c r="L140">
         <v>-0.02016529970490815</v>
@@ -11304,13 +11304,13 @@
         <v>0.25</v>
       </c>
       <c r="U140">
-        <v>0.9996484949191538</v>
+        <v>-0.0003515050808462483</v>
       </c>
       <c r="V140">
-        <v>1.000192221439098</v>
+        <v>0.0001922214390979171</v>
       </c>
       <c r="W140">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11345,7 +11345,7 @@
         <v>0.7519190138822686</v>
       </c>
       <c r="K141">
-        <v>42.91973589669589</v>
+        <v>-0.07080264103304112</v>
       </c>
       <c r="L141">
         <v>-0.01965797626564474</v>
@@ -11375,13 +11375,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U141">
-        <v>0.999680337563533</v>
+        <v>-0.000319662436466972</v>
       </c>
       <c r="V141">
-        <v>1.000128122998078</v>
+        <v>0.0001281229980780729</v>
       </c>
       <c r="W141">
-        <v>1.000962463907604</v>
+        <v>0.0009624639076035724</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11416,7 +11416,7 @@
         <v>0.6652514198830458</v>
       </c>
       <c r="K142">
-        <v>39.9490078158749</v>
+        <v>-0.100509921841251</v>
       </c>
       <c r="L142">
         <v>-0.01970048323037495</v>
@@ -11446,13 +11446,13 @@
         <v>-0.375</v>
       </c>
       <c r="U142">
-        <v>0.9996162824161416</v>
+        <v>-0.0003837175838583562</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>0.9980769230769231</v>
+        <v>-0.001923076923076916</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11487,7 +11487,7 @@
         <v>0.6652514198830457</v>
       </c>
       <c r="K143">
-        <v>39.9490078158749</v>
+        <v>-0.100509921841251</v>
       </c>
       <c r="L143">
         <v>-0.02000215224114879</v>
@@ -11517,13 +11517,13 @@
         <v>-0.625</v>
       </c>
       <c r="U143">
-        <v>0.999584146380474</v>
+        <v>-0.0004158536195260076</v>
       </c>
       <c r="V143">
-        <v>0.9998078401229823</v>
+        <v>-0.0001921598770177058</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11558,7 +11558,7 @@
         <v>0.7291084133194604</v>
       </c>
       <c r="K144">
-        <v>42.16672637198917</v>
+        <v>-0.07833273628010828</v>
       </c>
       <c r="L144">
         <v>-0.02001979735789345</v>
@@ -11588,13 +11588,13 @@
         <v>-0.75</v>
       </c>
       <c r="U144">
-        <v>0.9996479774705582</v>
+        <v>-0.0003520225294417756</v>
       </c>
       <c r="V144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W144">
-        <v>1.000963391136801</v>
+        <v>0.0009633911368014392</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11629,7 +11629,7 @@
         <v>0.6831860875228337</v>
       </c>
       <c r="K145">
-        <v>40.58886254984957</v>
+        <v>-0.09411137450150425</v>
       </c>
       <c r="L145">
         <v>-0.02014092545675877</v>
@@ -11659,13 +11659,13 @@
         <v>-0.78125</v>
       </c>
       <c r="U145">
-        <v>0.9996798668245991</v>
+        <v>-0.0003201331754009162</v>
       </c>
       <c r="V145">
-        <v>0.9998718687936448</v>
+        <v>-0.000128131206355242</v>
       </c>
       <c r="W145">
-        <v>0.9990375360923965</v>
+        <v>-0.0009624639076034613</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11700,7 +11700,7 @@
         <v>0.8157844485598739</v>
       </c>
       <c r="K146">
-        <v>44.92738382063383</v>
+        <v>-0.05072616179366174</v>
       </c>
       <c r="L146">
         <v>-0.01954492859430741</v>
@@ -11730,13 +11730,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U146">
-        <v>0.9996797643065295</v>
+        <v>-0.0003202356934705053</v>
       </c>
       <c r="V146">
-        <v>0.9998077785609021</v>
+        <v>-0.0001922214390979171</v>
       </c>
       <c r="W146">
-        <v>1.001926782273603</v>
+        <v>0.0019267822736031</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11771,7 +11771,7 @@
         <v>0.815784448559874</v>
       </c>
       <c r="K147">
-        <v>44.92738382063383</v>
+        <v>-0.05072616179366174</v>
       </c>
       <c r="L147">
         <v>-0.01848105753963133</v>
@@ -11801,13 +11801,13 @@
         <v>-0.625</v>
       </c>
       <c r="U147">
-        <v>0.9998077970336675</v>
+        <v>-0.0001922029663324887</v>
       </c>
       <c r="V147">
-        <v>0.9997436554729556</v>
+        <v>-0.0002563445270443721</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11842,7 +11842,7 @@
         <v>1.036169536156063</v>
       </c>
       <c r="K148">
-        <v>50.88817594787182</v>
+        <v>0.008881759478718276</v>
       </c>
       <c r="L148">
         <v>-0.01608502253092285</v>
@@ -11872,13 +11872,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U148">
-        <v>0.9999359200281952</v>
+        <v>-6.407997180479796E-05</v>
       </c>
       <c r="V148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W148">
-        <v>1.002884615384615</v>
+        <v>0.002884615384615374</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11913,7 +11913,7 @@
         <v>0.9617957011238462</v>
       </c>
       <c r="K149">
-        <v>49.0262926242965</v>
+        <v>-0.009737073757034975</v>
       </c>
       <c r="L149">
         <v>-0.01332502133912076</v>
@@ -11943,13 +11943,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U149">
-        <v>0.9998718318433786</v>
+        <v>-0.0001281681566214221</v>
       </c>
       <c r="V149">
-        <v>0.9999358974358975</v>
+        <v>-6.410256410249726E-05</v>
       </c>
       <c r="W149">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11984,7 +11984,7 @@
         <v>0.9617957011238462</v>
       </c>
       <c r="K150">
-        <v>49.0262926242965</v>
+        <v>-0.009737073757034975</v>
       </c>
       <c r="L150">
         <v>-0.01047158369127537</v>
@@ -12014,13 +12014,13 @@
         <v>0.09375</v>
       </c>
       <c r="U150">
-        <v>0.9999679538535491</v>
+        <v>-3.204614645091475E-05</v>
       </c>
       <c r="V150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12055,7 +12055,7 @@
         <v>1.041327745447264</v>
       </c>
       <c r="K151">
-        <v>51.01227609185828</v>
+        <v>0.01012276091858277</v>
       </c>
       <c r="L151">
         <v>-0.007355287654995149</v>
@@ -12085,13 +12085,13 @@
         <v>0.375</v>
       </c>
       <c r="U151">
-        <v>1.000064094346879</v>
+        <v>6.409434687859594E-05</v>
       </c>
       <c r="V151">
-        <v>1.000064106673505</v>
+        <v>6.410667350476018E-05</v>
       </c>
       <c r="W151">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12126,7 +12126,7 @@
         <v>0.9608844752617854</v>
       </c>
       <c r="K152">
-        <v>49.00260506848593</v>
+        <v>-0.009973949315140673</v>
       </c>
       <c r="L152">
         <v>-0.004601258039285927</v>
@@ -12156,13 +12156,13 @@
         <v>0.5625</v>
       </c>
       <c r="U152">
-        <v>1.000032045119528</v>
+        <v>3.204511952836775E-05</v>
       </c>
       <c r="V152">
-        <v>1.000192307692308</v>
+        <v>0.0001923076923078249</v>
       </c>
       <c r="W152">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12197,7 +12197,7 @@
         <v>1.123517473145964</v>
       </c>
       <c r="K153">
-        <v>52.90832250518227</v>
+        <v>0.0290832250518227</v>
       </c>
       <c r="L153">
         <v>-0.001525805387627169</v>
@@ -12227,13 +12227,13 @@
         <v>0.78125</v>
       </c>
       <c r="U153">
-        <v>1.000192264556029</v>
+        <v>0.0001922645560290537</v>
       </c>
       <c r="V153">
-        <v>1.00019227071717</v>
+        <v>0.0001922707171697624</v>
       </c>
       <c r="W153">
-        <v>1.001919385796545</v>
+        <v>0.001919385796545159</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12268,7 +12268,7 @@
         <v>1.294710102497731</v>
       </c>
       <c r="K154">
-        <v>56.42151054673413</v>
+        <v>0.06421510546734122</v>
       </c>
       <c r="L154">
         <v>0.002253614061525759</v>
@@ -12298,13 +12298,13 @@
         <v>1</v>
       </c>
       <c r="U154">
-        <v>1.000256303463301</v>
+        <v>0.0002563034633005223</v>
       </c>
       <c r="V154">
-        <v>1.000512623349993</v>
+        <v>0.0005126233499934685</v>
       </c>
       <c r="W154">
-        <v>1.001915708812261</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12339,7 +12339,7 @@
         <v>1.097023441978896</v>
       </c>
       <c r="K155">
-        <v>52.31336092951203</v>
+        <v>0.02313360929512032</v>
       </c>
       <c r="L155">
         <v>0.005510510344938046</v>
@@ -12369,13 +12369,13 @@
         <v>1.0625</v>
       </c>
       <c r="U155">
-        <v>1.000256237788668</v>
+        <v>0.0002562377886679013</v>
       </c>
       <c r="V155">
-        <v>1.000320225438709</v>
+        <v>0.0003202254387086878</v>
       </c>
       <c r="W155">
-        <v>0.9980879541108987</v>
+        <v>-0.001912045889101321</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12410,7 +12410,7 @@
         <v>1.177385532765601</v>
       </c>
       <c r="K156">
-        <v>54.07336069098189</v>
+        <v>0.04073360690981886</v>
       </c>
       <c r="L156">
         <v>0.008572736636123549</v>
@@ -12440,13 +12440,13 @@
         <v>1</v>
       </c>
       <c r="U156">
-        <v>1.000224150629223</v>
+        <v>0.0002241506292228745</v>
       </c>
       <c r="V156">
-        <v>1.000320122927204</v>
+        <v>0.0003201229272040695</v>
       </c>
       <c r="W156">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12481,7 +12481,7 @@
         <v>1.431160556302564</v>
       </c>
       <c r="K157">
-        <v>58.86738136617137</v>
+        <v>0.08867381366171367</v>
       </c>
       <c r="L157">
         <v>0.01233965731364746</v>
@@ -12511,13 +12511,13 @@
         <v>1.125</v>
       </c>
       <c r="U157">
-        <v>1.000320143424254</v>
+        <v>0.0003201434242539047</v>
       </c>
       <c r="V157">
-        <v>1.000640040962622</v>
+        <v>0.0006400409626217129</v>
       </c>
       <c r="W157">
-        <v>1.002870813397129</v>
+        <v>0.002870813397129135</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12552,7 +12552,7 @@
         <v>1.609248292117976</v>
       </c>
       <c r="K158">
-        <v>61.6747856836468</v>
+        <v>0.1167478568364679</v>
       </c>
       <c r="L158">
         <v>0.01694714642411597</v>
@@ -12582,13 +12582,13 @@
         <v>1.25</v>
       </c>
       <c r="U158">
-        <v>1.000288036868719</v>
+        <v>0.0002880368687192547</v>
       </c>
       <c r="V158">
-        <v>1.000767557886657</v>
+        <v>0.0007675578866572774</v>
       </c>
       <c r="W158">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12623,7 +12623,7 @@
         <v>1.609248292117976</v>
       </c>
       <c r="K159">
-        <v>61.6747856836468</v>
+        <v>0.1167478568364679</v>
       </c>
       <c r="L159">
         <v>0.02170706502046273</v>
@@ -12653,13 +12653,13 @@
         <v>1.3125</v>
       </c>
       <c r="U159">
-        <v>1.00035194368901</v>
+        <v>0.0003519436890098149</v>
       </c>
       <c r="V159">
-        <v>1.000703055093954</v>
+        <v>0.0007030550939537417</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12694,7 +12694,7 @@
         <v>1.464732555606566</v>
       </c>
       <c r="K160">
-        <v>59.42764671463911</v>
+        <v>0.09427646714639115</v>
       </c>
       <c r="L160">
         <v>0.02582564360510378</v>
@@ -12724,13 +12724,13 @@
         <v>1.4375</v>
       </c>
       <c r="U160">
-        <v>1.000287852619459</v>
+        <v>0.0002878526194587394</v>
       </c>
       <c r="V160">
-        <v>1.000702561154755</v>
+        <v>0.0007025611547550881</v>
       </c>
       <c r="W160">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12765,7 +12765,7 @@
         <v>1.464732555606566</v>
       </c>
       <c r="K161">
-        <v>59.42764671463911</v>
+        <v>0.09427646714639115</v>
       </c>
       <c r="L161">
         <v>0.02919780350923926</v>
@@ -12795,13 +12795,13 @@
         <v>1.40625</v>
       </c>
       <c r="U161">
-        <v>1.000191846522782</v>
+        <v>0.0001918465227819244</v>
       </c>
       <c r="V161">
-        <v>1.000574419198366</v>
+        <v>0.0005744191983663161</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12836,7 +12836,7 @@
         <v>1.464732555606566</v>
       </c>
       <c r="K162">
-        <v>59.42764671463911</v>
+        <v>0.09427646714639115</v>
       </c>
       <c r="L162">
         <v>0.03179534965912462</v>
@@ -12866,13 +12866,13 @@
         <v>1.3125</v>
       </c>
       <c r="U162">
-        <v>1.000159841437294</v>
+        <v>0.0001598414372940837</v>
       </c>
       <c r="V162">
-        <v>1.000574089430376</v>
+        <v>0.0005740894303756239</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12907,7 +12907,7 @@
         <v>1.56947465340932</v>
       </c>
       <c r="K163">
-        <v>61.08153864553032</v>
+        <v>0.1108153864553032</v>
       </c>
       <c r="L163">
         <v>0.03399063688359289</v>
@@ -12937,13 +12937,13 @@
         <v>1.375</v>
       </c>
       <c r="U163">
-        <v>1.000223742248929</v>
+        <v>0.0002237422489292928</v>
       </c>
       <c r="V163">
-        <v>1.000446257809512</v>
+        <v>0.0004462578095116854</v>
       </c>
       <c r="W163">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12978,7 +12978,7 @@
         <v>1.56947465340932</v>
       </c>
       <c r="K164">
-        <v>61.08153864553031</v>
+        <v>0.1108153864553031</v>
       </c>
       <c r="L164">
         <v>0.03567735967577144</v>
@@ -13008,13 +13008,13 @@
         <v>1.46875</v>
       </c>
       <c r="U164">
-        <v>1.000223692199534</v>
+        <v>0.0002236921995335539</v>
       </c>
       <c r="V164">
-        <v>1.000509781431211</v>
+        <v>0.0005097814312113869</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13049,7 +13049,7 @@
         <v>1.801590105603789</v>
       </c>
       <c r="K165">
-        <v>64.30598473346323</v>
+        <v>0.1430598473346323</v>
       </c>
       <c r="L165">
         <v>0.0375157434894725</v>
@@ -13079,13 +13079,13 @@
         <v>1.40625</v>
       </c>
       <c r="U165">
-        <v>1.000319488817891</v>
+        <v>0.0003194888178914557</v>
       </c>
       <c r="V165">
-        <v>1.000636902108146</v>
+        <v>0.0006369021081460424</v>
       </c>
       <c r="W165">
-        <v>1.001904761904762</v>
+        <v>0.001904761904761854</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13120,7 +13120,7 @@
         <v>1.605457714367236</v>
       </c>
       <c r="K166">
-        <v>61.61902783968763</v>
+        <v>0.1161902783968762</v>
       </c>
       <c r="L166">
         <v>0.0388415964435748</v>
@@ -13150,13 +13150,13 @@
         <v>1.1875</v>
       </c>
       <c r="U166">
-        <v>1.000287448099649</v>
+        <v>0.0002874480996486461</v>
       </c>
       <c r="V166">
-        <v>1.000509197377633</v>
+        <v>0.0005091973776334413</v>
       </c>
       <c r="W166">
-        <v>0.9990494296577946</v>
+        <v>-0.0009505703422053591</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13191,7 +13191,7 @@
         <v>1.605457714367236</v>
       </c>
       <c r="K167">
-        <v>61.61902783968763</v>
+        <v>0.1161902783968762</v>
       </c>
       <c r="L167">
         <v>0.03963003697120334</v>
@@ -13221,13 +13221,13 @@
         <v>1</v>
       </c>
       <c r="U167">
-        <v>1.000383153995977</v>
+        <v>0.0003831539959766594</v>
       </c>
       <c r="V167">
-        <v>1.000572555506075</v>
+        <v>0.0005725555060753784</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13262,7 +13262,7 @@
         <v>1.967340045620728</v>
       </c>
       <c r="K168">
-        <v>66.29978416272769</v>
+        <v>0.1629978416272769</v>
       </c>
       <c r="L168">
         <v>0.04094360254169931</v>
@@ -13292,13 +13292,13 @@
         <v>0.9375</v>
       </c>
       <c r="U168">
-        <v>1.000414924515656</v>
+        <v>0.0004149245156555015</v>
       </c>
       <c r="V168">
-        <v>1.000635808748728</v>
+        <v>0.0006358087487283726</v>
       </c>
       <c r="W168">
-        <v>1.002854424357755</v>
+        <v>0.002854424357754626</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13333,7 +13333,7 @@
         <v>2.0943163022009</v>
       </c>
       <c r="K169">
-        <v>67.68268327033252</v>
+        <v>0.1768268327033252</v>
       </c>
       <c r="L169">
         <v>0.04268896824834952</v>
@@ -13363,13 +13363,13 @@
         <v>0.96875</v>
       </c>
       <c r="U169">
-        <v>1.000542368555385</v>
+        <v>0.0005423685553853641</v>
       </c>
       <c r="V169">
-        <v>1.000571864277545</v>
+        <v>0.0005718642775447424</v>
       </c>
       <c r="W169">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034155851</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13404,7 +13404,7 @@
         <v>1.494896295223038</v>
       </c>
       <c r="K170">
-        <v>59.91817367660958</v>
+        <v>0.09918173676609576</v>
       </c>
       <c r="L170">
         <v>0.04338181818129524</v>
@@ -13434,13 +13434,13 @@
         <v>0.96875</v>
       </c>
       <c r="U170">
-        <v>1.000414527597972</v>
+        <v>0.0004145275979721141</v>
       </c>
       <c r="V170">
-        <v>1.00050803327618</v>
+        <v>0.0005080332761795425</v>
       </c>
       <c r="W170">
-        <v>0.9971563981042654</v>
+        <v>-0.002843601895734627</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13475,7 +13475,7 @@
         <v>1.796172863492439</v>
       </c>
       <c r="K171">
-        <v>64.23683195498174</v>
+        <v>0.1423683195498174</v>
       </c>
       <c r="L171">
         <v>0.0442792342353233</v>
@@ -13505,13 +13505,13 @@
         <v>0.9375</v>
       </c>
       <c r="U171">
-        <v>1.000478102887741</v>
+        <v>0.0004781028877414162</v>
       </c>
       <c r="V171">
-        <v>1.000634719136782</v>
+        <v>0.000634719136782147</v>
       </c>
       <c r="W171">
-        <v>1.002851711026616</v>
+        <v>0.002851711026615966</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13546,7 +13546,7 @@
         <v>1.901883940078194</v>
       </c>
       <c r="K172">
-        <v>65.5396280261624</v>
+        <v>0.155396280261624</v>
       </c>
       <c r="L172">
         <v>0.045428434823115</v>
@@ -13576,13 +13576,13 @@
         <v>0.96875</v>
       </c>
       <c r="U172">
-        <v>1.000573449297525</v>
+        <v>0.0005734492975246752</v>
       </c>
       <c r="V172">
-        <v>1.000507453219156</v>
+        <v>0.0005074532191562398</v>
       </c>
       <c r="W172">
-        <v>1.000947867298578</v>
+        <v>0.0009478672985780978</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13617,7 +13617,7 @@
         <v>1.901883940078194</v>
       </c>
       <c r="K173">
-        <v>65.5396280261624</v>
+        <v>0.155396280261624</v>
       </c>
       <c r="L173">
         <v>0.04648947387709659</v>
@@ -13647,13 +13647,13 @@
         <v>0.96875</v>
       </c>
       <c r="U173">
-        <v>1.000573120641895</v>
+        <v>0.0005731206418950752</v>
       </c>
       <c r="V173">
-        <v>1.000380396880746</v>
+        <v>0.0003803968807456481</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13688,7 +13688,7 @@
         <v>1.29509761931729</v>
       </c>
       <c r="K174">
-        <v>56.42886857695123</v>
+        <v>0.0642886857695123</v>
       </c>
       <c r="L174">
         <v>0.04586747375689672</v>
@@ -13718,13 +13718,13 @@
         <v>0.96875</v>
       </c>
       <c r="U174">
-        <v>1.000413683373111</v>
+        <v>0.0004136833731105405</v>
       </c>
       <c r="V174">
-        <v>1.000126750744661</v>
+        <v>0.0001267507446605087</v>
       </c>
       <c r="W174">
-        <v>0.9962121212121212</v>
+        <v>-0.003787878787878785</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13759,7 +13759,7 @@
         <v>1.29509761931729</v>
       </c>
       <c r="K175">
-        <v>56.42886857695123</v>
+        <v>0.0642886857695123</v>
       </c>
       <c r="L175">
         <v>0.04409935560849971</v>
@@ -13789,13 +13789,13 @@
         <v>0.96875</v>
       </c>
       <c r="U175">
-        <v>1.00044532094917</v>
+        <v>0.0004453209491697141</v>
       </c>
       <c r="V175">
-        <v>1.000190102021418</v>
+        <v>0.0001901020214181148</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13830,7 +13830,7 @@
         <v>1.29509761931729</v>
       </c>
       <c r="K176">
-        <v>56.42886857695123</v>
+        <v>0.0642886857695123</v>
       </c>
       <c r="L176">
         <v>0.04158981241221488</v>
@@ -13860,13 +13860,13 @@
         <v>0.75</v>
       </c>
       <c r="U176">
-        <v>1.000381533765738</v>
+        <v>0.00038153376573824</v>
       </c>
       <c r="V176">
-        <v>1.000190065889508</v>
+        <v>0.0001900658895084284</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13901,7 +13901,7 @@
         <v>1.29509761931729</v>
       </c>
       <c r="K177">
-        <v>56.42886857695123</v>
+        <v>0.0642886857695123</v>
       </c>
       <c r="L177">
         <v>0.03864026885270386</v>
@@ -13931,13 +13931,13 @@
         <v>0.46875</v>
       </c>
       <c r="U177">
-        <v>1.000381388253242</v>
+        <v>0.0003813882532419655</v>
       </c>
       <c r="V177">
-        <v>1.000190029771331</v>
+        <v>0.0001900297713308685</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13972,7 +13972,7 @@
         <v>0.9305844999651802</v>
       </c>
       <c r="K178">
-        <v>48.20221544210906</v>
+        <v>-0.01797784557890936</v>
       </c>
       <c r="L178">
         <v>0.03408331045785969</v>
@@ -14002,13 +14002,13 @@
         <v>0.25</v>
       </c>
       <c r="U178">
-        <v>1.000158851188207</v>
+        <v>0.0001588511882066879</v>
       </c>
       <c r="V178">
-        <v>0.9998733375554147</v>
+        <v>-0.0001266624445852571</v>
       </c>
       <c r="W178">
-        <v>0.9961977186311787</v>
+        <v>-0.003802281368821325</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14043,7 +14043,7 @@
         <v>1.078719287122348</v>
       </c>
       <c r="K179">
-        <v>51.89345640871312</v>
+        <v>0.01893456408713123</v>
       </c>
       <c r="L179">
         <v>0.02941497135664514</v>
@@ -14073,13 +14073,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U179">
-        <v>1.000254121533624</v>
+        <v>0.0002541215336235858</v>
       </c>
       <c r="V179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W179">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14114,7 +14114,7 @@
         <v>1.078719287122348</v>
       </c>
       <c r="K180">
-        <v>51.89345640871312</v>
+        <v>0.01893456408713123</v>
       </c>
       <c r="L180">
         <v>0.02487014017250024</v>
@@ -14144,13 +14144,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U180">
-        <v>1.000254056972276</v>
+        <v>0.0002540569722759844</v>
       </c>
       <c r="V180">
-        <v>0.9998733215100077</v>
+        <v>-0.0001266784899922602</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14185,7 +14185,7 @@
         <v>0.8656017328881245</v>
       </c>
       <c r="K181">
-        <v>46.39799146992068</v>
+        <v>-0.03602008530079315</v>
       </c>
       <c r="L181">
         <v>0.01955896288849594</v>
@@ -14215,13 +14215,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U181">
-        <v>1.000126996221862</v>
+        <v>0.0001269962218621856</v>
       </c>
       <c r="V181">
-        <v>0.9997466109210693</v>
+        <v>-0.0002533890789306881</v>
       </c>
       <c r="W181">
-        <v>0.9971428571428571</v>
+        <v>-0.002857142857142891</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14256,7 +14256,7 @@
         <v>0.9349229085616148</v>
       </c>
       <c r="K182">
-        <v>48.3183544121982</v>
+        <v>-0.01681645587801806</v>
       </c>
       <c r="L182">
         <v>0.01439839161920114</v>
@@ -14286,13 +14286,13 @@
         <v>-1</v>
       </c>
       <c r="U182">
-        <v>1.000190470143805</v>
+        <v>0.0001904701438049106</v>
       </c>
       <c r="V182">
-        <v>0.999809910024078</v>
+        <v>-0.0001900899759219588</v>
       </c>
       <c r="W182">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14327,7 +14327,7 @@
         <v>1.080862225768963</v>
       </c>
       <c r="K183">
-        <v>51.94299806992463</v>
+        <v>0.01942998069924629</v>
       </c>
       <c r="L183">
         <v>0.01029910042002237</v>
@@ -14357,13 +14357,13 @@
         <v>-1.09375</v>
       </c>
       <c r="U183">
-        <v>1.000190433871838</v>
+        <v>0.0001904338718381471</v>
       </c>
       <c r="V183">
-        <v>0.9997464985106788</v>
+        <v>-0.0002535014893212395</v>
       </c>
       <c r="W183">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14398,7 +14398,7 @@
         <v>1.003763020578827</v>
       </c>
       <c r="K184">
-        <v>50.09389884283172</v>
+        <v>0.000938988428317189</v>
       </c>
       <c r="L184">
         <v>0.006719476046751514</v>
@@ -14428,13 +14428,13 @@
         <v>-1.125</v>
       </c>
       <c r="U184">
-        <v>1.000095198806842</v>
+        <v>9.519880684161208E-05</v>
       </c>
       <c r="V184">
-        <v>0.9996196513470681</v>
+        <v>-0.0003803486529319056</v>
       </c>
       <c r="W184">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14469,7 +14469,7 @@
         <v>0.9336588020810604</v>
       </c>
       <c r="K185">
-        <v>48.28456815009088</v>
+        <v>-0.01715431849909121</v>
       </c>
       <c r="L185">
         <v>0.00331151455088476</v>
@@ -14499,13 +14499,13 @@
         <v>-1.15625</v>
       </c>
       <c r="U185">
-        <v>1.000126919659855</v>
+        <v>0.0001269196598554512</v>
       </c>
       <c r="V185">
-        <v>0.9997463377512842</v>
+        <v>-0.0002536622487158136</v>
       </c>
       <c r="W185">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14540,7 +14540,7 @@
         <v>0.9336588020810603</v>
       </c>
       <c r="K186">
-        <v>48.28456815009087</v>
+        <v>-0.01715431849909133</v>
       </c>
       <c r="L186">
         <v>0.0002125599944312074</v>
@@ -14570,13 +14570,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U186">
-        <v>1.000095177664974</v>
+        <v>9.517766497446623E-05</v>
       </c>
       <c r="V186">
-        <v>0.9995559784332382</v>
+        <v>-0.0004440215667618208</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14611,7 +14611,7 @@
         <v>0.9336588020810603</v>
       </c>
       <c r="K187">
-        <v>48.28456815009087</v>
+        <v>-0.01715431849909133</v>
       </c>
       <c r="L187">
         <v>-0.002502656058516018</v>
@@ -14641,13 +14641,13 @@
         <v>-0.9375</v>
       </c>
       <c r="U187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187">
-        <v>0.9994923213605788</v>
+        <v>-0.0005076786394212496</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14682,7 +14682,7 @@
         <v>1.096577953812321</v>
       </c>
       <c r="K188">
-        <v>52.30322830679175</v>
+        <v>0.02303228306791749</v>
       </c>
       <c r="L188">
         <v>-0.004110093465423993</v>
@@ -14712,13 +14712,13 @@
         <v>-0.75</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V188">
-        <v>0.9996190476190475</v>
+        <v>-0.0003809523809524817</v>
       </c>
       <c r="W188">
-        <v>1.001908396946565</v>
+        <v>0.001908396946564972</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14753,7 +14753,7 @@
         <v>0.9360509741441294</v>
       </c>
       <c r="K189">
-        <v>48.34846740323714</v>
+        <v>-0.01651532596762861</v>
       </c>
       <c r="L189">
         <v>-0.005622460243779407</v>
@@ -14783,13 +14783,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U189">
-        <v>0.9999365542619675</v>
+        <v>-6.344573803251929E-05</v>
       </c>
       <c r="V189">
-        <v>0.9997459349593496</v>
+        <v>-0.0002540650406503975</v>
       </c>
       <c r="W189">
-        <v>0.9980952380952381</v>
+        <v>-0.001904761904761854</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14824,7 +14824,7 @@
         <v>1.013097830450298</v>
       </c>
       <c r="K190">
-        <v>50.32531529894322</v>
+        <v>0.003253152989432184</v>
       </c>
       <c r="L190">
         <v>-0.006613802413923465</v>
@@ -14854,13 +14854,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V190">
-        <v>0.9998094027954259</v>
+        <v>-0.00019059720457415</v>
       </c>
       <c r="W190">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14895,7 +14895,7 @@
         <v>0.871704030132187</v>
       </c>
       <c r="K191">
-        <v>46.57274954259857</v>
+        <v>-0.03427250457401437</v>
       </c>
       <c r="L191">
         <v>-0.007895747055721485</v>
@@ -14925,13 +14925,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U191">
-        <v>0.9999365502363504</v>
+        <v>-6.344976364958121E-05</v>
       </c>
       <c r="V191">
-        <v>0.9996822774353433</v>
+        <v>-0.000317722564656675</v>
       </c>
       <c r="W191">
-        <v>0.998093422306959</v>
+        <v>-0.001906577693041034</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14966,7 +14966,7 @@
         <v>0.945159709736233</v>
       </c>
       <c r="K192">
-        <v>48.59033965207917</v>
+        <v>-0.01409660347920827</v>
       </c>
       <c r="L192">
         <v>-0.008896751386753419</v>
@@ -14996,13 +14996,13 @@
         <v>-0.25</v>
       </c>
       <c r="U192">
-        <v>0.999968273105111</v>
+        <v>-3.172689488895042E-05</v>
       </c>
       <c r="V192">
-        <v>0.9997457411645054</v>
+        <v>-0.0002542588354945696</v>
       </c>
       <c r="W192">
-        <v>1.000955109837631</v>
+        <v>0.0009551098376312517</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15037,7 +15037,7 @@
         <v>0.8185727285180598</v>
       </c>
       <c r="K193">
-        <v>45.01182249582661</v>
+        <v>-0.04988177504173391</v>
       </c>
       <c r="L193">
         <v>-0.01032505479827136</v>
@@ -15067,13 +15067,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U193">
-        <v>0.9998730883939337</v>
+        <v>-0.0001269116060662601</v>
       </c>
       <c r="V193">
-        <v>0.9998728382502544</v>
+        <v>-0.0001271617497455857</v>
       </c>
       <c r="W193">
-        <v>0.9980916030534351</v>
+        <v>-0.001908396946564861</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15108,7 +15108,7 @@
         <v>0.8185727285180598</v>
       </c>
       <c r="K194">
-        <v>45.01182249582661</v>
+        <v>-0.04988177504173391</v>
       </c>
       <c r="L194">
         <v>-0.01188394418783955</v>
@@ -15138,13 +15138,13 @@
         <v>-0.25</v>
       </c>
       <c r="U194">
-        <v>0.9998730722853334</v>
+        <v>-0.0001269277146666026</v>
       </c>
       <c r="V194">
-        <v>0.9997456441561745</v>
+        <v>-0.0002543558438254934</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15179,7 +15179,7 @@
         <v>0.7127935068348715</v>
       </c>
       <c r="K195">
-        <v>41.61584592599644</v>
+        <v>-0.08384154074003564</v>
       </c>
       <c r="L195">
         <v>-0.01407340949781509</v>
@@ -15209,13 +15209,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U195">
-        <v>0.9997461123452872</v>
+        <v>-0.0002538876547127922</v>
       </c>
       <c r="V195">
-        <v>0.9996183691642284</v>
+        <v>-0.0003816308357715847</v>
       </c>
       <c r="W195">
-        <v>0.9980879541108987</v>
+        <v>-0.001912045889101321</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15250,7 +15250,7 @@
         <v>0.7127935068348716</v>
       </c>
       <c r="K196">
-        <v>41.61584592599645</v>
+        <v>-0.08384154074003553</v>
       </c>
       <c r="L196">
         <v>-0.01645479975216416</v>
@@ -15280,13 +15280,13 @@
         <v>-0.5</v>
       </c>
       <c r="U196">
-        <v>0.9997777918862294</v>
+        <v>-0.0002222081137706056</v>
       </c>
       <c r="V196">
-        <v>0.9998091117332654</v>
+        <v>-0.0001908882667346345</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15321,7 +15321,7 @@
         <v>0.6651723360716257</v>
       </c>
       <c r="K197">
-        <v>39.94615582197697</v>
+        <v>-0.1005384417802302</v>
       </c>
       <c r="L197">
         <v>-0.01908846916463319</v>
@@ -15351,13 +15351,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U197">
-        <v>0.9997459914272107</v>
+        <v>-0.0002540085727893437</v>
       </c>
       <c r="V197">
-        <v>0.9996817921466302</v>
+        <v>-0.0003182078533697785</v>
       </c>
       <c r="W197">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15392,7 +15392,7 @@
         <v>0.6651723360716256</v>
       </c>
       <c r="K198">
-        <v>39.94615582197697</v>
+        <v>-0.1005384417802302</v>
       </c>
       <c r="L198">
         <v>-0.02163855970142278</v>
@@ -15422,13 +15422,13 @@
         <v>-0.90625</v>
       </c>
       <c r="U198">
-        <v>0.9996506494743863</v>
+        <v>-0.0003493505256136897</v>
       </c>
       <c r="V198">
-        <v>0.999554367201426</v>
+        <v>-0.0004456327985740138</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15463,7 +15463,7 @@
         <v>0.6193256263231037</v>
       </c>
       <c r="K199">
-        <v>38.24589793773385</v>
+        <v>-0.1175410206226615</v>
       </c>
       <c r="L199">
         <v>-0.02424472653921199</v>
@@ -15493,13 +15493,13 @@
         <v>-0.96875</v>
       </c>
       <c r="U199">
-        <v>0.9995869869106621</v>
+        <v>-0.0004130130893379436</v>
       </c>
       <c r="V199">
-        <v>0.9995541685242978</v>
+        <v>-0.0004458314757022075</v>
       </c>
       <c r="W199">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15534,7 +15534,7 @@
         <v>0.7644299605085582</v>
       </c>
       <c r="K200">
-        <v>43.32447179077758</v>
+        <v>-0.0667552820922242</v>
       </c>
       <c r="L200">
         <v>-0.02593721687662241</v>
@@ -15564,13 +15564,13 @@
         <v>-1.0625</v>
       </c>
       <c r="U200">
-        <v>0.9997457330833042</v>
+        <v>-0.0002542669166958333</v>
       </c>
       <c r="V200">
-        <v>0.9997451255256786</v>
+        <v>-0.000254874474321376</v>
       </c>
       <c r="W200">
-        <v>1.001919385796545</v>
+        <v>0.001919385796545159</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15605,7 +15605,7 @@
         <v>0.8408006627114291</v>
       </c>
       <c r="K201">
-        <v>45.6758126908191</v>
+        <v>-0.04324187309180899</v>
       </c>
       <c r="L201">
         <v>-0.02652694922822012</v>
@@ -15635,13 +15635,13 @@
         <v>-1.03125</v>
       </c>
       <c r="U201">
-        <v>0.9996820855189955</v>
+        <v>-0.0003179144810044887</v>
       </c>
       <c r="V201">
-        <v>0.9998087954110898</v>
+        <v>-0.0001912045889101988</v>
       </c>
       <c r="W201">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15676,7 +15676,7 @@
         <v>0.8408006627114292</v>
       </c>
       <c r="K202">
-        <v>45.6758126908191</v>
+        <v>-0.04324187309180899</v>
       </c>
       <c r="L202">
         <v>-0.02631432918524015</v>
@@ -15706,13 +15706,13 @@
         <v>-1</v>
       </c>
       <c r="U202">
-        <v>0.99965018285896</v>
+        <v>-0.0003498171410399875</v>
       </c>
       <c r="V202">
-        <v>0.9998087588449034</v>
+        <v>-0.0001912411550966109</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15747,7 +15747,7 @@
         <v>0.8408006627114293</v>
       </c>
       <c r="K203">
-        <v>45.67581269081911</v>
+        <v>-0.04324187309180894</v>
       </c>
       <c r="L203">
         <v>-0.02553320033492248</v>
@@ -15777,13 +15777,13 @@
         <v>-0.84375</v>
       </c>
       <c r="U203">
-        <v>0.9996500604441052</v>
+        <v>-0.000349939555894796</v>
       </c>
       <c r="V203">
-        <v>0.9996812037745474</v>
+        <v>-0.0003187962254526111</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15818,7 +15818,7 @@
         <v>0.9298756907946727</v>
       </c>
       <c r="K204">
-        <v>48.18319103298171</v>
+        <v>-0.01816808967018291</v>
       </c>
       <c r="L204">
         <v>-0.02401673151175025</v>
@@ -15848,13 +15848,13 @@
         <v>-0.59375</v>
       </c>
       <c r="U204">
-        <v>0.9998090570601151</v>
+        <v>-0.0001909429398848639</v>
       </c>
       <c r="V204">
-        <v>0.9998724408444417</v>
+        <v>-0.0001275591555582878</v>
       </c>
       <c r="W204">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15889,7 +15889,7 @@
         <v>0.9298756907946727</v>
       </c>
       <c r="K205">
-        <v>48.18319103298171</v>
+        <v>-0.01816808967018291</v>
       </c>
       <c r="L205">
         <v>-0.02206351679284514</v>
@@ -15919,13 +15919,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U205">
-        <v>0.9998090205939459</v>
+        <v>-0.0001909794060540593</v>
       </c>
       <c r="V205">
-        <v>0.9998086368565414</v>
+        <v>-0.0001913631434585783</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15960,7 +15960,7 @@
         <v>0.8463432288774215</v>
       </c>
       <c r="K206">
-        <v>45.83888930510494</v>
+        <v>-0.04161110694895065</v>
       </c>
       <c r="L206">
         <v>-0.02023722146543752</v>
@@ -15990,13 +15990,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U206">
-        <v>0.9997771481328197</v>
+        <v>-0.0002228518671802959</v>
       </c>
       <c r="V206">
-        <v>0.9998724001531197</v>
+        <v>-0.0001275998468802664</v>
       </c>
       <c r="W206">
-        <v>0.9990439770554493</v>
+        <v>-0.0009560229445506607</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16031,7 +16031,7 @@
         <v>0.8463432288774216</v>
       </c>
       <c r="K207">
-        <v>45.83888930510494</v>
+        <v>-0.04161110694895065</v>
       </c>
       <c r="L207">
         <v>-0.01853050296633804</v>
@@ -16061,13 +16061,13 @@
         <v>0.15625</v>
       </c>
       <c r="U207">
-        <v>0.999777098458795</v>
+        <v>-0.0002229015412049673</v>
       </c>
       <c r="V207">
-        <v>0.9998085758039815</v>
+        <v>-0.0001914241960184748</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16102,7 +16102,7 @@
         <v>0.7697271403267347</v>
       </c>
       <c r="K208">
-        <v>43.49411402396328</v>
+        <v>-0.06505885976036718</v>
       </c>
       <c r="L208">
         <v>-0.01728536335200348</v>
@@ -16132,13 +16132,13 @@
         <v>0.28125</v>
       </c>
       <c r="U208">
-        <v>0.9998725992929262</v>
+        <v>-0.0001274007070738437</v>
       </c>
       <c r="V208">
-        <v>0.9998723594358289</v>
+        <v>-0.0001276405641711387</v>
       </c>
       <c r="W208">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16173,7 +16173,7 @@
         <v>0.8650176932751548</v>
       </c>
       <c r="K209">
-        <v>46.381205733019</v>
+        <v>-0.03618794266980996</v>
       </c>
       <c r="L209">
         <v>-0.01598854606654791</v>
@@ -16203,13 +16203,13 @@
         <v>0.3125</v>
       </c>
       <c r="U209">
-        <v>0.9998407288248972</v>
+        <v>-0.0001592711751028375</v>
       </c>
       <c r="V209">
-        <v>0.9999361715708177</v>
+        <v>-6.382842918228882E-05</v>
       </c>
       <c r="W209">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16244,7 +16244,7 @@
         <v>0.7861611360529986</v>
       </c>
       <c r="K210">
-        <v>44.01400972088286</v>
+        <v>-0.05985990279117137</v>
       </c>
       <c r="L210">
         <v>-0.01503276375158508</v>
@@ -16274,13 +16274,13 @@
         <v>0.3125</v>
       </c>
       <c r="U210">
-        <v>0.9998088441442589</v>
+        <v>-0.000191155855741143</v>
       </c>
       <c r="V210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W210">
-        <v>0.999043062200957</v>
+        <v>-0.000956937799043045</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16315,7 +16315,7 @@
         <v>0.7173266343480363</v>
       </c>
       <c r="K211">
-        <v>41.76995919127297</v>
+        <v>-0.08230040808727035</v>
       </c>
       <c r="L211">
         <v>-0.01463792353544908</v>
@@ -16345,13 +16345,13 @@
         <v>0.21875</v>
       </c>
       <c r="U211">
-        <v>0.9998725383978078</v>
+        <v>-0.0001274616021922359</v>
       </c>
       <c r="V211">
-        <v>0.9999361674964891</v>
+        <v>-6.383250351094105E-05</v>
       </c>
       <c r="W211">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16386,7 +16386,7 @@
         <v>0.6567926473315663</v>
       </c>
       <c r="K212">
-        <v>39.64241683407987</v>
+        <v>-0.1035758316592013</v>
       </c>
       <c r="L212">
         <v>-0.01490313415140793</v>
@@ -16416,13 +16416,13 @@
         <v>0.03125</v>
       </c>
       <c r="U212">
-        <v>0.9998087832239148</v>
+        <v>-0.0001912167760852457</v>
       </c>
       <c r="V212">
-        <v>0.9999361634216407</v>
+        <v>-6.383657835928869E-05</v>
       </c>
       <c r="W212">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16457,7 +16457,7 @@
         <v>0.7456224541197115</v>
       </c>
       <c r="K213">
-        <v>42.71384412820908</v>
+        <v>-0.07286155871790923</v>
       </c>
       <c r="L213">
         <v>-0.01514933391643084</v>
@@ -16487,13 +16487,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U213">
-        <v>0.9997768710952442</v>
+        <v>-0.0002231289047558427</v>
       </c>
       <c r="V213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W213">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16528,7 +16528,7 @@
         <v>0.7456224541197115</v>
       </c>
       <c r="K214">
-        <v>42.71384412820908</v>
+        <v>-0.07286155871790923</v>
       </c>
       <c r="L214">
         <v>-0.01531333287539818</v>
@@ -16558,13 +16558,13 @@
         <v>-0.28125</v>
       </c>
       <c r="U214">
-        <v>0.9998087039693926</v>
+        <v>-0.000191296030607413</v>
       </c>
       <c r="V214">
-        <v>1.000063840653728</v>
+        <v>6.384065372833092E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16599,7 +16599,7 @@
         <v>0.7456224541197116</v>
       </c>
       <c r="K215">
-        <v>42.71384412820908</v>
+        <v>-0.07286155871790923</v>
       </c>
       <c r="L215">
         <v>-0.01536145702449191</v>
@@ -16629,13 +16629,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U215">
-        <v>0.9998405561401832</v>
+        <v>-0.0001594438598168102</v>
       </c>
       <c r="V215">
-        <v>0.9999361634216407</v>
+        <v>-6.383657835928869E-05</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16670,7 +16670,7 @@
         <v>0.6176392974840041</v>
       </c>
       <c r="K216">
-        <v>38.18152158176731</v>
+        <v>-0.1181847841823269</v>
       </c>
       <c r="L216">
         <v>-0.01597706165783599</v>
@@ -16700,13 +16700,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U216">
-        <v>0.9997767429992983</v>
+        <v>-0.0002232570007016932</v>
       </c>
       <c r="V216">
-        <v>0.9997446373850868</v>
+        <v>-0.0002553626149132127</v>
       </c>
       <c r="W216">
-        <v>0.9980824544582934</v>
+        <v>-0.001917545541706644</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16741,7 +16741,7 @@
         <v>0.6176392974840041</v>
       </c>
       <c r="K217">
-        <v>38.18152158176731</v>
+        <v>-0.1181847841823269</v>
       </c>
       <c r="L217">
         <v>-0.01683952226414169</v>
@@ -16771,13 +16771,13 @@
         <v>-0.65625</v>
       </c>
       <c r="U217">
-        <v>0.9997766931444795</v>
+        <v>-0.000223306855520522</v>
       </c>
       <c r="V217">
-        <v>0.9997445721583653</v>
+        <v>-0.0002554278416346811</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16812,7 +16812,7 @@
         <v>0.6176392974840041</v>
       </c>
       <c r="K218">
-        <v>38.18152158176731</v>
+        <v>-0.1181847841823269</v>
       </c>
       <c r="L218">
         <v>-0.01773567757449042</v>
@@ -16842,13 +16842,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U218">
-        <v>0.9997128270580726</v>
+        <v>-0.0002871729419273716</v>
       </c>
       <c r="V218">
-        <v>0.9997445068983137</v>
+        <v>-0.000255493101686266</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16883,7 +16883,7 @@
         <v>0.5614393539691697</v>
       </c>
       <c r="K219">
-        <v>35.95652642813145</v>
+        <v>-0.1404347357186855</v>
       </c>
       <c r="L219">
         <v>-0.01887939520137156</v>
@@ -16913,13 +16913,13 @@
         <v>-0.75</v>
       </c>
       <c r="U219">
-        <v>0.9997446618365198</v>
+        <v>-0.0002553381634802232</v>
       </c>
       <c r="V219">
-        <v>0.99961666240736</v>
+        <v>-0.0003833375926399762</v>
       </c>
       <c r="W219">
-        <v>0.9990393852065321</v>
+        <v>-0.0009606147934678733</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16954,7 +16954,7 @@
         <v>0.5614393539691696</v>
       </c>
       <c r="K220">
-        <v>35.95652642813145</v>
+        <v>-0.1404347357186855</v>
       </c>
       <c r="L220">
         <v>-0.02003201758090769</v>
@@ -16984,13 +16984,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U220">
-        <v>0.9997126712000767</v>
+        <v>-0.0002873287999233254</v>
       </c>
       <c r="V220">
-        <v>0.9996165154032981</v>
+        <v>-0.0003834845967018996</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17025,7 +17025,7 @@
         <v>0.5614393539691694</v>
       </c>
       <c r="K221">
-        <v>35.95652642813145</v>
+        <v>-0.1404347357186855</v>
       </c>
       <c r="L221">
         <v>-0.0210441361662774</v>
@@ -17055,13 +17055,13 @@
         <v>-0.6875</v>
       </c>
       <c r="U221">
-        <v>0.9997764578143961</v>
+        <v>-0.0002235421856039421</v>
       </c>
       <c r="V221">
-        <v>0.9996803069053707</v>
+        <v>-0.0003196930946293142</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17096,7 +17096,7 @@
         <v>0.5614393539691694</v>
       </c>
       <c r="K222">
-        <v>35.95652642813145</v>
+        <v>-0.1404347357186855</v>
       </c>
       <c r="L222">
         <v>-0.02183043465864151</v>
@@ -17126,13 +17126,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U222">
-        <v>0.9997444660938448</v>
+        <v>-0.0002555339061551809</v>
       </c>
       <c r="V222">
-        <v>0.9996802046690119</v>
+        <v>-0.0003197953309881374</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17167,7 +17167,7 @@
         <v>0.6731530800895885</v>
       </c>
       <c r="K223">
-        <v>40.2326056175054</v>
+        <v>-0.09767394382494599</v>
       </c>
       <c r="L223">
         <v>-0.0220019298602515</v>
@@ -17197,13 +17197,13 @@
         <v>-0.71875</v>
       </c>
       <c r="U223">
-        <v>0.9998402504872361</v>
+        <v>-0.0001597495127638737</v>
       </c>
       <c r="V223">
-        <v>0.9998080614203454</v>
+        <v>-0.0001919385796546047</v>
       </c>
       <c r="W223">
-        <v>1.000961538461538</v>
+        <v>0.0009615384615384581</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17238,7 +17238,7 @@
         <v>0.9083398719220497</v>
       </c>
       <c r="K224">
-        <v>47.59843282041705</v>
+        <v>-0.02401567179582947</v>
       </c>
       <c r="L224">
         <v>-0.02101226945480897</v>
@@ -17268,13 +17268,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U224">
-        <v>0.9999041349779509</v>
+        <v>-9.586502204905756E-05</v>
       </c>
       <c r="V224">
-        <v>0.9998720163819033</v>
+        <v>-0.0001279836180967386</v>
       </c>
       <c r="W224">
-        <v>1.001921229586936</v>
+        <v>0.001921229586935747</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17309,7 +17309,7 @@
         <v>1.032122393939135</v>
       </c>
       <c r="K225">
-        <v>50.79036563041037</v>
+        <v>0.007903656304103723</v>
       </c>
       <c r="L225">
         <v>-0.01895625787176976</v>
@@ -17339,13 +17339,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17380,7 +17380,7 @@
         <v>1.162419785536066</v>
       </c>
       <c r="K226">
-        <v>53.7555100684533</v>
+        <v>0.03755510068453294</v>
       </c>
       <c r="L226">
         <v>-0.01596658939974998</v>
@@ -17410,13 +17410,13 @@
         <v>-0.125</v>
       </c>
       <c r="U226">
-        <v>1.000031958071011</v>
+        <v>3.195807101086245E-05</v>
       </c>
       <c r="V226">
-        <v>1.000128</v>
+        <v>0.000127999999999906</v>
       </c>
       <c r="W226">
-        <v>1.00095785440613</v>
+        <v>0.0009578544061301653</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17451,7 +17451,7 @@
         <v>1.299574934585467</v>
       </c>
       <c r="K227">
-        <v>56.51370238212025</v>
+        <v>0.06513702382120246</v>
       </c>
       <c r="L227">
         <v>-0.01219400955942476</v>
@@ -17481,13 +17481,13 @@
         <v>0.15625</v>
       </c>
       <c r="U227">
-        <v>1.000095871149176</v>
+        <v>9.587114917564143E-05</v>
       </c>
       <c r="V227">
-        <v>1.000255967236194</v>
+        <v>0.0002559672361936993</v>
       </c>
       <c r="W227">
-        <v>1.000956937799043</v>
+        <v>0.000956937799043045</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17522,7 +17522,7 @@
         <v>1.008401374858452</v>
       </c>
       <c r="K228">
-        <v>50.20915577343309</v>
+        <v>0.002091557734330896</v>
       </c>
       <c r="L228">
         <v>-0.008840776804376617</v>
@@ -17552,13 +17552,13 @@
         <v>0.34375</v>
       </c>
       <c r="U228">
-        <v>1.00003195398626</v>
+        <v>3.195398625965851E-05</v>
       </c>
       <c r="V228">
-        <v>1.000063975433434</v>
+        <v>6.397543343372725E-05</v>
       </c>
       <c r="W228">
-        <v>0.9980879541108987</v>
+        <v>-0.001912045889101321</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17593,7 +17593,7 @@
         <v>1.008401374858452</v>
       </c>
       <c r="K229">
-        <v>50.20915577343309</v>
+        <v>0.002091557734330896</v>
       </c>
       <c r="L229">
         <v>-0.005923136181397748</v>
@@ -17623,13 +17623,13 @@
         <v>0.5625</v>
       </c>
       <c r="U229">
-        <v>1.00006390593047</v>
+        <v>6.390593047034265E-05</v>
       </c>
       <c r="V229">
-        <v>1.000063971340839</v>
+        <v>6.397134083924172E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17664,7 +17664,7 @@
         <v>0.8970512612435879</v>
       </c>
       <c r="K230">
-        <v>47.28661157292805</v>
+        <v>-0.02713388427071955</v>
       </c>
       <c r="L230">
         <v>-0.003782936601684213</v>
@@ -17694,13 +17694,13 @@
         <v>0.75</v>
       </c>
       <c r="U230">
-        <v>0.9999680490766183</v>
+        <v>-3.195092338170724E-05</v>
       </c>
       <c r="V230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W230">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17735,7 +17735,7 @@
         <v>0.897051261243588</v>
       </c>
       <c r="K231">
-        <v>47.28661157292805</v>
+        <v>-0.02713388427071955</v>
       </c>
       <c r="L231">
         <v>-0.002236458522422307</v>
@@ -17765,13 +17765,13 @@
         <v>0.875</v>
       </c>
       <c r="U231">
-        <v>0.9999360961114484</v>
+        <v>-6.390388855159745E-05</v>
       </c>
       <c r="V231">
-        <v>1.000127934497537</v>
+        <v>0.0001279344975371188</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17806,7 +17806,7 @@
         <v>1.141754670719614</v>
       </c>
       <c r="K232">
-        <v>53.30931158123694</v>
+        <v>0.0330931158123694</v>
       </c>
       <c r="L232">
         <v>-0.0004418680690736787</v>
@@ -17836,13 +17836,13 @@
         <v>0.875</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V232">
-        <v>1.00025583626479</v>
+        <v>0.0002558362647904211</v>
       </c>
       <c r="W232">
-        <v>1.001917545541707</v>
+        <v>0.001917545541706644</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17877,7 +17877,7 @@
         <v>1.141754670719615</v>
       </c>
       <c r="K233">
-        <v>53.30931158123694</v>
+        <v>0.0330931158123694</v>
       </c>
       <c r="L233">
         <v>0.001390262798134525</v>
@@ -17907,13 +17907,13 @@
         <v>0.8125</v>
       </c>
       <c r="U233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V233">
-        <v>1.000255770829337</v>
+        <v>0.000255770829336921</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17948,7 +17948,7 @@
         <v>0.8982135005988978</v>
       </c>
       <c r="K234">
-        <v>47.31888695952831</v>
+        <v>-0.02681113040471689</v>
       </c>
       <c r="L234">
         <v>0.002424982244171109</v>
@@ -17978,13 +17978,13 @@
         <v>0.625</v>
       </c>
       <c r="U234">
-        <v>0.9999041380412205</v>
+        <v>-9.586195877953063E-05</v>
       </c>
       <c r="V234">
-        <v>1.000191779070511</v>
+        <v>0.0001917790705108224</v>
       </c>
       <c r="W234">
-        <v>0.9980861244019139</v>
+        <v>-0.00191387559808609</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18019,7 +18019,7 @@
         <v>0.8075532040975096</v>
       </c>
       <c r="K235">
-        <v>44.6765938765665</v>
+        <v>-0.053234061234335</v>
       </c>
       <c r="L235">
         <v>0.002552691759045802</v>
@@ -18049,13 +18049,13 @@
         <v>0.3125</v>
       </c>
       <c r="U235">
-        <v>0.9998721718010994</v>
+        <v>-0.0001278281989005592</v>
       </c>
       <c r="V235">
-        <v>1.000127828198901</v>
+        <v>0.0001278281989007812</v>
       </c>
       <c r="W235">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18090,7 +18090,7 @@
         <v>0.9137995375031666</v>
       </c>
       <c r="K236">
-        <v>47.7479234160205</v>
+        <v>-0.02252076583979501</v>
       </c>
       <c r="L236">
         <v>0.002462634103858669</v>
@@ -18120,13 +18120,13 @@
         <v>0.15625</v>
       </c>
       <c r="U236">
-        <v>0.9999360777294808</v>
+        <v>-6.392227051921218E-05</v>
       </c>
       <c r="V236">
-        <v>1.000191717791411</v>
+        <v>0.000191717791411028</v>
       </c>
       <c r="W236">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18161,7 +18161,7 @@
         <v>0.8218817269916204</v>
       </c>
       <c r="K237">
-        <v>45.11169494787961</v>
+        <v>-0.04888305052120395</v>
       </c>
       <c r="L237">
         <v>0.001888323067934355</v>
@@ -18191,13 +18191,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U237">
-        <v>0.9999041104647447</v>
+        <v>-9.58895352553002E-05</v>
       </c>
       <c r="V237">
-        <v>1.00012778736183</v>
+        <v>0.0001277873618297232</v>
       </c>
       <c r="W237">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18232,7 +18232,7 @@
         <v>0.8218817269916204</v>
       </c>
       <c r="K238">
-        <v>45.11169494787961</v>
+        <v>-0.04888305052120395</v>
       </c>
       <c r="L238">
         <v>0.001050392513350325</v>
@@ -18262,13 +18262,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U238">
-        <v>0.9999360675127067</v>
+        <v>-6.393248729330558E-05</v>
       </c>
       <c r="V238">
-        <v>1.000063885517153</v>
+        <v>6.388551715330593E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18303,7 +18303,7 @@
         <v>0.8218817269916204</v>
       </c>
       <c r="K239">
-        <v>45.11169494787961</v>
+        <v>-0.04888305052120395</v>
       </c>
       <c r="L239">
         <v>0.0001023358105537182</v>
@@ -18333,13 +18333,13 @@
         <v>-0.25</v>
       </c>
       <c r="U239">
-        <v>0.9999040951376233</v>
+        <v>-9.590486237665008E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999361185639454</v>
+        <v>-6.388143605462471E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18374,7 +18374,7 @@
         <v>0.9392033118533271</v>
       </c>
       <c r="K240">
-        <v>48.43243130374585</v>
+        <v>-0.01567568696254151</v>
       </c>
       <c r="L240">
         <v>-0.0005033096478551286</v>
@@ -18404,13 +18404,13 @@
         <v>-0.375</v>
       </c>
       <c r="U240">
-        <v>0.9999680286463329</v>
+        <v>-3.197135366705961E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999361144828468</v>
+        <v>-6.38855171531949E-05</v>
       </c>
       <c r="W240">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18445,7 +18445,7 @@
         <v>1.062699716970913</v>
       </c>
       <c r="K241">
-        <v>51.51984596824855</v>
+        <v>0.01519845968248545</v>
       </c>
       <c r="L241">
         <v>-0.0005119997322372834</v>
@@ -18475,13 +18475,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U241">
-        <v>1.000031972375867</v>
+        <v>3.197237586727297E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999361104012268</v>
+        <v>-6.388959877323686E-05</v>
       </c>
       <c r="W241">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18516,7 +18516,7 @@
         <v>0.9404453767237203</v>
       </c>
       <c r="K242">
-        <v>48.46543932669641</v>
+        <v>-0.01534560673303587</v>
       </c>
       <c r="L242">
         <v>-0.0005057161562768441</v>
@@ -18546,13 +18546,13 @@
         <v>-0.375</v>
       </c>
       <c r="U242">
-        <v>1.000031971353667</v>
+        <v>3.197135366739268E-05</v>
       </c>
       <c r="V242">
-        <v>0.9998083189572551</v>
+        <v>-0.0001916810427449178</v>
       </c>
       <c r="W242">
-        <v>0.9990421455938697</v>
+        <v>-0.0009578544061302763</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18587,7 +18587,7 @@
         <v>0.8388624188303202</v>
       </c>
       <c r="K243">
-        <v>45.6185525485866</v>
+        <v>-0.04381447451413401</v>
       </c>
       <c r="L243">
         <v>-0.0008380222893518935</v>
@@ -18617,13 +18617,13 @@
         <v>-0.25</v>
       </c>
       <c r="U243">
-        <v>0.9999680296684674</v>
+        <v>-3.197033153257145E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998721881390592</v>
+        <v>-0.0001278118609407963</v>
       </c>
       <c r="W243">
-        <v>0.9990412272291467</v>
+        <v>-0.0009587727708533222</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18658,7 +18658,7 @@
         <v>0.8388624188303202</v>
       </c>
       <c r="K244">
-        <v>45.6185525485866</v>
+        <v>-0.04381447451413401</v>
       </c>
       <c r="L244">
         <v>-0.001351236756762787</v>
@@ -18688,13 +18688,13 @@
         <v>-0.25</v>
       </c>
       <c r="U244">
-        <v>0.9999680286463329</v>
+        <v>-3.197135366705961E-05</v>
       </c>
       <c r="V244">
-        <v>0.9998721718010994</v>
+        <v>-0.0001278281989005592</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18729,7 +18729,7 @@
         <v>0.8388624188303202</v>
       </c>
       <c r="K245">
-        <v>45.6185525485866</v>
+        <v>-0.04381447451413401</v>
       </c>
       <c r="L245">
         <v>-0.001936441421722739</v>
@@ -18759,13 +18759,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U245">
-        <v>0.9999680276241327</v>
+        <v>-3.197237586727297E-05</v>
       </c>
       <c r="V245">
-        <v>0.9999360777294808</v>
+        <v>-6.392227051921218E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18800,7 +18800,7 @@
         <v>0.8388624188303202</v>
       </c>
       <c r="K246">
-        <v>45.6185525485866</v>
+        <v>-0.04381447451413401</v>
       </c>
       <c r="L246">
         <v>-0.002520937973458752</v>
@@ -18830,13 +18830,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U246">
-        <v>1.000031973398133</v>
+        <v>3.197339813265643E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999360736431632</v>
+        <v>-6.392635683682979E-05</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18871,7 +18871,7 @@
         <v>0.7406421174088942</v>
       </c>
       <c r="K247">
-        <v>42.54993660106352</v>
+        <v>-0.0745006339893648</v>
       </c>
       <c r="L247">
         <v>-0.003407728896184837</v>
@@ -18901,13 +18901,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247">
-        <v>0.9997442782252909</v>
+        <v>-0.0002557217747091167</v>
       </c>
       <c r="W247">
-        <v>0.9990403071017274</v>
+        <v>-0.0009596928982725794</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18942,7 +18942,7 @@
         <v>0.7406421174088941</v>
       </c>
       <c r="K248">
-        <v>42.54993660106351</v>
+        <v>-0.07450063398936485</v>
       </c>
       <c r="L248">
         <v>-0.004408805803209176</v>
@@ -18972,13 +18972,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V248">
-        <v>0.999744212814938</v>
+        <v>-0.0002557871850620286</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19013,7 +19013,7 @@
         <v>0.655588179100334</v>
       </c>
       <c r="K249">
-        <v>39.59850567769747</v>
+        <v>-0.1040149432230252</v>
       </c>
       <c r="L249">
         <v>-0.005748506277690681</v>
@@ -19043,13 +19043,13 @@
         <v>-0.25</v>
       </c>
       <c r="U249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V249">
-        <v>0.9998081105283356</v>
+        <v>-0.0001918894716643749</v>
       </c>
       <c r="W249">
-        <v>0.9990393852065321</v>
+        <v>-0.0009606147934678733</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19084,7 +19084,7 @@
         <v>0.5848858773762121</v>
       </c>
       <c r="K250">
-        <v>36.9039743318613</v>
+        <v>-0.130960256681387</v>
       </c>
       <c r="L250">
         <v>-0.007536381330562153</v>
@@ -19114,13 +19114,13 @@
         <v>-0.375</v>
       </c>
       <c r="U250">
-        <v>0.9999680276241327</v>
+        <v>-3.197237586727297E-05</v>
       </c>
       <c r="V250">
-        <v>0.9998080736996993</v>
+        <v>-0.0001919263003007377</v>
       </c>
       <c r="W250">
-        <v>0.9990384615384615</v>
+        <v>-0.0009615384615384581</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19155,7 +19155,7 @@
         <v>0.8119292496383763</v>
       </c>
       <c r="K251">
-        <v>44.81020712041713</v>
+        <v>-0.05189792879582877</v>
       </c>
       <c r="L251">
         <v>-0.008756276291918828</v>
@@ -19185,13 +19185,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U251">
-        <v>1.000031973398133</v>
+        <v>3.197339813265643E-05</v>
       </c>
       <c r="V251">
-        <v>0.9998720245712824</v>
+        <v>-0.0001279754287175638</v>
       </c>
       <c r="W251">
-        <v>1.001924927815207</v>
+        <v>0.001924927815206923</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19226,7 +19226,7 @@
         <v>0.8119292496383763</v>
       </c>
       <c r="K252">
-        <v>44.81020712041713</v>
+        <v>-0.05189792879582877</v>
       </c>
       <c r="L252">
         <v>-0.009522530380611129</v>
@@ -19256,13 +19256,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U252">
-        <v>1.000031972375867</v>
+        <v>3.197237586727297E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999360040957379</v>
+        <v>-6.399590426209301E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19297,7 +19297,7 @@
         <v>0.9377150514456696</v>
       </c>
       <c r="K253">
-        <v>48.39282487618957</v>
+        <v>-0.01607175123810428</v>
       </c>
       <c r="L253">
         <v>-0.009581233697033582</v>
@@ -19327,13 +19327,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U253">
-        <v>1.000031971353667</v>
+        <v>3.197135366739268E-05</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W253">
-        <v>1.000960614793468</v>
+        <v>0.0009606147934677622</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19368,7 +19368,7 @@
         <v>0.9377150514456695</v>
       </c>
       <c r="K254">
-        <v>48.39282487618956</v>
+        <v>-0.01607175123810434</v>
       </c>
       <c r="L254">
         <v>-0.009172555808758408</v>
@@ -19398,13 +19398,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U254">
-        <v>0.9999680296684674</v>
+        <v>-3.197033153257145E-05</v>
       </c>
       <c r="V254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19439,7 +19439,7 @@
         <v>0.9377150514456696</v>
       </c>
       <c r="K255">
-        <v>48.39282487618957</v>
+        <v>-0.01607175123810428</v>
       </c>
       <c r="L255">
         <v>-0.008473275649309451</v>
@@ -19469,13 +19469,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U255">
-        <v>0.9999360572926659</v>
+        <v>-6.394270733411922E-05</v>
       </c>
       <c r="V255">
-        <v>0.9999359999999998</v>
+        <v>-6.400000000017503E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19510,7 +19510,7 @@
         <v>1.084425419496165</v>
       </c>
       <c r="K256">
-        <v>52.02514848232304</v>
+        <v>0.02025148482323036</v>
       </c>
       <c r="L256">
         <v>-0.007262215693256547</v>
@@ -19540,13 +19540,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U256">
-        <v>0.9999360532037346</v>
+        <v>-6.394679626542388E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999359959037379</v>
+        <v>-6.400409626206027E-05</v>
       </c>
       <c r="W256">
-        <v>1.000959692898272</v>
+        <v>0.0009596928982724684</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19581,7 +19581,7 @@
         <v>1.238857385865107</v>
       </c>
       <c r="K257">
-        <v>55.33435911043549</v>
+        <v>0.05334359110435494</v>
       </c>
       <c r="L257">
         <v>-0.005442310296027895</v>
@@ -19611,13 +19611,13 @@
         <v>0.03125</v>
       </c>
       <c r="U257">
-        <v>0.9999360491142802</v>
+        <v>-6.39508857197546E-05</v>
       </c>
       <c r="V257">
-        <v>1.000064008193049</v>
+        <v>6.400819304874794E-05</v>
       </c>
       <c r="W257">
-        <v>1.000958772770853</v>
+        <v>0.0009587727708533222</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19652,7 +19652,7 @@
         <v>1.238857385865107</v>
       </c>
       <c r="K258">
-        <v>55.33435911043549</v>
+        <v>0.05334359110435494</v>
       </c>
       <c r="L258">
         <v>-0.003349560732456114</v>
@@ -19682,13 +19682,13 @@
         <v>0.3125</v>
       </c>
       <c r="U258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V258">
-        <v>1.000128008192524</v>
+        <v>0.0001280081925243426</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19723,7 +19723,7 @@
         <v>1.581088890283815</v>
       </c>
       <c r="K259">
-        <v>61.25666172271809</v>
+        <v>0.112566617227181</v>
       </c>
       <c r="L259">
         <v>-0.0005138100113601588</v>
@@ -19753,13 +19753,13 @@
         <v>0.5</v>
       </c>
       <c r="U259">
-        <v>1.000063954975697</v>
+        <v>6.395497569711139E-05</v>
       </c>
       <c r="V259">
-        <v>1.000255983617049</v>
+        <v>0.0002559836170485941</v>
       </c>
       <c r="W259">
-        <v>1.001915708812261</v>
+        <v>0.001915708812260553</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19794,7 +19794,7 @@
         <v>1.581088890283815</v>
       </c>
       <c r="K260">
-        <v>61.25666172271809</v>
+        <v>0.112566617227181</v>
       </c>
       <c r="L260">
         <v>0.002593202321391481</v>
@@ -19824,13 +19824,13 @@
         <v>0.6875</v>
       </c>
       <c r="U260">
-        <v>1.00009592632858</v>
+        <v>9.592632857957639E-05</v>
       </c>
       <c r="V260">
-        <v>1.000255918106206</v>
+        <v>0.0002559181062060656</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19865,7 +19865,7 @@
         <v>1.770690831790025</v>
       </c>
       <c r="K261">
-        <v>63.90791825178334</v>
+        <v>0.1390791825178334</v>
       </c>
       <c r="L261">
         <v>0.006006307882777818</v>
@@ -19895,13 +19895,13 @@
         <v>0.84375</v>
       </c>
       <c r="U261">
-        <v>1.000127889503469</v>
+        <v>0.0001278895034690919</v>
       </c>
       <c r="V261">
-        <v>1.000319815786107</v>
+        <v>0.0003198157861070694</v>
       </c>
       <c r="W261">
-        <v>1.000956022944551</v>
+        <v>0.0009560229445506607</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19936,7 +19936,7 @@
         <v>1.770690831790024</v>
       </c>
       <c r="K262">
-        <v>63.90791825178334</v>
+        <v>0.1390791825178334</v>
       </c>
       <c r="L262">
         <v>0.009365075981215222</v>
@@ -19966,13 +19966,13 @@
         <v>1</v>
       </c>
       <c r="U262">
-        <v>1.000063936574918</v>
+        <v>6.393657491754468E-05</v>
       </c>
       <c r="V262">
-        <v>1.000383656244005</v>
+        <v>0.0003836562440053815</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20007,7 +20007,7 @@
         <v>2.19086133928301</v>
       </c>
       <c r="K263">
-        <v>68.66049966857221</v>
+        <v>0.1866049966857222</v>
       </c>
       <c r="L263">
         <v>0.01314097303504251</v>
@@ -20037,13 +20037,13 @@
         <v>1.1875</v>
       </c>
       <c r="U263">
-        <v>1.000127864974587</v>
+        <v>0.0001278649745868332</v>
       </c>
       <c r="V263">
-        <v>1.000511345477788</v>
+        <v>0.0005113454777883053</v>
       </c>
       <c r="W263">
-        <v>1.001910219675263</v>
+        <v>0.001910219675262725</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20078,7 +20078,7 @@
         <v>2.412003711647739</v>
       </c>
       <c r="K264">
-        <v>70.69170831830439</v>
+        <v>0.2069170831830439</v>
       </c>
       <c r="L264">
         <v>0.01722952813330362</v>
@@ -20108,13 +20108,13 @@
         <v>1.34375</v>
       </c>
       <c r="U264">
-        <v>1.000223735097644</v>
+        <v>0.0002237350976443953</v>
       </c>
       <c r="V264">
-        <v>1.000638855171533</v>
+        <v>0.0006388551715326152</v>
       </c>
       <c r="W264">
-        <v>1.00095328884652</v>
+        <v>0.0009532888465204614</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20149,7 +20149,7 @@
         <v>1.956554198819253</v>
       </c>
       <c r="K265">
-        <v>66.17684193310693</v>
+        <v>0.1617684193310693</v>
       </c>
       <c r="L265">
         <v>0.02083376029620428</v>
@@ -20179,13 +20179,13 @@
         <v>1.375</v>
       </c>
       <c r="U265">
-        <v>1.000223685051447</v>
+        <v>0.0002236850514474309</v>
       </c>
       <c r="V265">
-        <v>1.000638447296176</v>
+        <v>0.0006384472961755705</v>
       </c>
       <c r="W265">
-        <v>0.9990476190476191</v>
+        <v>-0.0009523809523809268</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20220,7 +20220,7 @@
         <v>1.632142355864011</v>
       </c>
       <c r="K266">
-        <v>62.00813387725201</v>
+        <v>0.1200813387725201</v>
       </c>
       <c r="L266">
         <v>0.02348885808987084</v>
@@ -20250,13 +20250,13 @@
         <v>1.34375</v>
       </c>
       <c r="U266">
-        <v>1.000159739305454</v>
+        <v>0.0001597393054535434</v>
       </c>
       <c r="V266">
-        <v>1.00044662795891</v>
+        <v>0.0004466279589101507</v>
       </c>
       <c r="W266">
-        <v>0.9990467111534795</v>
+        <v>-0.0009532888465204614</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20291,7 +20291,7 @@
         <v>1.632142355864011</v>
       </c>
       <c r="K267">
-        <v>62.00813387725201</v>
+        <v>0.1200813387725201</v>
       </c>
       <c r="L267">
         <v>0.02531362655924385</v>
@@ -20321,13 +20321,13 @@
         <v>1.25</v>
       </c>
       <c r="U267">
-        <v>1.00019165655146</v>
+        <v>0.0001916565514599178</v>
       </c>
       <c r="V267">
-        <v>1.000446428571429</v>
+        <v>0.0004464285714285143</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20362,7 +20362,7 @@
         <v>1.632142355864011</v>
       </c>
       <c r="K268">
-        <v>62.00813387725201</v>
+        <v>0.1200813387725201</v>
       </c>
       <c r="L268">
         <v>0.02642647042506911</v>
@@ -20392,13 +20392,13 @@
         <v>1.15625</v>
       </c>
       <c r="U268">
-        <v>1.000191619826265</v>
+        <v>0.0001916198262648106</v>
       </c>
       <c r="V268">
-        <v>1.000382482310193</v>
+        <v>0.0003824823101932218</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20433,7 +20433,7 @@
         <v>1.632142355864011</v>
       </c>
       <c r="K269">
-        <v>62.00813387725201</v>
+        <v>0.1200813387725201</v>
       </c>
       <c r="L269">
         <v>0.0269405686895156</v>
@@ -20463,13 +20463,13 @@
         <v>1.03125</v>
       </c>
       <c r="U269">
-        <v>1.000191583115142</v>
+        <v>0.0001915831151415581</v>
       </c>
       <c r="V269">
-        <v>1.000382336073408</v>
+        <v>0.0003823360734083181</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20504,7 +20504,7 @@
         <v>1.632142355864011</v>
       </c>
       <c r="K270">
-        <v>62.00813387725201</v>
+        <v>0.1200813387725201</v>
       </c>
       <c r="L270">
         <v>0.02696087299308618</v>
@@ -20534,13 +20534,13 @@
         <v>0.90625</v>
       </c>
       <c r="U270">
-        <v>1.000159622015068</v>
+        <v>0.0001596220150681393</v>
       </c>
       <c r="V270">
-        <v>1.000382189948404</v>
+        <v>0.0003821899484044433</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20575,7 +20575,7 @@
         <v>1.846424898428938</v>
       </c>
       <c r="K271">
-        <v>64.86821062618085</v>
+        <v>0.1486821062618086</v>
       </c>
       <c r="L271">
         <v>0.02693115854478442</v>
@@ -20605,13 +20605,13 @@
         <v>0.6875</v>
       </c>
       <c r="U271">
-        <v>1.000159596539947</v>
+        <v>0.0001595965399470156</v>
       </c>
       <c r="V271">
-        <v>1.000382043935053</v>
+        <v>0.0003820439350525895</v>
       </c>
       <c r="W271">
-        <v>1.000954198473282</v>
+        <v>0.0009541984732823749</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20646,7 +20646,7 @@
         <v>2.748667182912841</v>
       </c>
       <c r="K272">
-        <v>73.3238521531547</v>
+        <v>0.233238521531547</v>
       </c>
       <c r="L272">
         <v>0.02816909392312059</v>
@@ -20676,13 +20676,13 @@
         <v>0.5625</v>
       </c>
       <c r="U272">
-        <v>1.000319142145912</v>
+        <v>0.0003191421459116661</v>
       </c>
       <c r="V272">
-        <v>1.000572847049838</v>
+        <v>0.0005728470498376215</v>
       </c>
       <c r="W272">
-        <v>1.003813155386082</v>
+        <v>0.003813155386082068</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20717,7 +20717,7 @@
         <v>2.986099363040183</v>
       </c>
       <c r="K273">
-        <v>74.91281804783452</v>
+        <v>0.2491281804783452</v>
       </c>
       <c r="L273">
         <v>0.03034040534020924</v>
@@ -20747,13 +20747,13 @@
         <v>0.5625</v>
       </c>
       <c r="U273">
-        <v>1.000382848392037</v>
+        <v>0.0003828483920369496</v>
       </c>
       <c r="V273">
-        <v>1.000636132315522</v>
+        <v>0.0006361323155217313</v>
       </c>
       <c r="W273">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20788,7 +20788,7 @@
         <v>2.389015930647888</v>
       </c>
       <c r="K274">
-        <v>70.49290943259665</v>
+        <v>0.2049290943259665</v>
       </c>
       <c r="L274">
         <v>0.03247800489517232</v>
@@ -20818,13 +20818,13 @@
         <v>0.59375</v>
       </c>
       <c r="U274">
-        <v>1.000350810052302</v>
+        <v>0.0003508100523024194</v>
       </c>
       <c r="V274">
-        <v>1.000445009535919</v>
+        <v>0.00044500953591875</v>
       </c>
       <c r="W274">
-        <v>0.9990512333965844</v>
+        <v>-0.0009487666034155851</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20859,7 +20859,7 @@
         <v>2.389015930647888</v>
       </c>
       <c r="K275">
-        <v>70.49290943259665</v>
+        <v>0.2049290943259665</v>
       </c>
       <c r="L275">
         <v>0.03433933623116334</v>
@@ -20889,13 +20889,13 @@
         <v>0.6875</v>
       </c>
       <c r="U275">
-        <v>1.000350687027768</v>
+        <v>0.0003506870277680818</v>
       </c>
       <c r="V275">
-        <v>1.000444811590519</v>
+        <v>0.000444811590518901</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20930,7 +20930,7 @@
         <v>1.955715408200795</v>
       </c>
       <c r="K276">
-        <v>66.16724339476511</v>
+        <v>0.1616724339476511</v>
       </c>
       <c r="L276">
         <v>0.03544027144947481</v>
@@ -20960,13 +20960,13 @@
         <v>0.75</v>
       </c>
       <c r="U276">
-        <v>1.000318694626809</v>
+        <v>0.0003186946268085578</v>
       </c>
       <c r="V276">
-        <v>1.000317581300813</v>
+        <v>0.0003175813008131634</v>
       </c>
       <c r="W276">
-        <v>0.9990503323836657</v>
+        <v>-0.0009496676163343043</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21001,7 +21001,7 @@
         <v>1.955715408200795</v>
       </c>
       <c r="K277">
-        <v>66.16724339476511</v>
+        <v>0.1616724339476511</v>
       </c>
       <c r="L277">
         <v>0.03588079677092708</v>
@@ -21031,13 +21031,13 @@
         <v>0.84375</v>
       </c>
       <c r="U277">
-        <v>1.000350452402192</v>
+        <v>0.000350452402192003</v>
       </c>
       <c r="V277">
-        <v>1.000317480474951</v>
+        <v>0.0003174804749506155</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21072,7 +21072,7 @@
         <v>1.955715408200794</v>
       </c>
       <c r="K278">
-        <v>66.16724339476511</v>
+        <v>0.1616724339476511</v>
       </c>
       <c r="L278">
         <v>0.03576213087038771</v>
@@ -21102,13 +21102,13 @@
         <v>0.9375</v>
       </c>
       <c r="U278">
-        <v>1.000350329628332</v>
+        <v>0.0003503296283320356</v>
       </c>
       <c r="V278">
-        <v>1.000190427827853</v>
+        <v>0.0001904278278532789</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21143,7 +21143,7 @@
         <v>2.167258745290328</v>
       </c>
       <c r="K279">
-        <v>68.42695591299615</v>
+        <v>0.1842695591299615</v>
       </c>
       <c r="L279">
         <v>0.03552960974988754</v>
@@ -21173,13 +21173,13 @@
         <v>1.0625</v>
       </c>
       <c r="U279">
-        <v>1.00041388092964</v>
+        <v>0.0004138809296403423</v>
       </c>
       <c r="V279">
-        <v>1.000190391572</v>
+        <v>0.0001903915719998484</v>
       </c>
       <c r="W279">
-        <v>1.000950570342205</v>
+        <v>0.0009505703422052481</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21214,7 +21214,7 @@
         <v>2.389935942226679</v>
       </c>
       <c r="K280">
-        <v>70.50091750869043</v>
+        <v>0.2050091750869043</v>
       </c>
       <c r="L280">
         <v>0.03546067158502508</v>
@@ -21244,13 +21244,13 @@
         <v>1</v>
       </c>
       <c r="U280">
-        <v>1.000477357349712</v>
+        <v>0.0004773573497121042</v>
       </c>
       <c r="V280">
-        <v>1.000317258883249</v>
+        <v>0.0003172588832487389</v>
       </c>
       <c r="W280">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21285,7 +21285,7 @@
         <v>1.627141574273408</v>
       </c>
       <c r="K281">
-        <v>61.93581610551113</v>
+        <v>0.1193581610551113</v>
       </c>
       <c r="L281">
         <v>0.03467008372100386</v>
@@ -21315,13 +21315,13 @@
         <v>0.78125</v>
       </c>
       <c r="U281">
-        <v>1.00034989503149</v>
+        <v>0.0003498950314904103</v>
       </c>
       <c r="V281">
-        <v>1.000253726609578</v>
+        <v>0.0002537266095781199</v>
       </c>
       <c r="W281">
-        <v>0.9981024667931688</v>
+        <v>-0.00189753320683117</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21356,7 +21356,7 @@
         <v>1.627141574273408</v>
       </c>
       <c r="K282">
-        <v>61.93581610551112</v>
+        <v>0.1193581610551112</v>
       </c>
       <c r="L282">
         <v>0.03336659443696688</v>
@@ -21386,13 +21386,13 @@
         <v>0.59375</v>
       </c>
       <c r="U282">
-        <v>1.000349772647779</v>
+        <v>0.0003497726477790231</v>
       </c>
       <c r="V282">
-        <v>1.000253662248716</v>
+        <v>0.0002536622487159246</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21427,7 +21427,7 @@
         <v>1.80396671439625</v>
       </c>
       <c r="K283">
-        <v>64.33623855569483</v>
+        <v>0.1433623855569484</v>
       </c>
       <c r="L283">
         <v>0.03206144685355922</v>
@@ -21457,13 +21457,13 @@
         <v>0.4375</v>
       </c>
       <c r="U283">
-        <v>1.00034965034965</v>
+        <v>0.0003496503496502879</v>
       </c>
       <c r="V283">
-        <v>1.000316997400621</v>
+        <v>0.0003169974006211884</v>
       </c>
       <c r="W283">
-        <v>1.000950570342205</v>
+        <v>0.0009505703422052481</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21498,7 +21498,7 @@
         <v>1.80396671439625</v>
       </c>
       <c r="K284">
-        <v>64.33623855569483</v>
+        <v>0.1433623855569484</v>
       </c>
       <c r="L284">
         <v>0.03072148924380238</v>
@@ -21528,13 +21528,13 @@
         <v>0.34375</v>
       </c>
       <c r="U284">
-        <v>1.000349528137015</v>
+        <v>0.0003495281370151648</v>
       </c>
       <c r="V284">
-        <v>1.000316896945113</v>
+        <v>0.0003168969451134984</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21569,7 +21569,7 @@
         <v>2.587679246796656</v>
       </c>
       <c r="K285">
-        <v>72.12682820258044</v>
+        <v>0.2212682820258044</v>
       </c>
       <c r="L285">
         <v>0.03072228211975054</v>
@@ -21599,13 +21599,13 @@
         <v>0.375</v>
       </c>
       <c r="U285">
-        <v>1.000476462740614</v>
+        <v>0.0004764627406137478</v>
       </c>
       <c r="V285">
-        <v>1.000570233795856</v>
+        <v>0.0005702337958561898</v>
       </c>
       <c r="W285">
-        <v>1.003798670465337</v>
+        <v>0.003798670465337217</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21640,7 +21640,7 @@
         <v>2.793919386902026</v>
       </c>
       <c r="K286">
-        <v>73.64203352732376</v>
+        <v>0.2364203352732376</v>
       </c>
       <c r="L286">
         <v>0.03176885291864983</v>
@@ -21670,13 +21670,13 @@
         <v>0.4375</v>
       </c>
       <c r="U286">
-        <v>1.000476235831984</v>
+        <v>0.0004762358319840843</v>
       </c>
       <c r="V286">
-        <v>1.00056990881459</v>
+        <v>0.0005699088145898479</v>
       </c>
       <c r="W286">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21711,7 +21711,7 @@
         <v>2.793919386902027</v>
       </c>
       <c r="K287">
-        <v>73.64203352732376</v>
+        <v>0.2364203352732376</v>
       </c>
       <c r="L287">
         <v>0.03326488029743297</v>
@@ -21741,13 +21741,13 @@
         <v>0.46875</v>
       </c>
       <c r="U287">
-        <v>1.00044427519675</v>
+        <v>0.0004442751967501657</v>
       </c>
       <c r="V287">
-        <v>1.000316435668628</v>
+        <v>0.0003164356686284897</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21782,7 +21782,7 @@
         <v>2.27421390772363</v>
       </c>
       <c r="K288">
-        <v>69.45831799073746</v>
+        <v>0.1945831799073745</v>
       </c>
       <c r="L288">
         <v>0.03446841702152016</v>
@@ -21812,13 +21812,13 @@
         <v>0.53125</v>
       </c>
       <c r="U288">
-        <v>1.00041235805367</v>
+        <v>0.0004123580536701255</v>
       </c>
       <c r="V288">
-        <v>1.000189801341263</v>
+        <v>0.0001898013412628963</v>
       </c>
       <c r="W288">
-        <v>0.999054820415879</v>
+        <v>-0.000945179584120992</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21853,7 +21853,7 @@
         <v>2.470017122984522</v>
       </c>
       <c r="K289">
-        <v>71.18169840211303</v>
+        <v>0.2118169840211303</v>
       </c>
       <c r="L289">
         <v>0.0356383041962679</v>
@@ -21883,13 +21883,13 @@
         <v>0.78125</v>
       </c>
       <c r="U289">
-        <v>1.000380481308856</v>
+        <v>0.0003804813088557069</v>
       </c>
       <c r="V289">
-        <v>1.00031627553925</v>
+        <v>0.0003162755392496219</v>
       </c>
       <c r="W289">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21924,7 +21924,7 @@
         <v>1.749034749276418</v>
       </c>
       <c r="K290">
-        <v>63.62359550881584</v>
+        <v>0.1362359550881584</v>
       </c>
       <c r="L290">
         <v>0.03588922637666331</v>
@@ -21954,13 +21954,13 @@
         <v>0.9375</v>
       </c>
       <c r="U290">
-        <v>1.000316947164908</v>
+        <v>0.0003169471649075994</v>
       </c>
       <c r="V290">
-        <v>1.000189705324396</v>
+        <v>0.0001897053243962166</v>
       </c>
       <c r="W290">
-        <v>0.998109640831758</v>
+        <v>-0.001890359168241984</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21995,7 +21995,7 @@
         <v>1.749034749276418</v>
       </c>
       <c r="K291">
-        <v>63.62359550881585</v>
+        <v>0.1362359550881584</v>
       </c>
       <c r="L291">
         <v>0.0354366625342089</v>
@@ -22025,13 +22025,13 @@
         <v>1.03125</v>
       </c>
       <c r="U291">
-        <v>1.000285162067108</v>
+        <v>0.0002851620671080468</v>
       </c>
       <c r="V291">
-        <v>1.000252892457483</v>
+        <v>0.0002528924574825009</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22066,7 +22066,7 @@
         <v>1.749034749276418</v>
       </c>
       <c r="K292">
-        <v>63.62359550881585</v>
+        <v>0.1362359550881584</v>
       </c>
       <c r="L292">
         <v>0.03445772133776571</v>
@@ -22096,13 +22096,13 @@
         <v>1.09375</v>
       </c>
       <c r="U292">
-        <v>1.000285080772886</v>
+        <v>0.000285080772885804</v>
       </c>
       <c r="V292">
-        <v>1.000252828519057</v>
+        <v>0.0002528285190568358</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22137,7 +22137,7 @@
         <v>1.91925995664715</v>
       </c>
       <c r="K293">
-        <v>65.74474302218266</v>
+        <v>0.1574474302218266</v>
       </c>
       <c r="L293">
         <v>0.03344303356460104</v>
@@ -22167,13 +22167,13 @@
         <v>0.9375</v>
       </c>
       <c r="U293">
-        <v>1.000253332911112</v>
+        <v>0.0002533329111118476</v>
       </c>
       <c r="V293">
-        <v>1.000315955766193</v>
+        <v>0.0003159557661926993</v>
       </c>
       <c r="W293">
-        <v>1.00094696969697</v>
+        <v>0.0009469696969697239</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22208,7 +22208,7 @@
         <v>2.098444385458446</v>
       </c>
       <c r="K294">
-        <v>67.72573990053915</v>
+        <v>0.1772573990053915</v>
       </c>
       <c r="L294">
         <v>0.03269531253039804</v>
@@ -22238,13 +22238,13 @@
         <v>0.75</v>
       </c>
       <c r="U294">
-        <v>1.000253268749802</v>
+        <v>0.000253268749802027</v>
       </c>
       <c r="V294">
-        <v>1.000315855969678</v>
+        <v>0.0003158559696778696</v>
       </c>
       <c r="W294">
-        <v>1.000946073793756</v>
+        <v>0.0009460737937558861</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22279,7 +22279,7 @@
         <v>1.523669838647725</v>
       </c>
       <c r="K295">
-        <v>60.37516537678966</v>
+        <v>0.1037516537678966</v>
       </c>
       <c r="L295">
         <v>0.03134539421081231</v>
@@ -22309,13 +22309,13 @@
         <v>0.53125</v>
       </c>
       <c r="U295">
-        <v>1.000221554043361</v>
+        <v>0.0002215540433612162</v>
       </c>
       <c r="V295">
-        <v>1.000126302494474</v>
+        <v>0.0001263024944742064</v>
       </c>
       <c r="W295">
-        <v>0.998109640831758</v>
+        <v>-0.001890359168241984</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22350,7 +22350,7 @@
         <v>1.523669838647725</v>
       </c>
       <c r="K296">
-        <v>60.37516537678966</v>
+        <v>0.1037516537678966</v>
       </c>
       <c r="L296">
         <v>0.02960281230081137</v>
@@ -22380,13 +22380,13 @@
         <v>0.40625</v>
       </c>
       <c r="U296">
-        <v>1.000253148534903</v>
+        <v>0.0002531485349028806</v>
       </c>
       <c r="V296">
-        <v>1.000252573088337</v>
+        <v>0.0002525730883373711</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22421,7 +22421,7 @@
         <v>1.322919504321194</v>
       </c>
       <c r="K297">
-        <v>56.95072523435455</v>
+        <v>0.06950725234354549</v>
       </c>
       <c r="L297">
         <v>0.02728009595225818</v>
@@ -22451,13 +22451,13 @@
         <v>0.125</v>
       </c>
       <c r="U297">
-        <v>1.000221448908573</v>
+        <v>0.0002214489085732296</v>
       </c>
       <c r="V297">
-        <v>1.000189381983461</v>
+        <v>0.0001893819834606347</v>
       </c>
       <c r="W297">
-        <v>0.9990530303030303</v>
+        <v>-0.0009469696969697239</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22492,7 +22492,7 @@
         <v>1.461608435503223</v>
       </c>
       <c r="K298">
-        <v>59.37615481092664</v>
+        <v>0.0937615481092664</v>
       </c>
       <c r="L298">
         <v>0.02500076123257248</v>
@@ -22522,13 +22522,13 @@
         <v>0</v>
       </c>
       <c r="U298">
-        <v>1.00025302843407</v>
+        <v>0.0002530284340702682</v>
       </c>
       <c r="V298">
-        <v>1.000189346124716</v>
+        <v>0.0001893461247159944</v>
       </c>
       <c r="W298">
-        <v>1.000947867298578</v>
+        <v>0.0009478672985780978</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22563,7 +22563,7 @@
         <v>1.275412998110017</v>
       </c>
       <c r="K299">
-        <v>56.05193427168558</v>
+        <v>0.06051934271685577</v>
       </c>
       <c r="L299">
         <v>0.02245644377411894</v>
@@ -22593,13 +22593,13 @@
         <v>-0.125</v>
       </c>
       <c r="U299">
-        <v>1.000221343873518</v>
+        <v>0.0002213438735179096</v>
       </c>
       <c r="V299">
-        <v>1.000126206853032</v>
+        <v>0.000126206853032107</v>
       </c>
       <c r="W299">
-        <v>0.9990530303030303</v>
+        <v>-0.0009469696969697239</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22634,7 +22634,7 @@
         <v>1.275412998110017</v>
       </c>
       <c r="K300">
-        <v>56.05193427168558</v>
+        <v>0.06051934271685577</v>
       </c>
       <c r="L300">
         <v>0.01983228507452153</v>
@@ -22664,13 +22664,13 @@
         <v>-0.25</v>
       </c>
       <c r="U300">
-        <v>1.000221294891249</v>
+        <v>0.0002212948912494461</v>
       </c>
       <c r="V300">
-        <v>0.9998738090731277</v>
+        <v>-0.0001261909268722716</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22705,7 +22705,7 @@
         <v>1.275412998110017</v>
       </c>
       <c r="K301">
-        <v>56.05193427168558</v>
+        <v>0.06051934271685577</v>
       </c>
       <c r="L301">
         <v>0.01725498251257623</v>
@@ -22735,13 +22735,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U301">
-        <v>1.000189639369133</v>
+        <v>0.0001896393691329656</v>
       </c>
       <c r="V301">
-        <v>0.9998106897204517</v>
+        <v>-0.0001893102795482715</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22776,7 +22776,7 @@
         <v>1.423995332721882</v>
       </c>
       <c r="K302">
-        <v>58.74579515476586</v>
+        <v>0.08745795154765856</v>
       </c>
       <c r="L302">
         <v>0.01515296198162171</v>
@@ -22806,13 +22806,13 @@
         <v>-0.375</v>
       </c>
       <c r="U302">
-        <v>1.000094801706431</v>
+        <v>9.480170643083596E-05</v>
       </c>
       <c r="V302">
-        <v>0.9998737692501894</v>
+        <v>-0.0001262307498105519</v>
       </c>
       <c r="W302">
-        <v>1.000947867298578</v>
+        <v>0.0009478672985780978</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22847,7 +22847,7 @@
         <v>1.231401164450489</v>
       </c>
       <c r="K303">
-        <v>55.1851089830249</v>
+        <v>0.051851089830249</v>
       </c>
       <c r="L303">
         <v>0.01307225658425665</v>
@@ -22877,13 +22877,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U303">
-        <v>1.000031597573306</v>
+        <v>3.159757330628565E-05</v>
       </c>
       <c r="V303">
-        <v>0.9998737533139754</v>
+        <v>-0.000126246686024567</v>
       </c>
       <c r="W303">
-        <v>0.9990530303030303</v>
+        <v>-0.0009469696969697239</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22918,7 +22918,7 @@
         <v>0.9584864582589324</v>
       </c>
       <c r="K304">
-        <v>48.94016265555462</v>
+        <v>-0.01059837344445375</v>
       </c>
       <c r="L304">
         <v>0.01039903838589075</v>
@@ -22948,13 +22948,13 @@
         <v>-0.40625</v>
       </c>
       <c r="U304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V304">
-        <v>0.9996843434343435</v>
+        <v>-0.0003156565656564636</v>
       </c>
       <c r="W304">
-        <v>0.9981042654028436</v>
+        <v>-0.001895734597156418</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -22989,7 +22989,7 @@
         <v>0.9584864582589324</v>
       </c>
       <c r="K305">
-        <v>48.94016265555462</v>
+        <v>-0.01059837344445375</v>
       </c>
       <c r="L305">
         <v>0.007499639858820568</v>
@@ -23019,13 +23019,13 @@
         <v>-0.375</v>
       </c>
       <c r="U305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V305">
-        <v>0.9998105462582886</v>
+        <v>-0.0001894537417114206</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23060,7 +23060,7 @@
         <v>0.9584864582589326</v>
       </c>
       <c r="K306">
-        <v>48.94016265555463</v>
+        <v>-0.01059837344445369</v>
       </c>
       <c r="L306">
         <v>0.004620783348602764</v>
@@ -23090,13 +23090,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U306">
-        <v>1.000031596574931</v>
+        <v>3.159657493134738E-05</v>
       </c>
       <c r="V306">
-        <v>0.999810510358767</v>
+        <v>-0.0001894896412329983</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23131,7 +23131,7 @@
         <v>1.087735272385743</v>
       </c>
       <c r="K307">
-        <v>52.101206832739</v>
+        <v>0.02101206832739</v>
       </c>
       <c r="L307">
         <v>0.002266164874114172</v>
@@ -23161,13 +23161,13 @@
         <v>-0.46875</v>
       </c>
       <c r="U307">
-        <v>1.000063191153238</v>
+        <v>6.319115323849545E-05</v>
       </c>
       <c r="V307">
-        <v>0.9998736496304252</v>
+        <v>-0.000126350369574757</v>
       </c>
       <c r="W307">
-        <v>1.000949667616334</v>
+        <v>0.0009496676163343043</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23202,7 +23202,7 @@
         <v>1.223786655677122</v>
       </c>
       <c r="K308">
-        <v>55.03165749074479</v>
+        <v>0.0503165749074479</v>
       </c>
       <c r="L308">
         <v>0.000716004388304719</v>
@@ -23232,13 +23232,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U308">
-        <v>1.000094780740554</v>
+        <v>9.478074055357943E-05</v>
       </c>
       <c r="V308">
-        <v>0.9998736336639918</v>
+        <v>-0.0001263663360081546</v>
       </c>
       <c r="W308">
-        <v>1.000948766603416</v>
+        <v>0.0009487666034155851</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23273,7 +23273,7 @@
         <v>0.9513089690027614</v>
       </c>
       <c r="K309">
-        <v>48.7523495312451</v>
+        <v>-0.01247650468754896</v>
       </c>
       <c r="L309">
         <v>-0.0009410345475796669</v>
@@ -23303,13 +23303,13 @@
         <v>-0.4375</v>
       </c>
       <c r="U309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V309">
-        <v>0.9996840442338073</v>
+        <v>-0.0003159557661926993</v>
       </c>
       <c r="W309">
-        <v>0.9981042654028436</v>
+        <v>-0.001895734597156418</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23344,7 +23344,7 @@
         <v>0.851523301677706</v>
       </c>
       <c r="K310">
-        <v>45.99041777687172</v>
+        <v>-0.04009582223128277</v>
       </c>
       <c r="L310">
         <v>-0.002899028666213267</v>
@@ -23374,13 +23374,13 @@
         <v>-0.5</v>
       </c>
       <c r="U310">
-        <v>0.9999368188279891</v>
+        <v>-6.318117201087325E-05</v>
       </c>
       <c r="V310">
-        <v>0.9997471554993679</v>
+        <v>-0.0002528445006321212</v>
       </c>
       <c r="W310">
-        <v>0.9990503323836657</v>
+        <v>-0.0009496676163343043</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Aker 21.12.2020.xlsx
+++ b/data_clean/Aker 21.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1367,13 +1370,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W310"/>
+  <dimension ref="A1:X310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,10 +1446,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>520</v>
@@ -1503,7 +1509,7 @@
         <v>520</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1514,10 +1520,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>522</v>
@@ -1574,7 +1583,7 @@
         <v>521</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1585,10 +1594,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>522.5</v>
@@ -1645,21 +1657,24 @@
         <v>521.5</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>521.5</v>
       </c>
       <c r="U4">
-        <v>0.0009596928982724684</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0.0009596928982724684</v>
       </c>
       <c r="W4">
+        <v>0.0009596928982724684</v>
+      </c>
+      <c r="X4">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>525</v>
@@ -1716,21 +1731,24 @@
         <v>522.375</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>523.1666666666666</v>
       </c>
       <c r="U5">
-        <v>0.001677852348993314</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.001677852348993314</v>
       </c>
       <c r="W5">
+        <v>0.001677852348993314</v>
+      </c>
+      <c r="X5">
         <v>0.004784688995215225</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>525</v>
@@ -1787,21 +1805,24 @@
         <v>522.9</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>524.1666666666666</v>
       </c>
       <c r="U6">
-        <v>0.001005025125628167</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.001005025125628167</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>0.001005025125628167</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>521.5</v>
@@ -1858,21 +1879,24 @@
         <v>522.6666666666666</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>523.8333333333334</v>
       </c>
       <c r="U7">
-        <v>-0.0004462293618920921</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>-0.0004462293618920921</v>
       </c>
       <c r="W7">
+        <v>-0.0004462293618920921</v>
+      </c>
+      <c r="X7">
         <v>-0.00666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>524</v>
@@ -1929,21 +1953,24 @@
         <v>522.8571428571429</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>523.5</v>
       </c>
       <c r="U8">
-        <v>0.0003644314868807008</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0003644314868807008</v>
       </c>
       <c r="W8">
+        <v>0.0003644314868807008</v>
+      </c>
+      <c r="X8">
         <v>0.004793863854266611</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>523</v>
@@ -2000,21 +2027,24 @@
         <v>522.875</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>522.8333333333334</v>
       </c>
       <c r="U9">
-        <v>3.415300546438793E-05</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>3.415300546438793E-05</v>
       </c>
       <c r="W9">
+        <v>3.415300546438793E-05</v>
+      </c>
+      <c r="X9">
         <v>-0.001908396946564861</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>525</v>
@@ -2071,21 +2101,24 @@
         <v>523.1111111111111</v>
       </c>
       <c r="T10">
+        <v>524</v>
+      </c>
+      <c r="U10">
         <v>0.3888888888889142</v>
-      </c>
-      <c r="U10">
-        <v>0.0004515632055674956</v>
       </c>
       <c r="V10">
         <v>0.0004515632055674956</v>
       </c>
       <c r="W10">
+        <v>0.0004515632055674956</v>
+      </c>
+      <c r="X10">
         <v>0.003824091778202643</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>526.5</v>
@@ -2142,21 +2175,24 @@
         <v>523.45</v>
       </c>
       <c r="T11">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U11">
         <v>0.6124999999999545</v>
-      </c>
-      <c r="U11">
-        <v>0.0006478334749364656</v>
       </c>
       <c r="V11">
         <v>0.0006478334749364656</v>
       </c>
       <c r="W11">
+        <v>0.0006478334749364656</v>
+      </c>
+      <c r="X11">
         <v>0.002857142857142891</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>526.5</v>
@@ -2213,21 +2249,24 @@
         <v>523.7272727272727</v>
       </c>
       <c r="T12">
+        <v>526</v>
+      </c>
+      <c r="U12">
         <v>0.8352272727272521</v>
-      </c>
-      <c r="U12">
-        <v>0.0005297024114485627</v>
       </c>
       <c r="V12">
         <v>0.0005297024114485627</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>0.0005297024114485627</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>527.5</v>
@@ -2284,21 +2323,24 @@
         <v>524.0416666666666</v>
       </c>
       <c r="T13">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U13">
         <v>0.8333333333333712</v>
-      </c>
-      <c r="U13">
-        <v>0.0006003008736907844</v>
       </c>
       <c r="V13">
         <v>0.0006003008736907844</v>
       </c>
       <c r="W13">
+        <v>0.0006003008736907844</v>
+      </c>
+      <c r="X13">
         <v>0.001899335232668609</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>526.5</v>
@@ -2355,21 +2397,24 @@
         <v>524.2307692307693</v>
       </c>
       <c r="T14">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U14">
         <v>0.8317307692307168</v>
-      </c>
-      <c r="U14">
-        <v>0.0003608540620547718</v>
       </c>
       <c r="V14">
         <v>0.0003608540620547718</v>
       </c>
       <c r="W14">
+        <v>0.0003608540620547718</v>
+      </c>
+      <c r="X14">
         <v>-0.001895734597156418</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>526.5</v>
@@ -2426,21 +2471,24 @@
         <v>524.3928571428571</v>
       </c>
       <c r="T15">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U15">
         <v>1.29464285714289</v>
-      </c>
-      <c r="U15">
-        <v>0.0003091919086049</v>
       </c>
       <c r="V15">
         <v>0.0003091919086049</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0.0003091919086049</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>527</v>
@@ -2497,21 +2545,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T16">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U16">
         <v>1.49583333333328</v>
-      </c>
-      <c r="U16">
-        <v>0.000331449068083467</v>
       </c>
       <c r="V16">
         <v>0.000331449068083467</v>
       </c>
       <c r="W16">
+        <v>0.000331449068083467</v>
+      </c>
+      <c r="X16">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>528</v>
@@ -2568,21 +2619,24 @@
         <v>525.1</v>
       </c>
       <c r="T17">
+        <v>527.1666666666666</v>
+      </c>
+      <c r="U17">
         <v>1.90625</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0004090678019952332</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.001016712206900916</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.00189753320683117</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>526.5</v>
@@ -2639,21 +2693,24 @@
         <v>525.4</v>
       </c>
       <c r="T18">
+        <v>527.1666666666666</v>
+      </c>
+      <c r="U18">
         <v>1.6875</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0001926573046893143</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0005713197486192367</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.002840909090909061</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>527</v>
@@ -2710,21 +2767,24 @@
         <v>525.7</v>
       </c>
       <c r="T19">
+        <v>527.1666666666666</v>
+      </c>
+      <c r="U19">
         <v>1.4375</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0002241398632747416</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0005709935287401269</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>528.5</v>
@@ -2781,21 +2841,24 @@
         <v>525.9333333333333</v>
       </c>
       <c r="T20">
+        <v>527.3333333333334</v>
+      </c>
+      <c r="U20">
         <v>1.3125</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.000350877192982546</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0004438526409229482</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.002846299810246755</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>529.5</v>
@@ -2852,21 +2915,24 @@
         <v>526.2333333333333</v>
       </c>
       <c r="T21">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="U21">
         <v>1.28125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0004108833993083927</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0005704145012044304</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.001892147587511772</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>528.5</v>
@@ -2923,21 +2989,24 @@
         <v>526.7</v>
       </c>
       <c r="T22">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U22">
         <v>1.3125</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002809650696975474</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.000886805599543905</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.001888574126534426</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>527.5</v>
@@ -2994,21 +3063,24 @@
         <v>526.9333333333333</v>
       </c>
       <c r="T23">
+        <v>528.5</v>
+      </c>
+      <c r="U23">
         <v>1.0625</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001688611755208402</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.000443009936079708</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.001892147587511772</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>527.5</v>
@@ -3065,21 +3137,24 @@
         <v>527.2333333333333</v>
       </c>
       <c r="T24">
+        <v>527.8333333333334</v>
+      </c>
+      <c r="U24">
         <v>0.90625</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001541515648264546</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0005693319838058208</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>528.5</v>
@@ -3136,21 +3211,24 @@
         <v>527.4666666666667</v>
       </c>
       <c r="T25">
+        <v>527.8333333333334</v>
+      </c>
+      <c r="U25">
         <v>0.625</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0002205406001460908</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.000442561800594321</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.001895734597156418</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>527</v>
@@ -3207,21 +3285,24 @@
         <v>527.5</v>
       </c>
       <c r="T26">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U26">
         <v>0.5625</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>8.874801901725959E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6.319514661279335E-05</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.002838221381267769</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>528.5</v>
@@ -3278,21 +3359,24 @@
         <v>527.6333333333333</v>
       </c>
       <c r="T27">
+        <v>528</v>
+      </c>
+      <c r="U27">
         <v>0.625</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001916201999871969</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0002527646129542038</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.002846299810246755</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>528.5</v>
@@ -3349,21 +3433,24 @@
         <v>527.7</v>
       </c>
       <c r="T28">
+        <v>528</v>
+      </c>
+      <c r="U28">
         <v>0.5</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001773921191856598</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.000126350369574979</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>526.5</v>
@@ -3420,21 +3507,24 @@
         <v>527.7</v>
       </c>
       <c r="T29">
+        <v>527.8333333333334</v>
+      </c>
+      <c r="U29">
         <v>0.1875</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2.891539606553195E-05</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
       <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
         <v>-0.003784295175023655</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>528</v>
@@ -3491,21 +3581,24 @@
         <v>527.8</v>
       </c>
       <c r="T30">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U30">
         <v>0.03125</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.0001252386264016803</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0001895016107635872</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.002849002849002913</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>528.5</v>
@@ -3562,21 +3655,24 @@
         <v>527.9</v>
       </c>
       <c r="T31">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U31">
         <v>0.03125</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.0001485510808183488</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001894657067071925</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.0009469696969697239</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>528.5</v>
@@ -3633,21 +3729,24 @@
         <v>527.9333333333333</v>
       </c>
       <c r="T32">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="U32">
         <v>0.0625</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0005384176854372758</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>6.314327208434278E-05</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>528.5</v>
@@ -3704,21 +3803,24 @@
         <v>528.0666666666667</v>
       </c>
       <c r="T33">
+        <v>528.5</v>
+      </c>
+      <c r="U33">
         <v>0.03125</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0004115096071666269</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0002525571410534333</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>528.5</v>
@@ -3775,21 +3877,24 @@
         <v>528.1666666666666</v>
       </c>
       <c r="T34">
+        <v>528.5</v>
+      </c>
+      <c r="U34">
         <v>0.09375</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0003796987723072576</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0001893700290365175</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>528.5</v>
@@ -3846,21 +3951,24 @@
         <v>528.1666666666666</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>528.5</v>
       </c>
       <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>0.0002214068825912019</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>529</v>
@@ -3917,21 +4025,24 @@
         <v>528.1333333333333</v>
       </c>
       <c r="T36">
+        <v>528.6666666666666</v>
+      </c>
+      <c r="U36">
         <v>0.03125</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0002529804256394819</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-6.311139160608548E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>529</v>
@@ -3988,21 +4099,24 @@
         <v>528.1666666666666</v>
       </c>
       <c r="T37">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U37">
         <v>0.375</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0004742183301191805</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>6.311537490533148E-05</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>528.5</v>
@@ -4059,21 +4173,24 @@
         <v>528.2333333333333</v>
       </c>
       <c r="T38">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U38">
         <v>0.4375</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0002843961322127608</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.000126222783212393</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.000945179584120992</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>529</v>
@@ -4130,21 +4247,24 @@
         <v>528.3333333333334</v>
       </c>
       <c r="T39">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U39">
         <v>0.40625</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0003790870320643513</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0001893102795482715</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>531</v>
@@ -4201,21 +4321,24 @@
         <v>528.5</v>
       </c>
       <c r="T40">
+        <v>529.5</v>
+      </c>
+      <c r="U40">
         <v>0.5</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0003789433795433617</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.0003154574132491206</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.003780718336483968</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>531</v>
@@ -4272,21 +4395,24 @@
         <v>528.7666666666667</v>
       </c>
       <c r="T41">
+        <v>530.3333333333334</v>
+      </c>
+      <c r="U41">
         <v>0.65625</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0002840998768900427</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0005045726900030356</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>531</v>
@@ -4343,21 +4469,24 @@
         <v>528.9333333333333</v>
       </c>
       <c r="T42">
+        <v>531</v>
+      </c>
+      <c r="U42">
         <v>0.71875</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0002840191870738806</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0003151988904999126</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>530.5</v>
@@ -4414,21 +4543,24 @@
         <v>529.0666666666667</v>
       </c>
       <c r="T43">
+        <v>530.8333333333334</v>
+      </c>
+      <c r="U43">
         <v>0.84375</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001892923620532283</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.0002520796571718886</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0009416195856873921</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>528</v>
@@ -4485,21 +4617,24 @@
         <v>529.1666666666666</v>
       </c>
       <c r="T44">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U44">
         <v>0.75</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>9.462826861805773E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001890120967740216</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.004712535344015056</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>530</v>
@@ -4556,21 +4691,24 @@
         <v>529.3</v>
       </c>
       <c r="T45">
+        <v>529.5</v>
+      </c>
+      <c r="U45">
         <v>0.65625</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0002207784015644254</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0002519685039370501</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.003787878787878896</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>529</v>
@@ -4627,21 +4765,24 @@
         <v>529.3333333333334</v>
       </c>
       <c r="T46">
+        <v>529</v>
+      </c>
+      <c r="U46">
         <v>0.65625</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0001261312395548497</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>6.297625795093076E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.001886792452830188</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>529</v>
@@ -4698,21 +4839,24 @@
         <v>529.3666666666667</v>
       </c>
       <c r="T47">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U47">
         <v>0.625</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>6.305766623571074E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>6.297229219143219E-05</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>529</v>
@@ -4769,21 +4913,24 @@
         <v>529.4</v>
       </c>
       <c r="T48">
+        <v>529</v>
+      </c>
+      <c r="U48">
         <v>0.34375</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0001576342255431573</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>6.296832693153398E-05</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>530</v>
@@ -4840,21 +4987,24 @@
         <v>529.5</v>
       </c>
       <c r="T49">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U49">
         <v>0.125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.000189131257092523</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0001888930865130423</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.001890359168241984</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>530.5</v>
@@ -4911,21 +5061,24 @@
         <v>529.6333333333333</v>
       </c>
       <c r="T50">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U50">
         <v>-0.0625</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0001260636621491784</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.0002518098835380123</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0009433962264151496</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>529.5</v>
@@ -4982,21 +5135,24 @@
         <v>529.6666666666666</v>
       </c>
       <c r="T51">
+        <v>530</v>
+      </c>
+      <c r="U51">
         <v>-0.25</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
       <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>6.293662282086387E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.001885014137606</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>530</v>
@@ -5053,21 +5209,24 @@
         <v>529.7333333333333</v>
       </c>
       <c r="T52">
+        <v>530</v>
+      </c>
+      <c r="U52">
         <v>-0.0625</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>9.453582907936742E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0001258653241034136</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0009442870632672129</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>531</v>
@@ -5124,21 +5283,24 @@
         <v>529.9</v>
       </c>
       <c r="T53">
+        <v>530.1666666666666</v>
+      </c>
+      <c r="U53">
         <v>-0.0625</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0002205627501024043</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0003146237100426497</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.001886792452830299</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>530.5</v>
@@ -5195,21 +5357,24 @@
         <v>530</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>530.5</v>
       </c>
       <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>0.0001890120967740216</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0001887148518588955</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.0009416195856873921</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>530.5</v>
@@ -5266,21 +5431,24 @@
         <v>529.9666666666667</v>
       </c>
       <c r="T55">
+        <v>530.6666666666666</v>
+      </c>
+      <c r="U55">
         <v>0.09375</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.000125984251968525</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-6.289308176099517E-05</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>531</v>
@@ -5337,21 +5505,24 @@
         <v>529.9666666666667</v>
       </c>
       <c r="T56">
+        <v>530.6666666666666</v>
+      </c>
+      <c r="U56">
         <v>0.34375</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0002519367638722514</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
       <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <v>0.0009425070688029447</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>530</v>
@@ -5408,21 +5579,24 @@
         <v>529.9</v>
       </c>
       <c r="T57">
+        <v>530.5</v>
+      </c>
+      <c r="U57">
         <v>0.40625</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>9.445249039718995E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0001257940750991615</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.001883239171374784</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>530.5</v>
@@ -5479,21 +5653,24 @@
         <v>529.9</v>
       </c>
       <c r="T58">
+        <v>530.5</v>
+      </c>
+      <c r="U58">
         <v>0.4375</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0001259247599560975</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
       <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
         <v>0.0009433962264151496</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>530</v>
@@ -5550,21 +5727,24 @@
         <v>530.0333333333333</v>
       </c>
       <c r="T59">
+        <v>530.1666666666666</v>
+      </c>
+      <c r="U59">
         <v>0.53125</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0002203405835878858</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0002516198024784533</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0009425070688030557</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>529</v>
@@ -5621,21 +5801,24 @@
         <v>529.9666666666667</v>
       </c>
       <c r="T60">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U60">
         <v>0.34375</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>6.294058408862213E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0001257782529399121</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.001886792452830188</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>529.5</v>
@@ -5692,21 +5875,24 @@
         <v>530</v>
       </c>
       <c r="T61">
+        <v>529.5</v>
+      </c>
+      <c r="U61">
         <v>0.1875</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>6.293662282086387E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>6.289703754958076E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.000945179584120881</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>529</v>
@@ -5763,21 +5949,24 @@
         <v>530</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>529.1666666666666</v>
       </c>
       <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>3.146633102568686E-05</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
       <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
         <v>-0.0009442870632672129</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>529.5</v>
@@ -5834,21 +6023,24 @@
         <v>530.0333333333333</v>
       </c>
       <c r="T63">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U63">
         <v>-0.15625</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>6.293068185403428E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>6.289308176099517E-05</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.000945179584120881</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>531</v>
@@ -5905,21 +6097,24 @@
         <v>530.1</v>
       </c>
       <c r="T64">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U64">
         <v>-0.28125</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0001573168045809759</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0001257782529402451</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.002832861189801639</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>530.5</v>
@@ -5976,21 +6171,24 @@
         <v>530.1</v>
       </c>
       <c r="T65">
+        <v>530.3333333333334</v>
+      </c>
+      <c r="U65">
         <v>-0.25</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0001258336479175171</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
       <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
         <v>-0.0009416195856873921</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>530</v>
@@ -6047,21 +6245,24 @@
         <v>530.1333333333333</v>
       </c>
       <c r="T66">
+        <v>530.5</v>
+      </c>
+      <c r="U66">
         <v>-0.28125</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>6.290890790139336E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>6.288121738040608E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0009425070688030557</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>531.5</v>
@@ -6118,21 +6319,24 @@
         <v>530.2333333333333</v>
       </c>
       <c r="T67">
+        <v>530.6666666666666</v>
+      </c>
+      <c r="U67">
         <v>-0.21875</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0001572623765491166</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>0.0001886317907444646</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.002830188679245227</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>531</v>
@@ -6189,21 +6393,24 @@
         <v>530.2333333333333</v>
       </c>
       <c r="T68">
+        <v>530.8333333333334</v>
+      </c>
+      <c r="U68">
         <v>-0.03125</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0001572376489826777</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
       <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
         <v>-0.0009407337723423836</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>532</v>
@@ -6260,21 +6467,24 @@
         <v>530.3333333333334</v>
       </c>
       <c r="T69">
+        <v>531.5</v>
+      </c>
+      <c r="U69">
         <v>0.21875</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0001886555150294456</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0001885962155026011</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.001883239171374784</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>532.5</v>
@@ -6331,21 +6541,24 @@
         <v>530.4666666666667</v>
       </c>
       <c r="T70">
+        <v>531.8333333333334</v>
+      </c>
+      <c r="U70">
         <v>0.53125</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>9.430996541981429E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0002514142049026002</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0009398496240602405</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>532.5</v>
@@ -6402,21 +6615,24 @@
         <v>530.5666666666667</v>
       </c>
       <c r="T71">
+        <v>532.3333333333334</v>
+      </c>
+      <c r="U71">
         <v>0.78125</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>9.430107188879155E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001885132587660099</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>532.5</v>
@@ -6473,21 +6689,24 @@
         <v>530.7333333333333</v>
       </c>
       <c r="T72">
+        <v>532.5</v>
+      </c>
+      <c r="U72">
         <v>0.875</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>9.429218003531581E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0003141295470250327</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>533</v>
@@ -6544,21 +6763,24 @@
         <v>530.9</v>
       </c>
       <c r="T73">
+        <v>532.6666666666666</v>
+      </c>
+      <c r="U73">
         <v>1</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001571388164303134</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0003140309006406383</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0009389671361501595</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>533</v>
@@ -6615,21 +6837,24 @@
         <v>531.1</v>
       </c>
       <c r="T74">
+        <v>532.8333333333334</v>
+      </c>
+      <c r="U74">
         <v>1.21875</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0003142282554049469</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0003767187794312399</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>533</v>
@@ -6686,21 +6911,24 @@
         <v>531.3666666666667</v>
       </c>
       <c r="T75">
+        <v>533</v>
+      </c>
+      <c r="U75">
         <v>1.21875</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.000188477728214842</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.000502102554446715</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>533</v>
@@ -6757,21 +6985,24 @@
         <v>531.6</v>
       </c>
       <c r="T76">
+        <v>533</v>
+      </c>
+      <c r="U76">
         <v>1.21875</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0002512562814069863</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0004391192522426035</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>531</v>
@@ -6828,21 +7059,24 @@
         <v>531.7333333333333</v>
       </c>
       <c r="T77">
+        <v>532.3333333333334</v>
+      </c>
+      <c r="U77">
         <v>1</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>0.00012559658377298</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0002508151492350841</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.003752345215759845</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>530</v>
@@ -6899,21 +7133,24 @@
         <v>531.7666666666667</v>
       </c>
       <c r="T78">
+        <v>531.3333333333334</v>
+      </c>
+      <c r="U78">
         <v>0.625</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>6.279040562606752E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>6.26880641925176E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.001883239171374784</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>531</v>
@@ -6970,21 +7207,24 @@
         <v>531.7666666666667</v>
       </c>
       <c r="T79">
+        <v>530.6666666666666</v>
+      </c>
+      <c r="U79">
         <v>0.34375</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>6.278646323853998E-05</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
       <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
         <v>0.001886792452830299</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>530</v>
@@ -7041,21 +7281,24 @@
         <v>531.7333333333333</v>
       </c>
       <c r="T80">
+        <v>530.3333333333334</v>
+      </c>
+      <c r="U80">
         <v>0.09375</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-3.139126067297493E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-6.268413464549649E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.001883239171374784</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>530</v>
@@ -7112,21 +7355,24 @@
         <v>531.7333333333333</v>
       </c>
       <c r="T81">
+        <v>530.3333333333334</v>
+      </c>
+      <c r="U81">
         <v>-0.25</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>3.139224611525826E-05</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>530</v>
@@ -7183,21 +7429,24 @@
         <v>531.6333333333333</v>
       </c>
       <c r="T82">
+        <v>530</v>
+      </c>
+      <c r="U82">
         <v>-0.625</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
       <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
         <v>-0.0001880641925777748</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>529.5</v>
@@ -7254,21 +7503,24 @@
         <v>531.5333333333333</v>
       </c>
       <c r="T83">
+        <v>529.8333333333334</v>
+      </c>
+      <c r="U83">
         <v>-0.9375</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-9.417378201903581E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0001880995673710917</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.0009433962264151496</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>528.5</v>
@@ -7325,21 +7577,24 @@
         <v>531.3</v>
       </c>
       <c r="T84">
+        <v>529.3333333333334</v>
+      </c>
+      <c r="U84">
         <v>-1.34375</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.0001255768687407066</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0004389815627744431</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.001888574126534426</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>529</v>
@@ -7396,21 +7651,24 @@
         <v>531.0666666666667</v>
       </c>
       <c r="T85">
+        <v>529</v>
+      </c>
+      <c r="U85">
         <v>-1.40625</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-9.419448020353549E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0004391743522176306</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>529</v>
@@ -7467,21 +7725,24 @@
         <v>530.8333333333334</v>
       </c>
       <c r="T86">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U86">
         <v>-1.3125</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-0.0001256044715191029</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0004393673110720808</v>
       </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>527</v>
@@ -7538,21 +7799,24 @@
         <v>530.4666666666667</v>
       </c>
       <c r="T87">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="U87">
         <v>-1.46875</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.0001884303749765115</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0006907378335949677</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.003780718336483968</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>526.5</v>
@@ -7609,21 +7873,24 @@
         <v>530.0333333333333</v>
       </c>
       <c r="T88">
+        <v>527.5</v>
+      </c>
+      <c r="U88">
         <v>-1.53125</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.0002512878502324289</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0008168907879855247</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0009487666034155851</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>526</v>
@@ -7680,21 +7947,24 @@
         <v>529.5666666666667</v>
       </c>
       <c r="T89">
+        <v>526.5</v>
+      </c>
+      <c r="U89">
         <v>-1.59375</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0002513510116878281</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0008804477705802727</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0009496676163343043</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>526</v>
@@ -7751,21 +8021,24 @@
         <v>529.1</v>
       </c>
       <c r="T90">
+        <v>526.1666666666666</v>
+      </c>
+      <c r="U90">
         <v>-1.65625</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0001885606536770057</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.000881223641971518</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>526</v>
@@ -7822,21 +8095,24 @@
         <v>528.6333333333333</v>
       </c>
       <c r="T91">
+        <v>526</v>
+      </c>
+      <c r="U91">
         <v>-1.65625</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0002200289180863679</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0008820008820009662</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>527</v>
@@ -7893,21 +8169,24 @@
         <v>528.3666666666667</v>
       </c>
       <c r="T92">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U92">
         <v>-1.46875</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-0.0001257584808376233</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-0.0005044454253104735</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.001901140684410718</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>526.5</v>
@@ -7964,21 +8243,24 @@
         <v>528.1333333333333</v>
       </c>
       <c r="T93">
+        <v>526.5</v>
+      </c>
+      <c r="U93">
         <v>-1.5</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-0.0001886614470331116</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-0.0004416125165604967</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.0009487666034155851</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>525</v>
@@ -8035,21 +8317,24 @@
         <v>527.7333333333333</v>
       </c>
       <c r="T94">
+        <v>526.1666666666666</v>
+      </c>
+      <c r="U94">
         <v>-1.6875</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-0.0003773940937825682</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0007573844988638667</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.002849002849002802</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>525</v>
@@ -8106,21 +8391,24 @@
         <v>527.4</v>
       </c>
       <c r="T95">
+        <v>525.5</v>
+      </c>
+      <c r="U95">
         <v>-1.5625</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-0.000346075192700912</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-0.0006316321374432166</v>
       </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>525</v>
@@ -8177,21 +8465,24 @@
         <v>527.0666666666667</v>
       </c>
       <c r="T96">
+        <v>525</v>
+      </c>
+      <c r="U96">
         <v>-1.4375</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-0.0003147227292756849</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-0.0006320313487547802</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>524.5</v>
@@ -8248,21 +8539,24 @@
         <v>526.7</v>
       </c>
       <c r="T97">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U97">
         <v>-1.28125</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-0.0004407505351970986</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-0.0006956741715152814</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>525</v>
@@ -8319,21 +8613,24 @@
         <v>526.4</v>
       </c>
       <c r="T98">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U98">
         <v>-1.09375</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-0.000377952755905353</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-0.0005695842035315923</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>525</v>
@@ -8390,21 +8687,24 @@
         <v>526.1666666666666</v>
       </c>
       <c r="T99">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U99">
         <v>-0.9375</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-0.0004411116012351668</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0004432624113475114</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>525</v>
@@ -8461,21 +8761,24 @@
         <v>525.9</v>
       </c>
       <c r="T100">
+        <v>525</v>
+      </c>
+      <c r="U100">
         <v>-0.96875</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-0.0004728281427310854</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0005068102629077753</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>524</v>
@@ -8532,21 +8835,24 @@
         <v>525.5666666666667</v>
       </c>
       <c r="T101">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U101">
         <v>-0.96875</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.0005361253902677054</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0006338340622423777</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.001904761904761854</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>525</v>
@@ -8603,21 +8909,24 @@
         <v>525.4333333333333</v>
       </c>
       <c r="T102">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U102">
         <v>-0.71875</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-0.0004733055660735008</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0002536944250651763</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>524.5</v>
@@ -8674,21 +8983,24 @@
         <v>525.3</v>
       </c>
       <c r="T103">
+        <v>524.5</v>
+      </c>
+      <c r="U103">
         <v>-0.625</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-0.0005366669823533288</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.0002537588022584192</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>523</v>
@@ -8745,21 +9057,24 @@
         <v>525.1</v>
       </c>
       <c r="T104">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U104">
         <v>-0.65625</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-0.0006317119393555171</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0003807348181990022</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.002859866539561495</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>523.5</v>
@@ -8816,21 +9131,24 @@
         <v>524.9333333333333</v>
       </c>
       <c r="T105">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U105">
         <v>-0.625</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-0.0006005056890013849</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0003173998603441808</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>523.5</v>
@@ -8887,21 +9205,24 @@
         <v>524.7666666666667</v>
       </c>
       <c r="T106">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U106">
         <v>-0.65625</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-0.0006008665127603674</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0003175006350012444</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>524</v>
@@ -8958,21 +9279,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T107">
+        <v>523.6666666666666</v>
+      </c>
+      <c r="U107">
         <v>-0.65625</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-0.000443009936080041</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.0003811217684048795</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>524</v>
@@ -9029,21 +9353,24 @@
         <v>524.4</v>
       </c>
       <c r="T108">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U108">
         <v>-0.59375</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-0.0003798910978853876</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.000317722564656675</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>524</v>
@@ -9100,21 +9427,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T109">
+        <v>524</v>
+      </c>
+      <c r="U109">
         <v>-0.4375</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-0.0004433747149734657</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0001271294177471738</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>525</v>
@@ -9171,21 +9501,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T110">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U110">
         <v>-0.4375</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-0.0003168367023634877</v>
       </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
       <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>525</v>
@@ -9242,21 +9575,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T111">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U111">
         <v>-0.375</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-0.0003169371196753978</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
       <c r="W111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>525</v>
@@ -9313,21 +9649,24 @@
         <v>524.3666666666667</v>
       </c>
       <c r="T112">
+        <v>525</v>
+      </c>
+      <c r="U112">
         <v>-0.125</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-0.0003170376006595976</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>6.357279084556744E-05</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>525.5</v>
@@ -9384,21 +9723,24 @@
         <v>524.4</v>
       </c>
       <c r="T113">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U113">
         <v>0.0625</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-0.0002537105163008535</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>6.356874960267156E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0.0009523809523810378</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>525</v>
@@ -9455,21 +9797,24 @@
         <v>524.4</v>
       </c>
       <c r="T114">
+        <v>525.1666666666666</v>
+      </c>
+      <c r="U114">
         <v>0.25</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-0.0002220530389545061</v>
       </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
       <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
         <v>-0.0009514747859181716</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>524</v>
@@ -9526,21 +9871,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T115">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U115">
         <v>0.3125</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-0.0003172890820826169</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0001271294177471738</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.001904761904761854</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>525</v>
@@ -9597,21 +9945,24 @@
         <v>524.4</v>
       </c>
       <c r="T116">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U116">
         <v>0.4375</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-0.0002539118291172704</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.0001271455816909128</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>523</v>
@@ -9668,21 +10019,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T117">
+        <v>524</v>
+      </c>
+      <c r="U117">
         <v>0.375</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-0.0002539763167084264</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0002542588354945696</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.003809523809523818</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>522.5</v>
@@ -9739,21 +10093,24 @@
         <v>524.1333333333333</v>
       </c>
       <c r="T118">
+        <v>523.5</v>
+      </c>
+      <c r="U118">
         <v>0.21875</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-0.0002540408370645952</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0002543234994913934</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0009560229445506607</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>523</v>
@@ -9810,21 +10167,24 @@
         <v>524.1333333333333</v>
       </c>
       <c r="T119">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U119">
         <v>0.0625</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0001905790426579568</v>
       </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
       <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>521.5</v>
@@ -9881,21 +10241,24 @@
         <v>524</v>
       </c>
       <c r="T120">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U120">
         <v>-0.28125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-0.000285923054928916</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-0.0002543881963876782</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.002868068833651982</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>520.5</v>
@@ -9952,21 +10315,24 @@
         <v>523.8</v>
       </c>
       <c r="T121">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U121">
         <v>-0.71875</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-0.0003495614592603502</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-0.0003816793893131054</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.001917545541706644</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>520.5</v>
@@ -10023,21 +10389,24 @@
         <v>523.5666666666667</v>
       </c>
       <c r="T122">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U122">
         <v>-1.09375</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-0.000413262548876081</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0004454626447751853</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>519</v>
@@ -10094,21 +10463,24 @@
         <v>523.2333333333333</v>
       </c>
       <c r="T123">
+        <v>520</v>
+      </c>
+      <c r="U123">
         <v>-1.40625</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-0.0004770385447143699</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0006366588145413354</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.002881844380403509</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>519</v>
@@ -10165,21 +10537,24 @@
         <v>522.9</v>
       </c>
       <c r="T124">
+        <v>519.5</v>
+      </c>
+      <c r="U124">
         <v>-1.84375</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0003818129752777288</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0006370644072116738</v>
       </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>518</v>
@@ -10236,21 +10611,24 @@
         <v>522.4333333333333</v>
       </c>
       <c r="T125">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U125">
         <v>-2.09375</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0004456186141261753</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0008924587237840731</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0019267822736031</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>519</v>
@@ -10307,21 +10685,24 @@
         <v>522.0333333333333</v>
       </c>
       <c r="T126">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U126">
         <v>-2.15625</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0003821290959463708</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.0007656479295603535</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.001930501930502038</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>519</v>
@@ -10378,21 +10759,24 @@
         <v>521.6333333333333</v>
       </c>
       <c r="T127">
+        <v>518.6666666666666</v>
+      </c>
+      <c r="U127">
         <v>-2.28125</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0003504189098785249</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0007662345954919658</v>
       </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>520.5</v>
@@ -10449,21 +10833,24 @@
         <v>521.3</v>
       </c>
       <c r="T128">
+        <v>519.5</v>
+      </c>
+      <c r="U128">
         <v>-2.125</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0002868068833651316</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0006390184676338118</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.00289017341040454</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>519.5</v>
@@ -10520,21 +10907,24 @@
         <v>520.9333333333333</v>
       </c>
       <c r="T129">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U129">
         <v>-1.875</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-0.0003506423129643332</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-0.0007033697806765327</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.001921229586935636</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>520</v>
@@ -10591,21 +10981,24 @@
         <v>520.6666666666666</v>
       </c>
       <c r="T130">
+        <v>520</v>
+      </c>
+      <c r="U130">
         <v>-1.625</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-0.0003188775510203357</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-0.0005119017148706995</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.0009624639076035724</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>521.5</v>
@@ -10662,21 +11055,24 @@
         <v>520.4333333333333</v>
       </c>
       <c r="T131">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U131">
         <v>-1.15625</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-0.0001594896331739148</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-0.0004481434058899447</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.002884615384615374</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>522</v>
@@ -10733,21 +11129,24 @@
         <v>520.3666666666667</v>
       </c>
       <c r="T132">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U132">
         <v>-0.59375</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-0.0001914180890092432</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.000128098379555408</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>521.5</v>
@@ -10804,21 +11203,24 @@
         <v>520.3</v>
       </c>
       <c r="T133">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U133">
         <v>-0.0625</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-0.0001914547369092912</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001281147908527291</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>521.5</v>
@@ -10875,21 +11277,24 @@
         <v>520.2</v>
       </c>
       <c r="T134">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U134">
         <v>0.3125</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-9.574569942250033E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.000192196809532752</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>521</v>
@@ -10946,21 +11351,24 @@
         <v>520.1666666666666</v>
       </c>
       <c r="T135">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U135">
         <v>0.6875</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-0.0001595914458983883</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-6.40779187494056E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>521</v>
@@ -11017,21 +11425,24 @@
         <v>520.2</v>
       </c>
       <c r="T136">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U136">
         <v>0.78125</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.0001596169193934793</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>6.408202499219584E-05</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>519.5</v>
@@ -11088,21 +11499,24 @@
         <v>520.1333333333333</v>
       </c>
       <c r="T137">
+        <v>520.5</v>
+      </c>
+      <c r="U137">
         <v>0.84375</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0002873563218390718</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>-0.0001281558374984781</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.002879078694817627</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>520.5</v>
@@ -11159,21 +11573,24 @@
         <v>520.2333333333333</v>
       </c>
       <c r="T138">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U138">
         <v>0.90625</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-0.0002235636038453448</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001922583952833623</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0.001924927815206923</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>519</v>
@@ -11230,21 +11647,24 @@
         <v>520.2333333333333</v>
       </c>
       <c r="T139">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U139">
         <v>0.59375</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-0.0003194479938665173</v>
       </c>
-      <c r="V139">
-        <v>0</v>
-      </c>
       <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
         <v>-0.002881844380403509</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>519.5</v>
@@ -11301,21 +11721,24 @@
         <v>520.3333333333334</v>
       </c>
       <c r="T140">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U140">
         <v>0.25</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-0.0003515050808462483</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0001922214390979171</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>520</v>
@@ -11372,21 +11795,24 @@
         <v>520.4</v>
       </c>
       <c r="T141">
+        <v>519.5</v>
+      </c>
+      <c r="U141">
         <v>-0.0625</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-0.000319662436466972</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.0001281229980780729</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0009624639076035724</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>519</v>
@@ -11443,21 +11869,24 @@
         <v>520.4</v>
       </c>
       <c r="T142">
+        <v>519.5</v>
+      </c>
+      <c r="U142">
         <v>-0.375</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-0.0003837175838583562</v>
       </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
       <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
         <v>-0.001923076923076916</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>519</v>
@@ -11514,21 +11943,24 @@
         <v>520.3</v>
       </c>
       <c r="T143">
+        <v>519.3333333333334</v>
+      </c>
+      <c r="U143">
         <v>-0.625</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-0.0004158536195260076</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001921598770177058</v>
       </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>519.5</v>
@@ -11585,21 +12017,24 @@
         <v>520.3</v>
       </c>
       <c r="T144">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U144">
         <v>-0.75</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-0.0003520225294417756</v>
       </c>
-      <c r="V144">
-        <v>0</v>
-      </c>
       <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
         <v>0.0009633911368014392</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>519</v>
@@ -11656,21 +12091,24 @@
         <v>520.2333333333333</v>
       </c>
       <c r="T145">
+        <v>519.1666666666666</v>
+      </c>
+      <c r="U145">
         <v>-0.78125</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-0.0003201331754009162</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.000128131206355242</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0009624639076034613</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>520</v>
@@ -11727,21 +12165,24 @@
         <v>520.1333333333333</v>
       </c>
       <c r="T146">
+        <v>519.5</v>
+      </c>
+      <c r="U146">
         <v>-0.84375</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-0.0003202356934705053</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-0.0001922214390979171</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0019267822736031</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>520</v>
@@ -11798,21 +12239,24 @@
         <v>520</v>
       </c>
       <c r="T147">
+        <v>519.6666666666666</v>
+      </c>
+      <c r="U147">
         <v>-0.625</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-0.0001922029663324887</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-0.0002563445270443721</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>521.5</v>
@@ -11869,21 +12313,24 @@
         <v>520</v>
       </c>
       <c r="T148">
+        <v>520.5</v>
+      </c>
+      <c r="U148">
         <v>-0.34375</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-6.407997180479796E-05</v>
       </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
       <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
         <v>0.002884615384615374</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>521</v>
@@ -11940,21 +12387,24 @@
         <v>519.9666666666667</v>
       </c>
       <c r="T149">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U149">
         <v>-0.1875</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-0.0001281681566214221</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-6.410256410249726E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>521</v>
@@ -12011,21 +12461,24 @@
         <v>519.9666666666667</v>
       </c>
       <c r="T150">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U150">
         <v>0.09375</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-3.204614645091475E-05</v>
       </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
       <c r="W150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>521.5</v>
@@ -12082,21 +12535,24 @@
         <v>520</v>
       </c>
       <c r="T151">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U151">
         <v>0.375</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>6.409434687859594E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>6.410667350476018E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>521</v>
@@ -12153,21 +12609,24 @@
         <v>520.1</v>
       </c>
       <c r="T152">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U152">
         <v>0.5625</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>3.204511952836775E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>0.0001923076923078249</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>522</v>
@@ -12224,21 +12683,24 @@
         <v>520.2</v>
       </c>
       <c r="T153">
+        <v>521.5</v>
+      </c>
+      <c r="U153">
         <v>0.78125</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>0.0001922645560290537</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>0.0001922707171697624</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.001919385796545159</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>523</v>
@@ -12295,21 +12757,24 @@
         <v>520.4666666666667</v>
       </c>
       <c r="T154">
+        <v>522</v>
+      </c>
+      <c r="U154">
         <v>1</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0.0002563034633005223</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>0.0005126233499934685</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.001915708812260553</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>522</v>
@@ -12366,21 +12831,24 @@
         <v>520.6333333333333</v>
       </c>
       <c r="T155">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U155">
         <v>1.0625</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>0.0002562377886679013</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0003202254387086878</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.001912045889101321</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>522.5</v>
@@ -12437,21 +12905,24 @@
         <v>520.8</v>
       </c>
       <c r="T156">
+        <v>522.5</v>
+      </c>
+      <c r="U156">
         <v>1</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>0.0002241506292228745</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>0.0003201229272040695</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>524</v>
@@ -12508,21 +12979,24 @@
         <v>521.1333333333333</v>
       </c>
       <c r="T157">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U157">
         <v>1.125</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>0.0003201434242539047</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0006400409626217129</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.002870813397129135</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>525</v>
@@ -12579,21 +13053,24 @@
         <v>521.5333333333333</v>
       </c>
       <c r="T158">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U158">
         <v>1.25</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>0.0002880368687192547</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0007675578866572774</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>525</v>
@@ -12650,21 +13127,24 @@
         <v>521.9</v>
       </c>
       <c r="T159">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U159">
         <v>1.3125</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>0.0003519436890098149</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0007030550939537417</v>
       </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>524.5</v>
@@ -12721,21 +13201,24 @@
         <v>522.2666666666667</v>
       </c>
       <c r="T160">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U160">
         <v>1.4375</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>0.0002878526194587394</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.0007025611547550881</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>524.5</v>
@@ -12792,21 +13275,24 @@
         <v>522.5666666666667</v>
       </c>
       <c r="T161">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U161">
         <v>1.40625</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>0.0001918465227819244</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0005744191983663161</v>
       </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>524.5</v>
@@ -12863,21 +13349,24 @@
         <v>522.8666666666667</v>
       </c>
       <c r="T162">
+        <v>524.5</v>
+      </c>
+      <c r="U162">
         <v>1.3125</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>0.0001598414372940837</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.0005740894303756239</v>
       </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>525</v>
@@ -12934,21 +13423,24 @@
         <v>523.1</v>
       </c>
       <c r="T163">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U163">
         <v>1.375</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>0.0002237422489292928</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>0.0004462578095116854</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>525</v>
@@ -13005,21 +13497,24 @@
         <v>523.3666666666667</v>
       </c>
       <c r="T164">
+        <v>524.8333333333334</v>
+      </c>
+      <c r="U164">
         <v>1.46875</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>0.0002236921995335539</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>0.0005097814312113869</v>
       </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>526</v>
@@ -13076,21 +13571,24 @@
         <v>523.7</v>
       </c>
       <c r="T165">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U165">
         <v>1.40625</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>0.0003194888178914557</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>0.0006369021081460424</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.001904761904761854</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>525.5</v>
@@ -13147,21 +13645,24 @@
         <v>523.9666666666667</v>
       </c>
       <c r="T166">
+        <v>525.5</v>
+      </c>
+      <c r="U166">
         <v>1.1875</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0.0002874480996486461</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>0.0005091973776334413</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0009505703422053591</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>525.5</v>
@@ -13218,21 +13719,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T167">
+        <v>525.6666666666666</v>
+      </c>
+      <c r="U167">
         <v>1</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>0.0003831539959766594</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0.0005725555060753784</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>527</v>
@@ -13289,21 +13793,24 @@
         <v>524.6</v>
       </c>
       <c r="T168">
+        <v>526</v>
+      </c>
+      <c r="U168">
         <v>0.9375</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>0.0004149245156555015</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>0.0006358087487283726</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.002854424357754626</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>527.5</v>
@@ -13360,21 +13867,24 @@
         <v>524.9</v>
       </c>
       <c r="T169">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U169">
         <v>0.96875</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>0.0005423685553853641</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>0.0005718642775447424</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.0009487666034155851</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>526</v>
@@ -13431,21 +13941,24 @@
         <v>525.1666666666666</v>
       </c>
       <c r="T170">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U170">
         <v>0.96875</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>0.0004145275979721141</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0.0005080332761795425</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.002843601895734627</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>527.5</v>
@@ -13502,21 +14015,24 @@
         <v>525.5</v>
       </c>
       <c r="T171">
+        <v>527</v>
+      </c>
+      <c r="U171">
         <v>0.9375</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>0.0004781028877414162</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>0.000634719136782147</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.002851711026615966</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>528</v>
@@ -13573,21 +14089,24 @@
         <v>525.7666666666667</v>
       </c>
       <c r="T172">
+        <v>527.1666666666666</v>
+      </c>
+      <c r="U172">
         <v>0.96875</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>0.0005734492975246752</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>0.0005074532191562398</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0009478672985780978</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>528</v>
@@ -13644,21 +14163,24 @@
         <v>525.9666666666667</v>
       </c>
       <c r="T173">
+        <v>527.8333333333334</v>
+      </c>
+      <c r="U173">
         <v>0.96875</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>0.0005731206418950752</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>0.0003803968807456481</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>526</v>
@@ -13715,21 +14237,24 @@
         <v>526.0333333333333</v>
       </c>
       <c r="T174">
+        <v>527.3333333333334</v>
+      </c>
+      <c r="U174">
         <v>0.96875</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>0.0004136833731105405</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>0.0001267507446605087</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.003787878787878785</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>526</v>
@@ -13786,21 +14311,24 @@
         <v>526.1333333333333</v>
       </c>
       <c r="T175">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U175">
         <v>0.96875</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>0.0004453209491697141</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>0.0001901020214181148</v>
       </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>526</v>
@@ -13857,21 +14385,24 @@
         <v>526.2333333333333</v>
       </c>
       <c r="T176">
+        <v>526</v>
+      </c>
+      <c r="U176">
         <v>0.75</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0.00038153376573824</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>0.0001900658895084284</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>526</v>
@@ -13928,21 +14459,24 @@
         <v>526.3333333333334</v>
       </c>
       <c r="T177">
+        <v>526</v>
+      </c>
+      <c r="U177">
         <v>0.46875</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>0.0003813882532419655</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>0.0001900297713308685</v>
       </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>524</v>
@@ -13999,21 +14533,24 @@
         <v>526.2666666666667</v>
       </c>
       <c r="T178">
+        <v>525.3333333333334</v>
+      </c>
+      <c r="U178">
         <v>0.25</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0.0001588511882066879</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.0001266624445852571</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.003802281368821325</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>525</v>
@@ -14070,21 +14607,24 @@
         <v>526.2666666666667</v>
       </c>
       <c r="T179">
+        <v>525</v>
+      </c>
+      <c r="U179">
         <v>-0.0625</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>0.0002541215336235858</v>
       </c>
-      <c r="V179">
-        <v>0</v>
-      </c>
       <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>525</v>
@@ -14141,21 +14681,24 @@
         <v>526.2</v>
       </c>
       <c r="T180">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U180">
         <v>-0.4375</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>0.0002540569722759844</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001266784899922602</v>
       </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>523.5</v>
@@ -14212,21 +14755,24 @@
         <v>526.0666666666667</v>
       </c>
       <c r="T181">
+        <v>524.5</v>
+      </c>
+      <c r="U181">
         <v>-0.84375</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>0.0001269962218621856</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0002533890789306881</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.002857142857142891</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>524</v>
@@ -14283,21 +14829,24 @@
         <v>525.9666666666667</v>
       </c>
       <c r="T182">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U182">
         <v>-1</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>0.0001904701438049106</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0001900899759219588</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>525</v>
@@ -14354,21 +14903,24 @@
         <v>525.8333333333334</v>
       </c>
       <c r="T183">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U183">
         <v>-1.09375</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>0.0001904338718381471</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0002535014893212395</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>524.5</v>
@@ -14425,21 +14977,24 @@
         <v>525.6333333333333</v>
       </c>
       <c r="T184">
+        <v>524.5</v>
+      </c>
+      <c r="U184">
         <v>-1.125</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>9.519880684161208E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0003803486529319056</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>524</v>
@@ -14496,21 +15051,24 @@
         <v>525.5</v>
       </c>
       <c r="T185">
+        <v>524.5</v>
+      </c>
+      <c r="U185">
         <v>-1.15625</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>0.0001269196598554512</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0002536622487158136</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>524</v>
@@ -14567,21 +15125,24 @@
         <v>525.2666666666667</v>
       </c>
       <c r="T186">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U186">
         <v>-1.03125</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>9.517766497446623E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0004440215667618208</v>
       </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>524</v>
@@ -14638,21 +15199,24 @@
         <v>525</v>
       </c>
       <c r="T187">
+        <v>524</v>
+      </c>
+      <c r="U187">
         <v>-0.9375</v>
       </c>
-      <c r="U187">
-        <v>0</v>
-      </c>
       <c r="V187">
+        <v>0</v>
+      </c>
+      <c r="W187">
         <v>-0.0005076786394212496</v>
       </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>525</v>
@@ -14709,21 +15273,24 @@
         <v>524.8</v>
       </c>
       <c r="T188">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U188">
         <v>-0.75</v>
       </c>
-      <c r="U188">
-        <v>0</v>
-      </c>
       <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
         <v>-0.0003809523809524817</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.001908396946564972</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>524</v>
@@ -14780,21 +15347,24 @@
         <v>524.6666666666666</v>
       </c>
       <c r="T189">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U189">
         <v>-0.4375</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-6.344573803251929E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0002540650406503975</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.001904761904761854</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>524.5</v>
@@ -14851,21 +15421,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T190">
+        <v>524.5</v>
+      </c>
+      <c r="U190">
         <v>-0.28125</v>
       </c>
-      <c r="U190">
-        <v>0</v>
-      </c>
       <c r="V190">
+        <v>0</v>
+      </c>
+      <c r="W190">
         <v>-0.00019059720457415</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>523.5</v>
@@ -14922,21 +15495,24 @@
         <v>524.4</v>
       </c>
       <c r="T191">
+        <v>524</v>
+      </c>
+      <c r="U191">
         <v>-0.3125</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-6.344976364958121E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.000317722564656675</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.001906577693041034</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>524</v>
@@ -14993,21 +15569,24 @@
         <v>524.2666666666667</v>
       </c>
       <c r="T192">
+        <v>524</v>
+      </c>
+      <c r="U192">
         <v>-0.25</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-3.172689488895042E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.0002542588354945696</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0009551098376312517</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>523</v>
@@ -15064,21 +15643,24 @@
         <v>524.2</v>
       </c>
       <c r="T193">
+        <v>523.5</v>
+      </c>
+      <c r="U193">
         <v>-0.1875</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-0.0001269116060662601</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001271617497455857</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.001908396946564861</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>523</v>
@@ -15135,21 +15717,24 @@
         <v>524.0666666666667</v>
       </c>
       <c r="T194">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U194">
         <v>-0.25</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-0.0001269277146666026</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.0002543558438254934</v>
       </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>522</v>
@@ -15206,21 +15791,24 @@
         <v>523.8666666666667</v>
       </c>
       <c r="T195">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U195">
         <v>-0.3125</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0002538876547127922</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0003816308357715847</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.001912045889101321</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>522</v>
@@ -15277,21 +15865,24 @@
         <v>523.7666666666667</v>
       </c>
       <c r="T196">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U196">
         <v>-0.5</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0002222081137706056</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0001908882667346345</v>
       </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>521.5</v>
@@ -15348,21 +15939,24 @@
         <v>523.6</v>
       </c>
       <c r="T197">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U197">
         <v>-0.6875</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.0002540085727893437</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0003182078533697785</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>521.5</v>
@@ -15419,21 +16013,24 @@
         <v>523.3666666666667</v>
       </c>
       <c r="T198">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U198">
         <v>-0.90625</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-0.0003493505256136897</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0004456327985740138</v>
       </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>521</v>
@@ -15490,21 +16087,24 @@
         <v>523.1333333333333</v>
       </c>
       <c r="T199">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U199">
         <v>-0.96875</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0004130130893379436</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0004458314757022075</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>522</v>
@@ -15561,21 +16161,24 @@
         <v>523</v>
       </c>
       <c r="T200">
+        <v>521.5</v>
+      </c>
+      <c r="U200">
         <v>-1.0625</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0002542669166958333</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.000254874474321376</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.001919385796545159</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>522.5</v>
@@ -15632,21 +16235,24 @@
         <v>522.9</v>
       </c>
       <c r="T201">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U201">
         <v>-1.03125</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0003179144810044887</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.0001912045889101988</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>522.5</v>
@@ -15703,21 +16309,24 @@
         <v>522.8</v>
       </c>
       <c r="T202">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U202">
         <v>-1</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0003498171410399875</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0001912411550966109</v>
       </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>522.5</v>
@@ -15774,21 +16383,24 @@
         <v>522.6333333333333</v>
       </c>
       <c r="T203">
+        <v>522.5</v>
+      </c>
+      <c r="U203">
         <v>-0.84375</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.000349939555894796</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0003187962254526111</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>523</v>
@@ -15845,21 +16457,24 @@
         <v>522.5666666666667</v>
       </c>
       <c r="T204">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U204">
         <v>-0.59375</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0001909429398848639</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0001275591555582878</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>523</v>
@@ -15916,21 +16531,24 @@
         <v>522.4666666666667</v>
       </c>
       <c r="T205">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U205">
         <v>-0.34375</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-0.0001909794060540593</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0001913631434585783</v>
       </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>522.5</v>
@@ -15987,21 +16605,24 @@
         <v>522.4</v>
       </c>
       <c r="T206">
+        <v>522.8333333333334</v>
+      </c>
+      <c r="U206">
         <v>-0.09375</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-0.0002228518671802959</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0001275998468802664</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0009560229445506607</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>522.5</v>
@@ -16058,21 +16679,24 @@
         <v>522.3</v>
       </c>
       <c r="T207">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U207">
         <v>0.15625</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-0.0002229015412049673</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0001914241960184748</v>
       </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>522</v>
@@ -16129,21 +16753,24 @@
         <v>522.2333333333333</v>
       </c>
       <c r="T208">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U208">
         <v>0.28125</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.0001274007070738437</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0001276405641711387</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.000956937799043045</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>522.5</v>
@@ -16200,21 +16827,24 @@
         <v>522.2</v>
       </c>
       <c r="T209">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U209">
         <v>0.3125</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0001592711751028375</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-6.382842918228882E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>522</v>
@@ -16271,21 +16901,24 @@
         <v>522.2</v>
       </c>
       <c r="T210">
+        <v>522.1666666666666</v>
+      </c>
+      <c r="U210">
         <v>0.3125</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.000191155855741143</v>
       </c>
-      <c r="V210">
-        <v>0</v>
-      </c>
       <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
         <v>-0.000956937799043045</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>521.5</v>
@@ -16342,21 +16975,24 @@
         <v>522.1666666666666</v>
       </c>
       <c r="T211">
+        <v>522</v>
+      </c>
+      <c r="U211">
         <v>0.21875</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0001274616021922359</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-6.383250351094105E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>521</v>
@@ -16413,21 +17049,24 @@
         <v>522.1333333333333</v>
       </c>
       <c r="T212">
+        <v>521.5</v>
+      </c>
+      <c r="U212">
         <v>0.03125</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.0001912167760852457</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-6.383657835928869E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>521.5</v>
@@ -16484,21 +17123,24 @@
         <v>522.1333333333333</v>
       </c>
       <c r="T213">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U213">
         <v>-0.15625</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0002231289047558427</v>
       </c>
-      <c r="V213">
-        <v>0</v>
-      </c>
       <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>521.5</v>
@@ -16555,21 +17197,24 @@
         <v>522.1666666666666</v>
       </c>
       <c r="T214">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U214">
         <v>-0.28125</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.000191296030607413</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>6.384065372833092E-05</v>
       </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>521.5</v>
@@ -16626,21 +17271,24 @@
         <v>522.1333333333333</v>
       </c>
       <c r="T215">
+        <v>521.5</v>
+      </c>
+      <c r="U215">
         <v>-0.4375</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.0001594438598168102</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-6.383657835928869E-05</v>
       </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="X215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>520.5</v>
@@ -16697,21 +17345,24 @@
         <v>522</v>
       </c>
       <c r="T216">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U216">
         <v>-0.53125</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.0002232570007016932</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-0.0002553626149132127</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.001917545541706644</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>520.5</v>
@@ -16768,21 +17419,24 @@
         <v>521.8666666666667</v>
       </c>
       <c r="T217">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U217">
         <v>-0.65625</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.000223306855520522</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.0002554278416346811</v>
       </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>520.5</v>
@@ -16839,21 +17493,24 @@
         <v>521.7333333333333</v>
       </c>
       <c r="T218">
+        <v>520.5</v>
+      </c>
+      <c r="U218">
         <v>-0.71875</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-0.0002871729419273716</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-0.000255493101686266</v>
       </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="X218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>520</v>
@@ -16910,21 +17567,24 @@
         <v>521.5333333333333</v>
       </c>
       <c r="T219">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U219">
         <v>-0.75</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-0.0002553381634802232</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-0.0003833375926399762</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0009606147934678733</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>520</v>
@@ -16981,21 +17641,24 @@
         <v>521.3333333333334</v>
       </c>
       <c r="T220">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U220">
         <v>-0.6875</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-0.0002873287999233254</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-0.0003834845967018996</v>
       </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="X220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>520</v>
@@ -17052,21 +17715,24 @@
         <v>521.1666666666666</v>
       </c>
       <c r="T221">
+        <v>520</v>
+      </c>
+      <c r="U221">
         <v>-0.6875</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-0.0002235421856039421</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-0.0003196930946293142</v>
       </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="X221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>520</v>
@@ -17123,21 +17789,24 @@
         <v>521</v>
       </c>
       <c r="T222">
+        <v>520</v>
+      </c>
+      <c r="U222">
         <v>-0.71875</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-0.0002555339061551809</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-0.0003197953309881374</v>
       </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="X222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>520.5</v>
@@ -17194,21 +17863,24 @@
         <v>520.9</v>
       </c>
       <c r="T223">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U223">
         <v>-0.71875</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-0.0001597495127638737</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-0.0001919385796546047</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0.0009615384615384581</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>521.5</v>
@@ -17265,21 +17937,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T224">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U224">
         <v>-0.5625</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-9.586502204905756E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-0.0001279836180967386</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.001921229586935747</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>522</v>
@@ -17336,21 +18011,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T225">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U225">
         <v>-0.34375</v>
       </c>
-      <c r="U225">
-        <v>0</v>
-      </c>
       <c r="V225">
         <v>0</v>
       </c>
       <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>522.5</v>
@@ -17407,21 +18085,24 @@
         <v>520.9</v>
       </c>
       <c r="T226">
+        <v>522</v>
+      </c>
+      <c r="U226">
         <v>-0.125</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>3.195807101086245E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.000127999999999906</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0009578544061301653</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>523</v>
@@ -17478,21 +18159,24 @@
         <v>521.0333333333333</v>
       </c>
       <c r="T227">
+        <v>522.5</v>
+      </c>
+      <c r="U227">
         <v>0.15625</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>9.587114917564143E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0.0002559672361936993</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.000956937799043045</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>522</v>
@@ -17549,21 +18233,24 @@
         <v>521.0666666666667</v>
       </c>
       <c r="T228">
+        <v>522.5</v>
+      </c>
+      <c r="U228">
         <v>0.34375</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>3.195398625965851E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>6.397543343372725E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.001912045889101321</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>522</v>
@@ -17620,21 +18307,24 @@
         <v>521.1</v>
       </c>
       <c r="T229">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U229">
         <v>0.5625</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>6.390593047034265E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>6.397134083924172E-05</v>
       </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="X229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>521.5</v>
@@ -17691,21 +18381,24 @@
         <v>521.1</v>
       </c>
       <c r="T230">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U230">
         <v>0.75</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-3.195092338170724E-05</v>
       </c>
-      <c r="V230">
-        <v>0</v>
-      </c>
       <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>521.5</v>
@@ -17762,21 +18455,24 @@
         <v>521.1666666666666</v>
       </c>
       <c r="T231">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U231">
         <v>0.875</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-6.390388855159745E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001279344975371188</v>
       </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="X231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>522.5</v>
@@ -17833,21 +18529,24 @@
         <v>521.3</v>
       </c>
       <c r="T232">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U232">
         <v>0.875</v>
       </c>
-      <c r="U232">
-        <v>0</v>
-      </c>
       <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
         <v>0.0002558362647904211</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.001917545541706644</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>522.5</v>
@@ -17904,21 +18603,24 @@
         <v>521.4333333333333</v>
       </c>
       <c r="T233">
+        <v>522.1666666666666</v>
+      </c>
+      <c r="U233">
         <v>0.8125</v>
       </c>
-      <c r="U233">
-        <v>0</v>
-      </c>
       <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
         <v>0.000255770829336921</v>
       </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="X233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>521.5</v>
@@ -17975,21 +18677,24 @@
         <v>521.5333333333333</v>
       </c>
       <c r="T234">
+        <v>522.1666666666666</v>
+      </c>
+      <c r="U234">
         <v>0.625</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-9.586195877953063E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>0.0001917790705108224</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.00191387559808609</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>521</v>
@@ -18046,21 +18751,24 @@
         <v>521.6</v>
       </c>
       <c r="T235">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U235">
         <v>0.3125</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-0.0001278281989005592</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>0.0001278281989007812</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>521.5</v>
@@ -18117,21 +18825,24 @@
         <v>521.7</v>
       </c>
       <c r="T236">
+        <v>521.3333333333334</v>
+      </c>
+      <c r="U236">
         <v>0.15625</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-6.392227051921218E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>0.000191717791411028</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>521</v>
@@ -18188,21 +18899,24 @@
         <v>521.7666666666667</v>
       </c>
       <c r="T237">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U237">
         <v>-0.03125</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-9.58895352553002E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>0.0001277873618297232</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>521</v>
@@ -18259,21 +18973,24 @@
         <v>521.8</v>
       </c>
       <c r="T238">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U238">
         <v>-0.15625</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-6.393248729330558E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>6.388551715330593E-05</v>
       </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="X238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>521</v>
@@ -18330,21 +19047,24 @@
         <v>521.7666666666667</v>
       </c>
       <c r="T239">
+        <v>521</v>
+      </c>
+      <c r="U239">
         <v>-0.25</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-9.590486237665008E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-6.388143605462471E-05</v>
       </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="X239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>521.5</v>
@@ -18401,21 +19121,24 @@
         <v>521.7333333333333</v>
       </c>
       <c r="T240">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U240">
         <v>-0.375</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-3.197135366705961E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-6.38855171531949E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>522</v>
@@ -18472,21 +19195,24 @@
         <v>521.7</v>
       </c>
       <c r="T241">
+        <v>521.5</v>
+      </c>
+      <c r="U241">
         <v>-0.4375</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>3.197237586727297E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-6.388959877323686E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>521.5</v>
@@ -18543,21 +19269,24 @@
         <v>521.6</v>
       </c>
       <c r="T242">
+        <v>521.6666666666666</v>
+      </c>
+      <c r="U242">
         <v>-0.375</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>3.197135366739268E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0001916810427449178</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>-0.0009578544061302763</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>521</v>
@@ -18614,21 +19343,24 @@
         <v>521.5333333333333</v>
       </c>
       <c r="T243">
+        <v>521.5</v>
+      </c>
+      <c r="U243">
         <v>-0.25</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-3.197033153257145E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0001278118609407963</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0009587727708533222</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>521</v>
@@ -18685,21 +19417,24 @@
         <v>521.4666666666667</v>
       </c>
       <c r="T244">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U244">
         <v>-0.25</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-3.197135366705961E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0001278281989005592</v>
       </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="X244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>521</v>
@@ -18756,21 +19491,24 @@
         <v>521.4333333333333</v>
       </c>
       <c r="T245">
+        <v>521</v>
+      </c>
+      <c r="U245">
         <v>-0.1875</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-3.197237586727297E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-6.392227051921218E-05</v>
       </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="X245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>521</v>
@@ -18827,21 +19565,24 @@
         <v>521.4</v>
       </c>
       <c r="T246">
+        <v>521</v>
+      </c>
+      <c r="U246">
         <v>-0.15625</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>3.197339813265643E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-6.392635683682979E-05</v>
       </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="X246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>520.5</v>
@@ -18898,21 +19639,24 @@
         <v>521.2666666666667</v>
       </c>
       <c r="T247">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U247">
         <v>-0.15625</v>
       </c>
-      <c r="U247">
-        <v>0</v>
-      </c>
       <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
         <v>-0.0002557217747091167</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.0009596928982725794</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>520.5</v>
@@ -18969,21 +19713,24 @@
         <v>521.1333333333333</v>
       </c>
       <c r="T248">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U248">
         <v>-0.15625</v>
       </c>
-      <c r="U248">
-        <v>0</v>
-      </c>
       <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
         <v>-0.0002557871850620286</v>
       </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="X248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>520</v>
@@ -19040,21 +19787,24 @@
         <v>521.0333333333333</v>
       </c>
       <c r="T249">
+        <v>520.3333333333334</v>
+      </c>
+      <c r="U249">
         <v>-0.25</v>
       </c>
-      <c r="U249">
-        <v>0</v>
-      </c>
       <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
         <v>-0.0001918894716643749</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0009606147934678733</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>519.5</v>
@@ -19111,21 +19861,24 @@
         <v>520.9333333333333</v>
       </c>
       <c r="T250">
+        <v>520</v>
+      </c>
+      <c r="U250">
         <v>-0.375</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-3.197237586727297E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-0.0001919263003007377</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0009615384615384581</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>520.5</v>
@@ -19182,21 +19935,24 @@
         <v>520.8666666666667</v>
       </c>
       <c r="T251">
+        <v>520</v>
+      </c>
+      <c r="U251">
         <v>-0.40625</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>3.197339813265643E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-0.0001279754287175638</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.001924927815206923</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>520.5</v>
@@ -19253,21 +20009,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T252">
+        <v>520.1666666666666</v>
+      </c>
+      <c r="U252">
         <v>-0.40625</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>3.197237586727297E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>-6.399590426209301E-05</v>
       </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="X252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>521</v>
@@ -19324,21 +20083,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T253">
+        <v>520.6666666666666</v>
+      </c>
+      <c r="U253">
         <v>-0.40625</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>3.197135366739268E-05</v>
       </c>
-      <c r="V253">
-        <v>0</v>
-      </c>
       <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
         <v>0.0009606147934677622</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>521</v>
@@ -19395,21 +20157,24 @@
         <v>520.8333333333334</v>
       </c>
       <c r="T254">
+        <v>520.8333333333334</v>
+      </c>
+      <c r="U254">
         <v>-0.40625</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-3.197033153257145E-05</v>
       </c>
-      <c r="V254">
-        <v>0</v>
-      </c>
       <c r="W254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="X254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>521</v>
@@ -19466,21 +20231,24 @@
         <v>520.8</v>
       </c>
       <c r="T255">
+        <v>521</v>
+      </c>
+      <c r="U255">
         <v>-0.34375</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-6.394270733411922E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-6.400000000017503E-05</v>
       </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="X255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>521.5</v>
@@ -19537,21 +20305,24 @@
         <v>520.7666666666667</v>
       </c>
       <c r="T256">
+        <v>521.1666666666666</v>
+      </c>
+      <c r="U256">
         <v>-0.21875</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-6.394679626542388E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>-6.400409626206027E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>0.0009596928982724684</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>522</v>
@@ -19608,21 +20379,24 @@
         <v>520.8</v>
       </c>
       <c r="T257">
+        <v>521.5</v>
+      </c>
+      <c r="U257">
         <v>0.03125</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-6.39508857197546E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>6.400819304874794E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0.0009587727708533222</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>522</v>
@@ -19679,21 +20453,24 @@
         <v>520.8666666666667</v>
       </c>
       <c r="T258">
+        <v>521.8333333333334</v>
+      </c>
+      <c r="U258">
         <v>0.3125</v>
       </c>
-      <c r="U258">
-        <v>0</v>
-      </c>
       <c r="V258">
+        <v>0</v>
+      </c>
+      <c r="W258">
         <v>0.0001280081925243426</v>
       </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="X258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>523</v>
@@ -19750,21 +20527,24 @@
         <v>521</v>
       </c>
       <c r="T259">
+        <v>522.3333333333334</v>
+      </c>
+      <c r="U259">
         <v>0.5</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>6.395497569711139E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>0.0002559836170485941</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.001915708812260553</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>523</v>
@@ -19821,21 +20601,24 @@
         <v>521.1333333333333</v>
       </c>
       <c r="T260">
+        <v>522.6666666666666</v>
+      </c>
+      <c r="U260">
         <v>0.6875</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>9.592632857957639E-05</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>0.0002559181062060656</v>
       </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="X260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>523.5</v>
@@ -19892,21 +20675,24 @@
         <v>521.3</v>
       </c>
       <c r="T261">
+        <v>523.1666666666666</v>
+      </c>
+      <c r="U261">
         <v>0.84375</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>0.0001278895034690919</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0.0003198157861070694</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0009560229445506607</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>523.5</v>
@@ -19963,21 +20749,24 @@
         <v>521.5</v>
       </c>
       <c r="T262">
+        <v>523.3333333333334</v>
+      </c>
+      <c r="U262">
         <v>1</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>6.393657491754468E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>0.0003836562440053815</v>
       </c>
-      <c r="W262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="X262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>524.5</v>
@@ -20034,21 +20823,24 @@
         <v>521.7666666666667</v>
       </c>
       <c r="T263">
+        <v>523.8333333333334</v>
+      </c>
+      <c r="U263">
         <v>1.1875</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>0.0001278649745868332</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>0.0005113454777883053</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.001910219675262725</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>525</v>
@@ -20105,21 +20897,24 @@
         <v>522.1</v>
       </c>
       <c r="T264">
+        <v>524.3333333333334</v>
+      </c>
+      <c r="U264">
         <v>1.34375</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>0.0002237350976443953</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>0.0006388551715326152</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>0.0009532888465204614</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>524.5</v>
@@ -20176,21 +20971,24 @@
         <v>522.4333333333333</v>
       </c>
       <c r="T265">
+        <v>524.6666666666666</v>
+      </c>
+      <c r="U265">
         <v>1.375</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0.0002236850514474309</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>0.0006384472961755705</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.0009523809523809268</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>524</v>
@@ -20247,21 +21045,24 @@
         <v>522.6666666666666</v>
       </c>
       <c r="T266">
+        <v>524.5</v>
+      </c>
+      <c r="U266">
         <v>1.34375</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>0.0001597393054535434</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>0.0004466279589101507</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0009532888465204614</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>524</v>
@@ -20318,21 +21119,24 @@
         <v>522.9</v>
       </c>
       <c r="T267">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U267">
         <v>1.25</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>0.0001916565514599178</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>0.0004464285714285143</v>
       </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="X267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>524</v>
@@ -20389,21 +21193,24 @@
         <v>523.1</v>
       </c>
       <c r="T268">
+        <v>524</v>
+      </c>
+      <c r="U268">
         <v>1.15625</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>0.0001916198262648106</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>0.0003824823101932218</v>
       </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="X268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>524</v>
@@ -20460,21 +21267,24 @@
         <v>523.3</v>
       </c>
       <c r="T269">
+        <v>524</v>
+      </c>
+      <c r="U269">
         <v>1.03125</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>0.0001915831151415581</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>0.0003823360734083181</v>
       </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="X269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>524</v>
@@ -20531,21 +21341,24 @@
         <v>523.5</v>
       </c>
       <c r="T270">
+        <v>524</v>
+      </c>
+      <c r="U270">
         <v>0.90625</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>0.0001596220150681393</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>0.0003821899484044433</v>
       </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="X270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>524.5</v>
@@ -20602,21 +21415,24 @@
         <v>523.7</v>
       </c>
       <c r="T271">
+        <v>524.1666666666666</v>
+      </c>
+      <c r="U271">
         <v>0.6875</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>0.0001595965399470156</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>0.0003820439350525895</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.0009541984732823749</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>526.5</v>
@@ -20673,21 +21489,24 @@
         <v>524</v>
       </c>
       <c r="T272">
+        <v>525</v>
+      </c>
+      <c r="U272">
         <v>0.5625</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>0.0003191421459116661</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>0.0005728470498376215</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.003813155386082068</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>527</v>
@@ -20744,21 +21563,24 @@
         <v>524.3333333333334</v>
       </c>
       <c r="T273">
+        <v>526</v>
+      </c>
+      <c r="U273">
         <v>0.5625</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>0.0003828483920369496</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>0.0006361323155217313</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>526.5</v>
@@ -20815,21 +21637,24 @@
         <v>524.5666666666667</v>
       </c>
       <c r="T274">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U274">
         <v>0.59375</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>0.0003508100523024194</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>0.00044500953591875</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0009487666034155851</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>526.5</v>
@@ -20886,21 +21711,24 @@
         <v>524.8</v>
       </c>
       <c r="T275">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U275">
         <v>0.6875</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>0.0003506870277680818</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>0.000444811590518901</v>
       </c>
-      <c r="W275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="X275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>526</v>
@@ -20957,21 +21785,24 @@
         <v>524.9666666666667</v>
       </c>
       <c r="T276">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U276">
         <v>0.75</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>0.0003186946268085578</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>0.0003175813008131634</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0009496676163343043</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>526</v>
@@ -21028,21 +21859,24 @@
         <v>525.1333333333333</v>
       </c>
       <c r="T277">
+        <v>526.1666666666666</v>
+      </c>
+      <c r="U277">
         <v>0.84375</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>0.000350452402192003</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0.0003174804749506155</v>
       </c>
-      <c r="W277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="X277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>526</v>
@@ -21099,21 +21933,24 @@
         <v>525.2333333333333</v>
       </c>
       <c r="T278">
+        <v>526</v>
+      </c>
+      <c r="U278">
         <v>0.9375</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>0.0003503296283320356</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>0.0001904278278532789</v>
       </c>
-      <c r="W278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="X278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>526.5</v>
@@ -21170,21 +22007,24 @@
         <v>525.3333333333334</v>
       </c>
       <c r="T279">
+        <v>526.1666666666666</v>
+      </c>
+      <c r="U279">
         <v>1.0625</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>0.0004138809296403423</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>0.0001903915719998484</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0.0009505703422052481</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>527</v>
@@ -21241,21 +22081,24 @@
         <v>525.5</v>
       </c>
       <c r="T280">
+        <v>526.5</v>
+      </c>
+      <c r="U280">
         <v>1</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>0.0004773573497121042</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>0.0003172588832487389</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>526</v>
@@ -21312,21 +22155,24 @@
         <v>525.6333333333333</v>
       </c>
       <c r="T281">
+        <v>526.5</v>
+      </c>
+      <c r="U281">
         <v>0.78125</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>0.0003498950314904103</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>0.0002537266095781199</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.00189753320683117</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>526</v>
@@ -21383,21 +22229,24 @@
         <v>525.7666666666667</v>
       </c>
       <c r="T282">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U282">
         <v>0.59375</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>0.0003497726477790231</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>0.0002536622487159246</v>
       </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="X282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>526.5</v>
@@ -21454,21 +22303,24 @@
         <v>525.9333333333333</v>
       </c>
       <c r="T283">
+        <v>526.1666666666666</v>
+      </c>
+      <c r="U283">
         <v>0.4375</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>0.0003496503496502879</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>0.0003169974006211884</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0.0009505703422052481</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>526.5</v>
@@ -21525,21 +22377,24 @@
         <v>526.1</v>
       </c>
       <c r="T284">
+        <v>526.3333333333334</v>
+      </c>
+      <c r="U284">
         <v>0.34375</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>0.0003495281370151648</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>0.0003168969451134984</v>
       </c>
-      <c r="W284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="X284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>528.5</v>
@@ -21596,21 +22451,24 @@
         <v>526.4</v>
       </c>
       <c r="T285">
+        <v>527.1666666666666</v>
+      </c>
+      <c r="U285">
         <v>0.375</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>0.0004764627406137478</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>0.0005702337958561898</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0.003798670465337217</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>529</v>
@@ -21667,21 +22525,24 @@
         <v>526.7</v>
       </c>
       <c r="T286">
+        <v>528</v>
+      </c>
+      <c r="U286">
         <v>0.4375</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>0.0004762358319840843</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>0.0005699088145898479</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>529</v>
@@ -21738,21 +22599,24 @@
         <v>526.8666666666667</v>
       </c>
       <c r="T287">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U287">
         <v>0.46875</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>0.0004442751967501657</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>0.0003164356686284897</v>
       </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="X287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>528.5</v>
@@ -21809,21 +22673,24 @@
         <v>526.9666666666667</v>
       </c>
       <c r="T288">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U288">
         <v>0.53125</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>0.0004123580536701255</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>0.0001898013412628963</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>-0.000945179584120992</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>529</v>
@@ -21880,21 +22747,24 @@
         <v>527.1333333333333</v>
       </c>
       <c r="T289">
+        <v>528.8333333333334</v>
+      </c>
+      <c r="U289">
         <v>0.78125</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>0.0003804813088557069</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>0.0003162755392496219</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>528</v>
@@ -21951,21 +22821,24 @@
         <v>527.2333333333333</v>
       </c>
       <c r="T290">
+        <v>528.5</v>
+      </c>
+      <c r="U290">
         <v>0.9375</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>0.0003169471649075994</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>0.0001897053243962166</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.001890359168241984</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>528</v>
@@ -22022,21 +22895,24 @@
         <v>527.3666666666667</v>
       </c>
       <c r="T291">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="U291">
         <v>1.03125</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>0.0002851620671080468</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>0.0002528924574825009</v>
       </c>
-      <c r="W291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:23">
+      <c r="X291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>528</v>
@@ -22093,21 +22969,24 @@
         <v>527.5</v>
       </c>
       <c r="T292">
+        <v>528</v>
+      </c>
+      <c r="U292">
         <v>1.09375</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>0.000285080772885804</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>0.0002528285190568358</v>
       </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="X292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>528.5</v>
@@ -22164,21 +23043,24 @@
         <v>527.6666666666666</v>
       </c>
       <c r="T293">
+        <v>528.1666666666666</v>
+      </c>
+      <c r="U293">
         <v>0.9375</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>0.0002533329111118476</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>0.0003159557661926993</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.0009469696969697239</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>529</v>
@@ -22235,21 +23117,24 @@
         <v>527.8333333333334</v>
       </c>
       <c r="T294">
+        <v>528.5</v>
+      </c>
+      <c r="U294">
         <v>0.75</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>0.000253268749802027</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>0.0003158559696778696</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>0.0009460737937558861</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>528</v>
@@ -22306,21 +23191,24 @@
         <v>527.9</v>
       </c>
       <c r="T295">
+        <v>528.5</v>
+      </c>
+      <c r="U295">
         <v>0.53125</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>0.0002215540433612162</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>0.0001263024944742064</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>-0.001890359168241984</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>528</v>
@@ -22377,21 +23265,24 @@
         <v>528.0333333333333</v>
       </c>
       <c r="T296">
+        <v>528.3333333333334</v>
+      </c>
+      <c r="U296">
         <v>0.40625</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>0.0002531485349028806</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>0.0002525730883373711</v>
       </c>
-      <c r="W296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="X296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>527.5</v>
@@ -22448,21 +23339,24 @@
         <v>528.1333333333333</v>
       </c>
       <c r="T297">
+        <v>527.8333333333334</v>
+      </c>
+      <c r="U297">
         <v>0.125</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>0.0002214489085732296</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>0.0001893819834606347</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>-0.0009469696969697239</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>528</v>
@@ -22519,21 +23413,24 @@
         <v>528.2333333333333</v>
       </c>
       <c r="T298">
-        <v>0</v>
+        <v>527.8333333333334</v>
       </c>
       <c r="U298">
+        <v>0</v>
+      </c>
+      <c r="V298">
         <v>0.0002530284340702682</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>0.0001893461247159944</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>0.0009478672985780978</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>527.5</v>
@@ -22590,21 +23487,24 @@
         <v>528.3</v>
       </c>
       <c r="T299">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U299">
         <v>-0.125</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>0.0002213438735179096</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>0.000126206853032107</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>-0.0009469696969697239</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>527.5</v>
@@ -22661,21 +23561,24 @@
         <v>528.2333333333333</v>
       </c>
       <c r="T300">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U300">
         <v>-0.25</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>0.0002212948912494461</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>-0.0001261909268722716</v>
       </c>
-      <c r="W300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="X300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>527.5</v>
@@ -22732,21 +23635,24 @@
         <v>528.1333333333333</v>
       </c>
       <c r="T301">
+        <v>527.5</v>
+      </c>
+      <c r="U301">
         <v>-0.3125</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>0.0001896393691329656</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>-0.0001893102795482715</v>
       </c>
-      <c r="W301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="X301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>528</v>
@@ -22803,21 +23709,24 @@
         <v>528.0666666666667</v>
       </c>
       <c r="T302">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U302">
         <v>-0.375</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>9.480170643083596E-05</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>-0.0001262307498105519</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0.0009478672985780978</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>527.5</v>
@@ -22874,21 +23783,24 @@
         <v>528</v>
       </c>
       <c r="T303">
+        <v>527.6666666666666</v>
+      </c>
+      <c r="U303">
         <v>-0.34375</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>3.159757330628565E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>-0.000126246686024567</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>-0.0009469696969697239</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>526.5</v>
@@ -22945,21 +23857,24 @@
         <v>527.8333333333334</v>
       </c>
       <c r="T304">
+        <v>527.3333333333334</v>
+      </c>
+      <c r="U304">
         <v>-0.40625</v>
       </c>
-      <c r="U304">
-        <v>0</v>
-      </c>
       <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
         <v>-0.0003156565656564636</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>-0.001895734597156418</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>526.5</v>
@@ -23016,21 +23931,24 @@
         <v>527.7333333333333</v>
       </c>
       <c r="T305">
+        <v>526.8333333333334</v>
+      </c>
+      <c r="U305">
         <v>-0.375</v>
       </c>
-      <c r="U305">
-        <v>0</v>
-      </c>
       <c r="V305">
+        <v>0</v>
+      </c>
+      <c r="W305">
         <v>-0.0001894537417114206</v>
       </c>
-      <c r="W305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:23">
+      <c r="X305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>526.5</v>
@@ -23087,21 +24005,24 @@
         <v>527.6333333333333</v>
       </c>
       <c r="T306">
+        <v>526.5</v>
+      </c>
+      <c r="U306">
         <v>-0.46875</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>3.159657493134738E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>-0.0001894896412329983</v>
       </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:23">
+      <c r="X306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>527</v>
@@ -23158,21 +24079,24 @@
         <v>527.5666666666667</v>
       </c>
       <c r="T307">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U307">
         <v>-0.46875</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>6.319115323849545E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>-0.000126350369574757</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>0.0009496676163343043</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>527.5</v>
@@ -23229,21 +24153,24 @@
         <v>527.5</v>
       </c>
       <c r="T308">
+        <v>527</v>
+      </c>
+      <c r="U308">
         <v>-0.4375</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>9.478074055357943E-05</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>-0.0001263663360081546</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0009487666034155851</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>526.5</v>
@@ -23300,21 +24227,24 @@
         <v>527.3333333333334</v>
       </c>
       <c r="T309">
+        <v>527</v>
+      </c>
+      <c r="U309">
         <v>-0.4375</v>
       </c>
-      <c r="U309">
-        <v>0</v>
-      </c>
       <c r="V309">
+        <v>0</v>
+      </c>
+      <c r="W309">
         <v>-0.0003159557661926993</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>-0.001895734597156418</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>526</v>
@@ -23371,15 +24301,18 @@
         <v>527.2</v>
       </c>
       <c r="T310">
+        <v>526.6666666666666</v>
+      </c>
+      <c r="U310">
         <v>-0.5</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>-6.318117201087325E-05</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>-0.0002528445006321212</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>-0.0009496676163343043</v>
       </c>
     </row>
